--- a/prowler-report-template.xlsx
+++ b/prowler-report-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micvirgi\Downloads\prowlerv4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micvirgi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FE9240-C92C-46C6-9A60-754FAFD9D956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F660F8-C1BB-4F2C-8634-6424D60DC59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="930" windowWidth="27780" windowHeight="14550" activeTab="1" xr2:uid="{0487832F-E362-F645-8976-2EFD8C4D20FE}"/>
+    <workbookView xWindow="27204" yWindow="-8424" windowWidth="33600" windowHeight="20496" activeTab="1" xr2:uid="{0487832F-E362-F645-8976-2EFD8C4D20FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="11" r:id="rId1"/>
@@ -1098,27 +1098,6 @@
     </r>
   </si>
   <si>
-    <t>242404996810-Development</t>
-  </si>
-  <si>
-    <t>micvirgi+lab04-development@amazon.com</t>
-  </si>
-  <si>
-    <t>arn:aws:organizations::524106495947:organization/o-gi9cdhona8</t>
-  </si>
-  <si>
-    <t>o-gi9cdhona8</t>
-  </si>
-  <si>
-    <t>prowler-aws-accessanalyzer_enabled-242404996810-ap-northeast-1-242404996810</t>
-  </si>
-  <si>
-    <t>IAM Access Analyzer in account 242404996810 is not enabled.</t>
-  </si>
-  <si>
-    <t>arn:aws:iam::242404996810:root</t>
-  </si>
-  <si>
     <t>ap-northeast-1</t>
   </si>
   <si>
@@ -1128,696 +1107,318 @@
     <t>4.2.4</t>
   </si>
   <si>
-    <t>prowler-aws-accessanalyzer_enabled-242404996810-ap-northeast-2-242404996810</t>
-  </si>
-  <si>
     <t>ap-northeast-2</t>
   </si>
   <si>
-    <t>prowler-aws-accessanalyzer_enabled-242404996810-ap-northeast-3-242404996810</t>
-  </si>
-  <si>
     <t>ap-northeast-3</t>
   </si>
   <si>
-    <t>prowler-aws-accessanalyzer_enabled-242404996810-ap-south-1-242404996810</t>
-  </si>
-  <si>
     <t>ap-south-1</t>
   </si>
   <si>
-    <t>prowler-aws-accessanalyzer_enabled-242404996810-ap-southeast-1-242404996810</t>
-  </si>
-  <si>
     <t>ap-southeast-1</t>
   </si>
   <si>
-    <t>prowler-aws-accessanalyzer_enabled-242404996810-ap-southeast-2-242404996810</t>
-  </si>
-  <si>
     <t>ap-southeast-2</t>
   </si>
   <si>
-    <t>prowler-aws-accessanalyzer_enabled-242404996810-ca-central-1-242404996810</t>
-  </si>
-  <si>
     <t>ca-central-1</t>
   </si>
   <si>
-    <t>prowler-aws-accessanalyzer_enabled-242404996810-eu-central-1-242404996810</t>
-  </si>
-  <si>
     <t>eu-central-1</t>
   </si>
   <si>
-    <t>prowler-aws-accessanalyzer_enabled-242404996810-eu-north-1-242404996810</t>
-  </si>
-  <si>
     <t>eu-north-1</t>
   </si>
   <si>
-    <t>prowler-aws-accessanalyzer_enabled-242404996810-eu-west-1-242404996810</t>
-  </si>
-  <si>
     <t>eu-west-1</t>
   </si>
   <si>
-    <t>prowler-aws-accessanalyzer_enabled-242404996810-eu-west-2-242404996810</t>
-  </si>
-  <si>
     <t>eu-west-2</t>
   </si>
   <si>
-    <t>prowler-aws-accessanalyzer_enabled-242404996810-eu-west-3-242404996810</t>
-  </si>
-  <si>
     <t>eu-west-3</t>
   </si>
   <si>
-    <t>prowler-aws-accessanalyzer_enabled-242404996810-sa-east-1-242404996810</t>
-  </si>
-  <si>
     <t>sa-east-1</t>
   </si>
   <si>
-    <t>prowler-aws-accessanalyzer_enabled-242404996810-us-east-1-242404996810</t>
-  </si>
-  <si>
-    <t>prowler-aws-accessanalyzer_enabled-242404996810-us-east-2-242404996810</t>
-  </si>
-  <si>
-    <t>prowler-aws-accessanalyzer_enabled-242404996810-us-west-1-242404996810</t>
-  </si>
-  <si>
-    <t>prowler-aws-accessanalyzer_enabled-242404996810-us-west-2-242404996810</t>
-  </si>
-  <si>
-    <t>prowler-aws-account_maintain_different_contact_details_to_security_billing_and_operations-242404996810-us-east-1-242404996810</t>
-  </si>
-  <si>
-    <t>prowler-aws-awslambda_function_invoke_api_operations_cloudtrail_logging_enabled-242404996810-us-east-1-BlockEBSSnapshotAccess</t>
-  </si>
-  <si>
     <t>Lambda function BlockEBSSnapshotAccess is not recorded by CloudTrail.</t>
   </si>
   <si>
-    <t>arn:aws:lambda:us-east-1:242404996810:function:BlockEBSSnapshotAccess</t>
-  </si>
-  <si>
     <t>BlockEBSSnapshotAccess</t>
   </si>
   <si>
-    <t>aws:cloudformation:logical-id=BlockEBSSnapshotAccessFunction | aws:cloudformation:stack-id=arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-EBS-BlockEBSSnapshotAccess-ffd9f84d-391b-4236-8582-104246bc2965/f3a6cd20-995c-11ee-8b22-0a6a638f5991 | aws:cloudformation:stack-name=StackSet-EBS-BlockEBSSnapshotAccess-ffd9f84d-391b-4236-8582-104246bc2965</t>
-  </si>
-  <si>
     <t>AWS-Well-Architected-Framework-Reliability-Pillar: REL06-BP01 | AWS-Well-Architected-Framework-Security-Pillar: SEC04-BP01</t>
   </si>
   <si>
-    <t>prowler-aws-awslambda_function_invoke_api_operations_cloudtrail_logging_enabled-242404996810-us-east-1-BlockPublicAccountAccess</t>
-  </si>
-  <si>
     <t>Lambda function BlockPublicAccountAccess is not recorded by CloudTrail.</t>
   </si>
   <si>
-    <t>arn:aws:lambda:us-east-1:242404996810:function:BlockPublicAccountAccess</t>
-  </si>
-  <si>
     <t>BlockPublicAccountAccess</t>
   </si>
   <si>
-    <t>aws:cloudformation:logical-id=BlockPublicAccountAccess | aws:cloudformation:stack-id=arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-S3-BlockPublicAcceess-b8d9d27a-41c8-4fdd-872a-9a34d908c242/2aa1a2c0-2919-11ec-b6c1-12796b1813d3 | aws:cloudformation:stack-name=StackSet-S3-BlockPublicAcceess-b8d9d27a-41c8-4fdd-872a-9a34d908c242</t>
-  </si>
-  <si>
-    <t>prowler-aws-awslambda_function_invoke_api_operations_cloudtrail_logging_enabled-242404996810-us-east-1-EbsEncryptionByDefault</t>
-  </si>
-  <si>
     <t>Lambda function EbsEncryptionByDefault is not recorded by CloudTrail.</t>
   </si>
   <si>
-    <t>arn:aws:lambda:us-east-1:242404996810:function:EbsEncryptionByDefault</t>
-  </si>
-  <si>
     <t>EbsEncryptionByDefault</t>
   </si>
   <si>
-    <t>aws:cloudformation:logical-id=EbsEncryptionByDefaultLambda | aws:cloudformation:stack-id=arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-EncryptByDefault-8836c534-91b4-4f1d-8df9-ebb5501cbf64/a1b0bec0-2c55-11ec-9e59-0e7e2b43c22b | aws:cloudformation:stack-name=StackSet-EncryptByDefault-8836c534-91b4-4f1d-8df9-ebb5501cbf64</t>
-  </si>
-  <si>
-    <t>prowler-aws-awslambda_function_invoke_api_operations_cloudtrail_logging_enabled-242404996810-us-east-1-IamPasswordPolicy</t>
-  </si>
-  <si>
     <t>Lambda function IamPasswordPolicy is not recorded by CloudTrail.</t>
   </si>
   <si>
-    <t>arn:aws:lambda:us-east-1:242404996810:function:IamPasswordPolicy</t>
-  </si>
-  <si>
     <t>IamPasswordPolicy</t>
   </si>
   <si>
-    <t>Application=CloudInfrastructure | Name=IamPasswordPolicy | Owner=daniel.dominic@globalfoundries.com | Program=Phoenix | Project=D2P | Workstream=CloudFoundation | aws:cloudformation:logical-id=IamPasswordPolicyLambda | aws:cloudformation:stack-id=arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-IAM-PasswordPolicy-275f38d1-6f5d-4d6a-97d6-b16b0f4307ac/a0647ed0-2917-11ec-90bd-126da84abf31 | aws:cloudformation:stack-name=StackSet-IAM-PasswordPolicy-275f38d1-6f5d-4d6a-97d6-b16b0f4307ac</t>
-  </si>
-  <si>
-    <t>prowler-aws-awslambda_function_invoke_api_operations_cloudtrail_logging_enabled-242404996810-us-east-1-R53VPCQueryLoggingAssociationCFN</t>
-  </si>
-  <si>
     <t>Lambda function R53VPCQueryLoggingAssociationCFN is not recorded by CloudTrail.</t>
   </si>
   <si>
-    <t>arn:aws:lambda:us-east-1:242404996810:function:R53VPCQueryLoggingAssociationCFN</t>
-  </si>
-  <si>
     <t>R53VPCQueryLoggingAssociationCFN</t>
   </si>
   <si>
-    <t>aws:cloudformation:logical-id=AssociateVPCsFunctionCFN | aws:cloudformation:stack-id=arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded/6c1f5a90-da5a-11ee-aea4-0a6b3b123cad | aws:cloudformation:stack-name=StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded</t>
-  </si>
-  <si>
-    <t>prowler-aws-awslambda_function_invoke_api_operations_cloudtrail_logging_enabled-242404996810-us-east-1-R53VPCQueryLoggingAssociationEB</t>
-  </si>
-  <si>
     <t>Lambda function R53VPCQueryLoggingAssociationEB is not recorded by CloudTrail.</t>
   </si>
   <si>
-    <t>arn:aws:lambda:us-east-1:242404996810:function:R53VPCQueryLoggingAssociationEB</t>
-  </si>
-  <si>
     <t>R53VPCQueryLoggingAssociationEB</t>
   </si>
   <si>
-    <t>aws:cloudformation:logical-id=AssociateVPCsFunctionEB | aws:cloudformation:stack-id=arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded/6c1f5a90-da5a-11ee-aea4-0a6b3b123cad | aws:cloudformation:stack-name=StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded</t>
-  </si>
-  <si>
-    <t>prowler-aws-awslambda_function_invoke_api_operations_cloudtrail_logging_enabled-242404996810-us-east-1-R53VPCQueryLoggingDisassociation</t>
-  </si>
-  <si>
     <t>Lambda function R53VPCQueryLoggingDisassociation is not recorded by CloudTrail.</t>
   </si>
   <si>
-    <t>arn:aws:lambda:us-east-1:242404996810:function:R53VPCQueryLoggingDisassociation</t>
-  </si>
-  <si>
     <t>R53VPCQueryLoggingDisassociation</t>
   </si>
   <si>
-    <t>aws:cloudformation:logical-id=DisassociateR53QueryLoggingFunctionCFN | aws:cloudformation:stack-id=arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded/6c1f5a90-da5a-11ee-aea4-0a6b3b123cad | aws:cloudformation:stack-name=StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded</t>
-  </si>
-  <si>
-    <t>prowler-aws-awslambda_function_invoke_api_operations_cloudtrail_logging_enabled-242404996810-us-east-1-aws-controltower-NotificationForwarder</t>
-  </si>
-  <si>
     <t>Lambda function aws-controltower-NotificationForwarder is not recorded by CloudTrail.</t>
   </si>
   <si>
-    <t>arn:aws:lambda:us-east-1:242404996810:function:aws-controltower-NotificationForwarder</t>
-  </si>
-  <si>
     <t>aws-controltower-NotificationForwarder</t>
   </si>
   <si>
-    <t>aws:cloudformation:logical-id=ForwardSnsNotification | aws:cloudformation:stack-id=arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-20773e15-de56-4494-8411-64b6cc683dbf/5def0590-1380-11ec-95db-0ecb9fa14949 | aws:cloudformation:stack-name=StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-20773e15-de56-4494-8411-64b6cc683dbf</t>
-  </si>
-  <si>
-    <t>prowler-aws-awslambda_function_invoke_api_operations_cloudtrail_logging_enabled-242404996810-us-east-2-BlockEBSSnapshotAccess</t>
-  </si>
-  <si>
-    <t>arn:aws:lambda:us-east-2:242404996810:function:BlockEBSSnapshotAccess</t>
-  </si>
-  <si>
-    <t>aws:cloudformation:logical-id=BlockEBSSnapshotAccessFunction | aws:cloudformation:stack-id=arn:aws:cloudformation:us-east-2:242404996810:stack/StackSet-EBS-BlockEBSSnapshotAccess-d0cd730c-39d9-4ad9-907f-893c5f90f05b/f3c355d0-995c-11ee-971b-06b6f9c515fb | aws:cloudformation:stack-name=StackSet-EBS-BlockEBSSnapshotAccess-d0cd730c-39d9-4ad9-907f-893c5f90f05b</t>
-  </si>
-  <si>
-    <t>prowler-aws-awslambda_function_invoke_api_operations_cloudtrail_logging_enabled-242404996810-us-east-2-aws-controltower-NotificationForwarder</t>
-  </si>
-  <si>
-    <t>arn:aws:lambda:us-east-2:242404996810:function:aws-controltower-NotificationForwarder</t>
-  </si>
-  <si>
-    <t>aws:cloudformation:logical-id=ForwardSnsNotification | aws:cloudformation:stack-id=arn:aws:cloudformation:us-east-2:242404996810:stack/StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-c89a51ba-6909-4fef-8200-b9f311eb9cd8/5e5679f0-1380-11ec-8951-02bc742e1cea | aws:cloudformation:stack-name=StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-c89a51ba-6909-4fef-8200-b9f311eb9cd8</t>
-  </si>
-  <si>
-    <t>prowler-aws-awslambda_function_invoke_api_operations_cloudtrail_logging_enabled-242404996810-us-west-2-aws-controltower-NotificationForwarder</t>
-  </si>
-  <si>
-    <t>arn:aws:lambda:us-west-2:242404996810:function:aws-controltower-NotificationForwarder</t>
-  </si>
-  <si>
-    <t>aws:cloudformation:logical-id=ForwardSnsNotification | aws:cloudformation:stack-id=arn:aws:cloudformation:us-west-2:242404996810:stack/StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-3001653e-0d85-4bc6-beaf-1e0fcadc0925/5e2fb810-1380-11ec-b0d0-02ee1a9675eb | aws:cloudformation:stack-name=StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-3001653e-0d85-4bc6-beaf-1e0fcadc0925</t>
-  </si>
-  <si>
-    <t>prowler-aws-awslambda_function_no_secrets_in_variables-242404996810-us-east-1-IamPasswordPolicy</t>
-  </si>
-  <si>
     <t>Potential secret found in Lambda function IamPasswordPolicy variables -&gt; Secret Keyword in variable PasswordPolicyRequireNumbers, Secret Keyword in variable PasswordPolicyHardExpiry.</t>
   </si>
   <si>
     <t>AWS-Well-Architected-Framework-Security-Pillar: SEC02-BP03 | MITRE-ATTACK: T1552</t>
   </si>
   <si>
-    <t>prowler-aws-awslambda_function_no_secrets_in_variables-242404996810-us-east-1-aws-controltower-NotificationForwarder</t>
-  </si>
-  <si>
     <t>Potential secret found in Lambda function aws-controltower-NotificationForwarder variables -&gt; Telegram Bot Token in variable sns_arn.</t>
   </si>
   <si>
-    <t>prowler-aws-awslambda_function_no_secrets_in_variables-242404996810-us-east-2-aws-controltower-NotificationForwarder</t>
-  </si>
-  <si>
-    <t>prowler-aws-awslambda_function_no_secrets_in_variables-242404996810-us-west-2-aws-controltower-NotificationForwarder</t>
-  </si>
-  <si>
-    <t>prowler-aws-cloudformation_stack_outputs_find_secrets-242404996810-us-east-1-StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-20773e15-de56-4494-8411-64b6cc683dbf</t>
-  </si>
-  <si>
     <t>Potential secret found in Stack StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-20773e15-de56-4494-8411-64b6cc683dbf Outputs.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-20773e15-de56-4494-8411-64b6cc683dbf/5def0590-1380-11ec-95db-0ecb9fa14949</t>
-  </si>
-  <si>
     <t>StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-20773e15-de56-4494-8411-64b6cc683dbf</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stack_outputs_find_secrets-242404996810-us-east-2-StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-c89a51ba-6909-4fef-8200-b9f311eb9cd8</t>
-  </si>
-  <si>
     <t>Potential secret found in Stack StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-c89a51ba-6909-4fef-8200-b9f311eb9cd8 Outputs.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-east-2:242404996810:stack/StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-c89a51ba-6909-4fef-8200-b9f311eb9cd8/5e5679f0-1380-11ec-8951-02bc742e1cea</t>
-  </si>
-  <si>
     <t>StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-c89a51ba-6909-4fef-8200-b9f311eb9cd8</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stack_outputs_find_secrets-242404996810-us-west-2-StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-3001653e-0d85-4bc6-beaf-1e0fcadc0925</t>
-  </si>
-  <si>
     <t>Potential secret found in Stack StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-3001653e-0d85-4bc6-beaf-1e0fcadc0925 Outputs.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-west-2:242404996810:stack/StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-3001653e-0d85-4bc6-beaf-1e0fcadc0925/5e2fb810-1380-11ec-b0d0-02ee1a9675eb</t>
-  </si>
-  <si>
     <t>StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-3001653e-0d85-4bc6-beaf-1e0fcadc0925</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-east-1-StackSet-AWS-QuickSetup-DHMC-TA-gljzw-794342de-6e01-4602-be7a-0fc21d5e73ed</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-AWS-QuickSetup-DHMC-TA-gljzw-794342de-6e01-4602-be7a-0fc21d5e73ed has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-AWS-QuickSetup-DHMC-TA-gljzw-794342de-6e01-4602-be7a-0fc21d5e73ed/fe586f50-2f37-11ef-9b4b-0e6e6895e71b</t>
-  </si>
-  <si>
     <t>StackSet-AWS-QuickSetup-DHMC-TA-gljzw-794342de-6e01-4602-be7a-0fc21d5e73ed</t>
   </si>
   <si>
     <t>QuickSetupType=Default Host Management Configuration | QuickSetupVersion=1.0 | QuickSetupDocument=AWSQuickSetupType-DHMC | QuickSetupID=gljzw</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-east-1-StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-20773e15-de56-4494-8411-64b6cc683dbf</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-20773e15-de56-4494-8411-64b6cc683dbf has termination protection disabled.</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-east-1-StackSet-AWSControlTowerBP-BASELINE-CONFIG-63fd5b42-616d-4cc1-9aac-0cf8904c695c</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-AWSControlTowerBP-BASELINE-CONFIG-63fd5b42-616d-4cc1-9aac-0cf8904c695c has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-AWSControlTowerBP-BASELINE-CONFIG-63fd5b42-616d-4cc1-9aac-0cf8904c695c/5e4a6c00-1380-11ec-8e14-12ff6568a011</t>
-  </si>
-  <si>
     <t>StackSet-AWSControlTowerBP-BASELINE-CONFIG-63fd5b42-616d-4cc1-9aac-0cf8904c695c</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-east-1-StackSet-AWSControlTowerBP-BASELINE-ROLES-b4e4893e-0db5-4f1a-b226-54cd62216352</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-AWSControlTowerBP-BASELINE-ROLES-b4e4893e-0db5-4f1a-b226-54cd62216352 has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-AWSControlTowerBP-BASELINE-ROLES-b4e4893e-0db5-4f1a-b226-54cd62216352/2747eed0-1380-11ec-af37-127a86db29c5</t>
-  </si>
-  <si>
     <t>StackSet-AWSControlTowerBP-BASELINE-ROLES-b4e4893e-0db5-4f1a-b226-54cd62216352</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-east-1-StackSet-AWSControlTowerBP-BASELINE-SERVICE-LINKED-ROLE-fd851520-a1a2-456c-b458-f7a041a69e6a</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-AWSControlTowerBP-BASELINE-SERVICE-LINKED-ROLE-fd851520-a1a2-456c-b458-f7a041a69e6a has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-AWSControlTowerBP-BASELINE-SERVICE-LINKED-ROLE-fd851520-a1a2-456c-b458-f7a041a69e6a/94a58700-0f8f-11ee-b1e0-1218603a0277</t>
-  </si>
-  <si>
     <t>StackSet-AWSControlTowerBP-BASELINE-SERVICE-LINKED-ROLE-fd851520-a1a2-456c-b458-f7a041a69e6a</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-east-1-StackSet-AWSControlTowerBP-BASELINE-SERVICE-ROLES-eafa7833-ad03-4724-b473-9c92c3a459d1</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-AWSControlTowerBP-BASELINE-SERVICE-ROLES-eafa7833-ad03-4724-b473-9c92c3a459d1 has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-AWSControlTowerBP-BASELINE-SERVICE-ROLES-eafa7833-ad03-4724-b473-9c92c3a459d1/2769f5c0-1380-11ec-b83b-0a42328e7139</t>
-  </si>
-  <si>
     <t>StackSet-AWSControlTowerBP-BASELINE-SERVICE-ROLES-eafa7833-ad03-4724-b473-9c92c3a459d1</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-east-1-StackSet-AWSNetworkManagerCrossAccountResourceAccessStackSet-7b039ee8-9f58-4553-b110-cea0f162eed7</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-AWSNetworkManagerCrossAccountResourceAccessStackSet-7b039ee8-9f58-4553-b110-cea0f162eed7 has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-AWSNetworkManagerCrossAccountResourceAccessStackSet-7b039ee8-9f58-4553-b110-cea0f162eed7/4346f210-dbd6-11ec-bddc-0a2681514cf1</t>
-  </si>
-  <si>
     <t>StackSet-AWSNetworkManagerCrossAccountResourceAccessStackSet-7b039ee8-9f58-4553-b110-cea0f162eed7</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-east-1-StackSet-CloudWatchCrossAccountSharingStackSet-703ac5f2-785e-47eb-ac8f-dffe7bf8bc72</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-CloudWatchCrossAccountSharingStackSet-703ac5f2-785e-47eb-ac8f-dffe7bf8bc72 has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-CloudWatchCrossAccountSharingStackSet-703ac5f2-785e-47eb-ac8f-dffe7bf8bc72/3d2bd5d0-dbd6-11ec-a519-0e9da151acdb</t>
-  </si>
-  <si>
     <t>StackSet-CloudWatchCrossAccountSharingStackSet-703ac5f2-785e-47eb-ac8f-dffe7bf8bc72</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-east-1-StackSet-EBS-BlockEBSSnapshotAccess-ffd9f84d-391b-4236-8582-104246bc2965</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-EBS-BlockEBSSnapshotAccess-ffd9f84d-391b-4236-8582-104246bc2965 has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-EBS-BlockEBSSnapshotAccess-ffd9f84d-391b-4236-8582-104246bc2965/f3a6cd20-995c-11ee-8b22-0a6a638f5991</t>
-  </si>
-  <si>
     <t>StackSet-EBS-BlockEBSSnapshotAccess-ffd9f84d-391b-4236-8582-104246bc2965</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-east-1-StackSet-EncryptByDefault-8836c534-91b4-4f1d-8df9-ebb5501cbf64</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-EncryptByDefault-8836c534-91b4-4f1d-8df9-ebb5501cbf64 has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-EncryptByDefault-8836c534-91b4-4f1d-8df9-ebb5501cbf64/a1b0bec0-2c55-11ec-9e59-0e7e2b43c22b</t>
-  </si>
-  <si>
     <t>StackSet-EncryptByDefault-8836c534-91b4-4f1d-8df9-ebb5501cbf64</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-east-1-StackSet-IAM-AWSCloudFormationStackSetExecutionRole-372fbbb6-15ad-484c-a8ae-78c070cee2ef</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-IAM-AWSCloudFormationStackSetExecutionRole-372fbbb6-15ad-484c-a8ae-78c070cee2ef has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-IAM-AWSCloudFormationStackSetExecutionRole-372fbbb6-15ad-484c-a8ae-78c070cee2ef/059695d0-209a-11ec-9920-0acb0d48ddc3</t>
-  </si>
-  <si>
     <t>StackSet-IAM-AWSCloudFormationStackSetExecutionRole-372fbbb6-15ad-484c-a8ae-78c070cee2ef</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-east-1-StackSet-IAM-GeneralInstanceRole-2a2e6f1c-3cb2-4775-819f-2b4ed4547847</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-IAM-GeneralInstanceRole-2a2e6f1c-3cb2-4775-819f-2b4ed4547847 has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-IAM-GeneralInstanceRole-2a2e6f1c-3cb2-4775-819f-2b4ed4547847/da52da40-137f-11ec-b6e5-0a6164463715</t>
-  </si>
-  <si>
     <t>StackSet-IAM-GeneralInstanceRole-2a2e6f1c-3cb2-4775-819f-2b4ed4547847</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-east-1-StackSet-IAM-IAMUserAuditCrossAccountRole-02dd49a0-b93d-43d3-b852-0a297791bbe0</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-IAM-IAMUserAuditCrossAccountRole-02dd49a0-b93d-43d3-b852-0a297791bbe0 has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-IAM-IAMUserAuditCrossAccountRole-02dd49a0-b93d-43d3-b852-0a297791bbe0/48eb6e00-07e4-11ed-9e86-0ee230544ff7</t>
-  </si>
-  <si>
     <t>StackSet-IAM-IAMUserAuditCrossAccountRole-02dd49a0-b93d-43d3-b852-0a297791bbe0</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-east-1-StackSet-IAM-NAAExecutionRole-51a889ae-f301-4f41-9408-529bee8dbc17</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-IAM-NAAExecutionRole-51a889ae-f301-4f41-9408-529bee8dbc17 has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-IAM-NAAExecutionRole-51a889ae-f301-4f41-9408-529bee8dbc17/852d34e0-2d1c-11ed-8f12-122d2069f0bd</t>
-  </si>
-  <si>
     <t>StackSet-IAM-NAAExecutionRole-51a889ae-f301-4f41-9408-529bee8dbc17</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-east-1-StackSet-IAM-PasswordPolicy-275f38d1-6f5d-4d6a-97d6-b16b0f4307ac</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-IAM-PasswordPolicy-275f38d1-6f5d-4d6a-97d6-b16b0f4307ac has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-IAM-PasswordPolicy-275f38d1-6f5d-4d6a-97d6-b16b0f4307ac/a0647ed0-2917-11ec-90bd-126da84abf31</t>
-  </si>
-  <si>
     <t>StackSet-IAM-PasswordPolicy-275f38d1-6f5d-4d6a-97d6-b16b0f4307ac</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-east-1-StackSet-IAM-ProwlerExecRole-12b57af1-14e6-4efc-b640-608ca915d896</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-IAM-ProwlerExecRole-12b57af1-14e6-4efc-b640-608ca915d896 has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-IAM-ProwlerExecRole-12b57af1-14e6-4efc-b640-608ca915d896/2b7439e0-326f-11ee-ab77-0a381ff6a4e1</t>
-  </si>
-  <si>
     <t>StackSet-IAM-ProwlerExecRole-12b57af1-14e6-4efc-b640-608ca915d896</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-east-1-StackSet-NAAExecRole-1a442535-a9bc-4077-8b7a-3888569bb582</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-NAAExecRole-1a442535-a9bc-4077-8b7a-3888569bb582 has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-NAAExecRole-1a442535-a9bc-4077-8b7a-3888569bb582/38215ed0-7dbf-11ed-8cc9-0e45eaf1a785</t>
-  </si>
-  <si>
     <t>StackSet-NAAExecRole-1a442535-a9bc-4077-8b7a-3888569bb582</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-east-1-StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded/6c1f5a90-da5a-11ee-aea4-0a6b3b123cad</t>
-  </si>
-  <si>
     <t>StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-east-1-StackSet-RecreateOrganizationControlRole-Isengard-f7898d2c-c48b-4781-ad8a-f3f5f4cc7b08</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-RecreateOrganizationControlRole-Isengard-f7898d2c-c48b-4781-ad8a-f3f5f4cc7b08 has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-RecreateOrganizationControlRole-Isengard-f7898d2c-c48b-4781-ad8a-f3f5f4cc7b08/5b9f8660-a3db-11ed-a849-0abdadd99453</t>
-  </si>
-  <si>
     <t>StackSet-RecreateOrganizationControlRole-Isengard-f7898d2c-c48b-4781-ad8a-f3f5f4cc7b08</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-east-1-StackSet-S3-BlockPublicAcceess-b8d9d27a-41c8-4fdd-872a-9a34d908c242</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-S3-BlockPublicAcceess-b8d9d27a-41c8-4fdd-872a-9a34d908c242 has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-S3-BlockPublicAcceess-b8d9d27a-41c8-4fdd-872a-9a34d908c242/2aa1a2c0-2919-11ec-b6c1-12796b1813d3</t>
-  </si>
-  <si>
     <t>StackSet-S3-BlockPublicAcceess-b8d9d27a-41c8-4fdd-872a-9a34d908c242</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-east-1-StackSet-SSM-PVREReporting-5ddd823c-c3b1-4de0-b6fc-f4d905cbb598</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-SSM-PVREReporting-5ddd823c-c3b1-4de0-b6fc-f4d905cbb598 has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-SSM-PVREReporting-5ddd823c-c3b1-4de0-b6fc-f4d905cbb598/ddaadee0-137f-11ec-9dab-12d2028a0f59</t>
-  </si>
-  <si>
     <t>StackSet-SSM-PVREReporting-5ddd823c-c3b1-4de0-b6fc-f4d905cbb598</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-east-1-StackSet-SSM-PatchBaselinesAndMaintenaceWindows-f072ca11-9594-497f-9e80-cad38d97d318</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-SSM-PatchBaselinesAndMaintenaceWindows-f072ca11-9594-497f-9e80-cad38d97d318 has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-SSM-PatchBaselinesAndMaintenaceWindows-f072ca11-9594-497f-9e80-cad38d97d318/45e973f0-ffbe-11ed-bed9-0ab26350f4a1</t>
-  </si>
-  <si>
     <t>StackSet-SSM-PatchBaselinesAndMaintenaceWindows-f072ca11-9594-497f-9e80-cad38d97d318</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-east-2-StackSet-AWS-QuickSetup-DHMC-TA-gljzw-e10ba538-6d41-4c59-9a65-19e7babd308b</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-AWS-QuickSetup-DHMC-TA-gljzw-e10ba538-6d41-4c59-9a65-19e7babd308b has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-east-2:242404996810:stack/StackSet-AWS-QuickSetup-DHMC-TA-gljzw-e10ba538-6d41-4c59-9a65-19e7babd308b/fe3f1af0-2f37-11ef-8102-06a5feb55995</t>
-  </si>
-  <si>
     <t>StackSet-AWS-QuickSetup-DHMC-TA-gljzw-e10ba538-6d41-4c59-9a65-19e7babd308b</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-east-2-StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-c89a51ba-6909-4fef-8200-b9f311eb9cd8</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-c89a51ba-6909-4fef-8200-b9f311eb9cd8 has termination protection disabled.</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-east-2-StackSet-AWSControlTowerBP-BASELINE-CONFIG-67a60003-0d16-4214-904c-11393abc31f0</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-AWSControlTowerBP-BASELINE-CONFIG-67a60003-0d16-4214-904c-11393abc31f0 has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-east-2:242404996810:stack/StackSet-AWSControlTowerBP-BASELINE-CONFIG-67a60003-0d16-4214-904c-11393abc31f0/5e8419a0-1380-11ec-a3e8-068fd4a78c78</t>
-  </si>
-  <si>
     <t>StackSet-AWSControlTowerBP-BASELINE-CONFIG-67a60003-0d16-4214-904c-11393abc31f0</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-east-2-StackSet-EBS-BlockEBSSnapshotAccess-d0cd730c-39d9-4ad9-907f-893c5f90f05b</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-EBS-BlockEBSSnapshotAccess-d0cd730c-39d9-4ad9-907f-893c5f90f05b has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-east-2:242404996810:stack/StackSet-EBS-BlockEBSSnapshotAccess-d0cd730c-39d9-4ad9-907f-893c5f90f05b/f3c355d0-995c-11ee-971b-06b6f9c515fb</t>
-  </si>
-  <si>
     <t>StackSet-EBS-BlockEBSSnapshotAccess-d0cd730c-39d9-4ad9-907f-893c5f90f05b</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-east-2-StackSet-SSM-PVREReporting-dd2cdb19-beb1-45aa-8751-940705d96709</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-SSM-PVREReporting-dd2cdb19-beb1-45aa-8751-940705d96709 has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-east-2:242404996810:stack/StackSet-SSM-PVREReporting-dd2cdb19-beb1-45aa-8751-940705d96709/32593c60-c730-11ed-a6f5-020e6ffbd0b2</t>
-  </si>
-  <si>
     <t>StackSet-SSM-PVREReporting-dd2cdb19-beb1-45aa-8751-940705d96709</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-east-2-StackSet-SSM-PatchBaselinesAndMaintenaceWindows-4202cafa-1b51-4ee0-a939-6a4a0b43fa5f</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-SSM-PatchBaselinesAndMaintenaceWindows-4202cafa-1b51-4ee0-a939-6a4a0b43fa5f has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-east-2:242404996810:stack/StackSet-SSM-PatchBaselinesAndMaintenaceWindows-4202cafa-1b51-4ee0-a939-6a4a0b43fa5f/45f7f2e0-ffbe-11ed-8d7d-0a6128490c69</t>
-  </si>
-  <si>
     <t>StackSet-SSM-PatchBaselinesAndMaintenaceWindows-4202cafa-1b51-4ee0-a939-6a4a0b43fa5f</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-west-2-StackSet-AWS-QuickSetup-DHMC-TA-gljzw-41c13200-9b8d-40ee-9cfb-a2abc0443183</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-AWS-QuickSetup-DHMC-TA-gljzw-41c13200-9b8d-40ee-9cfb-a2abc0443183 has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-west-2:242404996810:stack/StackSet-AWS-QuickSetup-DHMC-TA-gljzw-41c13200-9b8d-40ee-9cfb-a2abc0443183/fe8831e0-2f37-11ef-b670-02e8a8afc64b</t>
-  </si>
-  <si>
     <t>StackSet-AWS-QuickSetup-DHMC-TA-gljzw-41c13200-9b8d-40ee-9cfb-a2abc0443183</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-west-2-StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-3001653e-0d85-4bc6-beaf-1e0fcadc0925</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-3001653e-0d85-4bc6-beaf-1e0fcadc0925 has termination protection disabled.</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-west-2-StackSet-AWSControlTowerBP-BASELINE-CONFIG-5eeadb5d-b84e-4711-aa5d-50c61ae9e799</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-AWSControlTowerBP-BASELINE-CONFIG-5eeadb5d-b84e-4711-aa5d-50c61ae9e799 has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-west-2:242404996810:stack/StackSet-AWSControlTowerBP-BASELINE-CONFIG-5eeadb5d-b84e-4711-aa5d-50c61ae9e799/5e659520-1380-11ec-9195-0a9127743e0d</t>
-  </si>
-  <si>
     <t>StackSet-AWSControlTowerBP-BASELINE-CONFIG-5eeadb5d-b84e-4711-aa5d-50c61ae9e799</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-west-2-StackSet-SSM-PVREReporting-67e6ef71-8f93-47f8-8417-f5f4ce427ba7</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-SSM-PVREReporting-67e6ef71-8f93-47f8-8417-f5f4ce427ba7 has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-west-2:242404996810:stack/StackSet-SSM-PVREReporting-67e6ef71-8f93-47f8-8417-f5f4ce427ba7/32ad76e0-c730-11ed-8da2-062b9a061845</t>
-  </si>
-  <si>
     <t>StackSet-SSM-PVREReporting-67e6ef71-8f93-47f8-8417-f5f4ce427ba7</t>
   </si>
   <si>
-    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-242404996810-us-west-2-StackSet-SSM-PatchBaselinesAndMaintenaceWindows-0258a5f3-761d-42bf-9b4b-d6ab24a75b0a</t>
-  </si>
-  <si>
     <t>CloudFormation StackSet-SSM-PatchBaselinesAndMaintenaceWindows-0258a5f3-761d-42bf-9b4b-d6ab24a75b0a has termination protection disabled.</t>
   </si>
   <si>
-    <t>arn:aws:cloudformation:us-west-2:242404996810:stack/StackSet-SSM-PatchBaselinesAndMaintenaceWindows-0258a5f3-761d-42bf-9b4b-d6ab24a75b0a/4621c200-ffbe-11ed-9dad-06fc592c1d07</t>
-  </si>
-  <si>
     <t>StackSet-SSM-PatchBaselinesAndMaintenaceWindows-0258a5f3-761d-42bf-9b4b-d6ab24a75b0a</t>
   </si>
   <si>
-    <t>prowler-aws-cloudtrail_insights_exist-242404996810-us-east-1-aws-controltower-BaselineCloudTrail</t>
-  </si>
-  <si>
     <t>Trail aws-controltower-BaselineCloudTrail does not have insight selectors and it is logging.</t>
   </si>
   <si>
-    <t>arn:aws:cloudtrail:us-east-1:524106495947:trail/aws-controltower-BaselineCloudTrail</t>
-  </si>
-  <si>
     <t>aws-controltower-BaselineCloudTrail</t>
   </si>
   <si>
-    <t>prowler-aws-cloudtrail_kms_encryption_enabled-242404996810-us-east-1-aws-controltower-BaselineCloudTrail</t>
-  </si>
-  <si>
     <t>Multiregion trail aws-controltower-BaselineCloudTrail has encryption disabled.</t>
   </si>
   <si>
@@ -1827,271 +1428,670 @@
     <t>AWS-Foundational-Security-Best-Practices: cloudtrail | AWS-Foundational-Technical-Review: SDAT-002 | AWS-Well-Architected-Framework-Security-Pillar: SEC08-BP02 | CIS-1.4: 3.7 | CIS-1.5: 3.7 | CIS-2.0: 3.7 | CIS-3.0: 3.5 | CISA: your-systems-3, your-data-1 | ENS-RD2022: op.exp.8.r4.aws.ct.4, op.exp.8.r4.aws.ct.7 | FedRAMP-Low-Revision-4: au-9 | FedRamp-Moderate-Revision-4: au-9, sc-28 | GDPR: article_25, article_30, article_32 | GxP-21-CFR-Part-11: 11.10-c, 11.30 | GxP-EU-Annex-11: 7.1-data-storage-damage-protection | HIPAA: 164_308_a_1_ii_b, 164_308_a_1_ii_d, 164_308_a_4_ii_a, 164_312_a_2_iv, 164_312_c_1, 164_312_c_2, 164_312_e_2_ii | NIST-800-171-Revision-2: 3_3_8, 3_13_11, 3_13_16 | NIST-800-53-Revision-4: au_9, sc_28 | NIST-800-53-Revision-5: au_9_3, cm_6_a, cm_9_b, cp_9_d, sc_8_3, sc_8_4, sc_13_a, sc_28_1, si_19_4 | NIST-CSF-1.1: ds_1 | PCI-3.2.1: cloudtrail | RBI-Cyber-Security-Framework: annex_i_1_3</t>
   </si>
   <si>
-    <t>prowler-aws-cloudtrail_s3_dataevents_read_enabled-242404996810-us-east-1-242404996810</t>
-  </si>
-  <si>
     <t>No CloudTrail trails have a data event to record all S3 object-level API operations.</t>
   </si>
   <si>
-    <t>arn:aws:cloudtrail:us-east-1:242404996810:trail</t>
-  </si>
-  <si>
     <t>AWS-Account-Security-Onboarding: Confirm that logs are present in S3 bucket and SIEM | AWS-Well-Architected-Framework-Security-Pillar: SEC04-BP01 | CIS-1.4: 3.11 | CIS-1.5: 3.11 | CIS-2.0: 3.11 | CIS-3.0: 3.9 | CISA: your-systems-3, your-data-2 | ENS-RD2022: op.exp.8.r1.aws.ct.2, op.exp.8.r1.aws.ct.3, op.exp.8.r1.aws.ct.4 | FedRAMP-Low-Revision-4: ac-2, au-2, ca-7 | FedRamp-Moderate-Revision-4: ac-2-4, ac-2-g, au-2-a-d, au-3, au-6-1-3, au-12-a-c, ca-7-a-b, si-4-16, si-4-2, si-4-4, si-4-5 | FFIEC: d2-ma-ma-b-1, d2-ma-ma-b-2, d3-dc-an-b-3, d3-dc-an-b-4, d3-dc-ev-b-1, d5-dr-de-b-3 | GDPR: article_30 | GxP-21-CFR-Part-11: 11.10-e, 11.10-k | GxP-EU-Annex-11: 8.2-printouts-data-changes, 9-audit-trails, 12.4-security-audit-trail | HIPAA: 164_308_a_1_ii_d, 164_308_a_3_ii_a, 164_308_a_6_ii, 164_312_a_2_i, 164_312_b, 164_312_e_2_i | NIST-800-171-Revision-2: 3_1_12, 3_3_1, 3_3_2, 3_3_3, 3_13_1, 3_14_6, 3_14_7 | NIST-800-53-Revision-4: ac_2, au_2, au_3, au_12 | NIST-800-53-Revision-5: ac_2_4, ac_3_1, ac_3_10, ac_4_26, ac_6_9, au_2_b, au_3_a, au_3_b, au_3_c, au_3_d, au_3_e, au_3_f, au_6_3, au_6_4, au_6_6, au_6_9, au_8_b, au_10, au_12_a, au_12_c, au_12_1, au_12_2, au_12_3, au_12_4, au_14_a, au_14_b, au_14_3, ca_7_b, cm_5_1_b, cm_6_a, cm_9_b, ia_3_3_b, ma_4_1_a, pm_14_a_1, pm_14_b, pm_31, sc_7_9_b, si_1_1_c, si_3_8_b, si_4_2, si_4_17, si_4_20, si_7_8, si_10_1_c | NIST-CSF-1.1: ae_3, ae_4, cm_1, cm_3, cm_6, cm_7, ds_5 | RBI-Cyber-Security-Framework: annex_i_7_4 | SOC2: cc_2_1, cc_7_2</t>
   </si>
   <si>
-    <t>prowler-aws-cloudtrail_s3_dataevents_write_enabled-242404996810-us-east-1-242404996810</t>
-  </si>
-  <si>
     <t>AWS-Account-Security-Onboarding: Send S3 access logs for critical buckets to separate S3 bucket, Confirm that logs are present in S3 bucket and SIEM | AWS-Well-Architected-Framework-Security-Pillar: SEC04-BP01 | CIS-1.4: 3.10 | CIS-1.5: 3.10 | CIS-2.0: 3.10 | CIS-3.0: 3.8 | CISA: your-systems-3, your-data-2 | ENS-RD2022: op.exp.8.aws.ct.4, op.exp.8.r1.aws.ct.2, op.exp.8.r1.aws.ct.3, op.exp.8.r1.aws.ct.4 | FedRAMP-Low-Revision-4: ac-2, au-2, ca-7 | FedRamp-Moderate-Revision-4: ac-2-4, ac-2-g, au-2-a-d, au-3, au-6-1-3, au-12-a-c, ca-7-a-b, si-4-16, si-4-2, si-4-4, si-4-5 | FFIEC: d2-ma-ma-b-1, d2-ma-ma-b-2, d3-dc-an-b-3, d3-dc-an-b-4, d3-dc-ev-b-1, d5-dr-de-b-3 | GDPR: article_30 | GxP-21-CFR-Part-11: 11.10-e, 11.10-k | GxP-EU-Annex-11: 8.2-printouts-data-changes, 9-audit-trails, 12.4-security-audit-trail | HIPAA: 164_308_a_1_ii_d, 164_308_a_3_ii_a, 164_308_a_6_ii, 164_312_a_2_i, 164_312_b, 164_312_e_2_i | NIST-800-171-Revision-2: 3_1_12, 3_3_1, 3_3_2, 3_3_3, 3_13_1, 3_14_6, 3_14_7 | NIST-800-53-Revision-4: ac_2, au_2, au_3, au_12 | NIST-800-53-Revision-5: ac_2_4, ac_3_1, ac_3_10, ac_4_26, ac_6_9, au_2_b, au_3_a, au_3_b, au_3_c, au_3_d, au_3_e, au_3_f, au_6_3, au_6_4, au_6_6, au_6_9, au_8_b, au_10, au_12_a, au_12_c, au_12_1, au_12_2, au_12_3, au_12_4, au_14_a, au_14_b, au_14_3, ca_7_b, cm_5_1_b, cm_6_a, cm_9_b, ia_3_3_b, ma_4_1_a, pm_14_a_1, pm_14_b, pm_31, sc_7_9_b, si_1_1_c, si_3_8_b, si_4_2, si_4_17, si_4_20, si_7_8, si_10_1_c | NIST-CSF-1.1: ae_3, ae_4, cm_1, cm_3, cm_6, cm_7, ds_5 | RBI-Cyber-Security-Framework: annex_i_7_4 | SOC2: cc_2_1, cc_7_2</t>
   </si>
   <si>
-    <t>prowler-aws-cloudwatch_cross_account_sharing_disabled-242404996810-us-east-1-CloudWatch-CrossAccountSharingRole</t>
-  </si>
-  <si>
     <t>CloudWatch has allowed cross-account sharing.</t>
   </si>
   <si>
-    <t>arn:aws:iam::242404996810:role/CloudWatch-CrossAccountSharingRole</t>
-  </si>
-  <si>
     <t>CloudWatch-CrossAccountSharingRole</t>
   </si>
   <si>
-    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-242404996810-us-east-1-/aws/lambda/BlockEBSSnapshotAccess</t>
-  </si>
-  <si>
     <t>Log Group /aws/lambda/BlockEBSSnapshotAccess does not have AWS KMS keys associated.</t>
   </si>
   <si>
-    <t>arn:aws:logs:us-east-1:242404996810:log-group:/aws/lambda/BlockEBSSnapshotAccess:*</t>
-  </si>
-  <si>
     <t>/aws/lambda/BlockEBSSnapshotAccess</t>
   </si>
   <si>
     <t>AWS-Well-Architected-Framework-Security-Pillar: SEC08-BP02 | CISA: your-systems-3, your-data-2 | FedRAMP-Low-Revision-4: au-9 | FedRamp-Moderate-Revision-4: au-9, sc-28 | GDPR: article_32 | GxP-21-CFR-Part-11: 11.30 | GxP-EU-Annex-11: 7.1-data-storage-damage-protection | HIPAA: 164_308_a_1_ii_b, 164_308_a_4_ii_a, 164_312_a_2_iv, 164_312_e_2_ii | MITRE-ATTACK: T1040 | NIST-800-171-Revision-2: 3_3_8, 3_13_11, 3_13_16 | NIST-800-53-Revision-4: au_9, sc_28 | NIST-800-53-Revision-5: au_9_3, cp_9_d, sc_8_3, sc_8_4, sc_13_a, sc_28_1, si_19_4 | NIST-CSF-1.1: ds_1 | RBI-Cyber-Security-Framework: annex_i_1_3 | SOC2: cc_7_3</t>
   </si>
   <si>
-    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-242404996810-us-east-1-/aws/lambda/BlockEC2ImageAccess</t>
-  </si>
-  <si>
     <t>Log Group /aws/lambda/BlockEC2ImageAccess does not have AWS KMS keys associated.</t>
   </si>
   <si>
-    <t>arn:aws:logs:us-east-1:242404996810:log-group:/aws/lambda/BlockEC2ImageAccess:*</t>
-  </si>
-  <si>
     <t>/aws/lambda/BlockEC2ImageAccess</t>
   </si>
   <si>
-    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-242404996810-us-east-1-/aws/lambda/BlockPublicAccountAccess</t>
-  </si>
-  <si>
     <t>Log Group /aws/lambda/BlockPublicAccountAccess does not have AWS KMS keys associated.</t>
   </si>
   <si>
-    <t>arn:aws:logs:us-east-1:242404996810:log-group:/aws/lambda/BlockPublicAccountAccess:*</t>
-  </si>
-  <si>
     <t>/aws/lambda/BlockPublicAccountAccess</t>
   </si>
   <si>
-    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-242404996810-us-east-1-/aws/lambda/EbsEncryptionByDefault</t>
-  </si>
-  <si>
     <t>Log Group /aws/lambda/EbsEncryptionByDefault does not have AWS KMS keys associated.</t>
   </si>
   <si>
-    <t>arn:aws:logs:us-east-1:242404996810:log-group:/aws/lambda/EbsEncryptionByDefault:*</t>
-  </si>
-  <si>
     <t>/aws/lambda/EbsEncryptionByDefault</t>
   </si>
   <si>
-    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-242404996810-us-east-1-/aws/lambda/IamPasswordPolicy</t>
-  </si>
-  <si>
     <t>Log Group /aws/lambda/IamPasswordPolicy does not have AWS KMS keys associated.</t>
   </si>
   <si>
-    <t>arn:aws:logs:us-east-1:242404996810:log-group:/aws/lambda/IamPasswordPolicy:*</t>
-  </si>
-  <si>
     <t>/aws/lambda/IamPasswordPolicy</t>
   </si>
   <si>
-    <t>aws:cloudformation:logical-id=IamPasswordPolicyLambdaLogGroup | aws:cloudformation:stack-id=arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-IAM-PasswordPolicy-275f38d1-6f5d-4d6a-97d6-b16b0f4307ac/a0647ed0-2917-11ec-90bd-126da84abf31 | aws:cloudformation:stack-name=StackSet-IAM-PasswordPolicy-275f38d1-6f5d-4d6a-97d6-b16b0f4307ac</t>
-  </si>
-  <si>
-    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-242404996810-us-east-1-/aws/lambda/R53VPCQueryLoggingAssociationCFN</t>
-  </si>
-  <si>
     <t>Log Group /aws/lambda/R53VPCQueryLoggingAssociationCFN does not have AWS KMS keys associated.</t>
   </si>
   <si>
-    <t>arn:aws:logs:us-east-1:242404996810:log-group:/aws/lambda/R53VPCQueryLoggingAssociationCFN:*</t>
-  </si>
-  <si>
     <t>/aws/lambda/R53VPCQueryLoggingAssociationCFN</t>
   </si>
   <si>
-    <t>aws:cloudformation:logical-id=R53QueryLoggingAssociationLambdaCFNLogGroup | aws:cloudformation:stack-id=arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded/6c1f5a90-da5a-11ee-aea4-0a6b3b123cad | aws:cloudformation:stack-name=StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded</t>
-  </si>
-  <si>
-    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-242404996810-us-east-1-/aws/lambda/R53VPCQueryLoggingAssociationEB</t>
-  </si>
-  <si>
     <t>Log Group /aws/lambda/R53VPCQueryLoggingAssociationEB does not have AWS KMS keys associated.</t>
   </si>
   <si>
-    <t>arn:aws:logs:us-east-1:242404996810:log-group:/aws/lambda/R53VPCQueryLoggingAssociationEB:*</t>
-  </si>
-  <si>
     <t>/aws/lambda/R53VPCQueryLoggingAssociationEB</t>
   </si>
   <si>
-    <t>aws:cloudformation:logical-id=R53QueryLoggingAssociationLambdaEBLogGroup | aws:cloudformation:stack-id=arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded/6c1f5a90-da5a-11ee-aea4-0a6b3b123cad | aws:cloudformation:stack-name=StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded</t>
-  </si>
-  <si>
-    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-242404996810-us-east-1-/aws/lambda/R53VPCQueryLoggingDisassociation</t>
-  </si>
-  <si>
     <t>Log Group /aws/lambda/R53VPCQueryLoggingDisassociation does not have AWS KMS keys associated.</t>
   </si>
   <si>
-    <t>arn:aws:logs:us-east-1:242404996810:log-group:/aws/lambda/R53VPCQueryLoggingDisassociation:*</t>
-  </si>
-  <si>
     <t>/aws/lambda/R53VPCQueryLoggingDisassociation</t>
   </si>
   <si>
-    <t>aws:cloudformation:logical-id=R53QueryLoggingDisassociationLambdaLogGroup | aws:cloudformation:stack-id=arn:aws:cloudformation:us-east-1:242404996810:stack/StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded/6c1f5a90-da5a-11ee-aea4-0a6b3b123cad | aws:cloudformation:stack-name=StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded</t>
-  </si>
-  <si>
-    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-242404996810-us-east-1-/aws/lambda/aws-controltower-NotificationForwarder</t>
-  </si>
-  <si>
     <t>Log Group /aws/lambda/aws-controltower-NotificationForwarder does not have AWS KMS keys associated.</t>
   </si>
   <si>
-    <t>arn:aws:logs:us-east-1:242404996810:log-group:/aws/lambda/aws-controltower-NotificationForwarder:*</t>
-  </si>
-  <si>
     <t>/aws/lambda/aws-controltower-NotificationForwarder</t>
   </si>
   <si>
-    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-242404996810-us-east-2-/aws/lambda/BlockEBSSnapshotAccess</t>
-  </si>
-  <si>
-    <t>arn:aws:logs:us-east-2:242404996810:log-group:/aws/lambda/BlockEBSSnapshotAccess:*</t>
-  </si>
-  <si>
-    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-242404996810-us-east-2-/aws/lambda/BlockEC2ImageAccess</t>
-  </si>
-  <si>
-    <t>arn:aws:logs:us-east-2:242404996810:log-group:/aws/lambda/BlockEC2ImageAccess:*</t>
-  </si>
-  <si>
-    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-242404996810-us-east-2-/aws/lambda/StackSet-EC2-DefaultEBSEn-EbsEncryptionByDefaultLa-4HQzvh5v9zZu</t>
-  </si>
-  <si>
     <t>Log Group /aws/lambda/StackSet-EC2-DefaultEBSEn-EbsEncryptionByDefaultLa-4HQzvh5v9zZu does not have AWS KMS keys associated.</t>
   </si>
   <si>
-    <t>arn:aws:logs:us-east-2:242404996810:log-group:/aws/lambda/StackSet-EC2-DefaultEBSEn-EbsEncryptionByDefaultLa-4HQzvh5v9zZu:*</t>
-  </si>
-  <si>
     <t>/aws/lambda/StackSet-EC2-DefaultEBSEn-EbsEncryptionByDefaultLa-4HQzvh5v9zZu</t>
   </si>
   <si>
-    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-242404996810-us-east-2-/aws/lambda/aws-controltower-NotificationForwarder</t>
-  </si>
-  <si>
-    <t>arn:aws:logs:us-east-2:242404996810:log-group:/aws/lambda/aws-controltower-NotificationForwarder:*</t>
-  </si>
-  <si>
-    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-242404996810-us-west-2-/aws/lambda/StackSet-EC2-DefaultEBSEn-EbsEncryptionByDefaultLa-YKhR7FmEKBxv</t>
-  </si>
-  <si>
     <t>Log Group /aws/lambda/StackSet-EC2-DefaultEBSEn-EbsEncryptionByDefaultLa-YKhR7FmEKBxv does not have AWS KMS keys associated.</t>
   </si>
   <si>
-    <t>arn:aws:logs:us-west-2:242404996810:log-group:/aws/lambda/StackSet-EC2-DefaultEBSEn-EbsEncryptionByDefaultLa-YKhR7FmEKBxv:*</t>
-  </si>
-  <si>
     <t>/aws/lambda/StackSet-EC2-DefaultEBSEn-EbsEncryptionByDefaultLa-YKhR7FmEKBxv</t>
   </si>
   <si>
-    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-242404996810-us-west-2-/aws/lambda/aws-controltower-NotificationForwarder</t>
-  </si>
-  <si>
-    <t>arn:aws:logs:us-west-2:242404996810:log-group:/aws/lambda/aws-controltower-NotificationForwarder:*</t>
-  </si>
-  <si>
-    <t>prowler-aws-cloudwatch_log_group_no_secrets_in_logs-242404996810-us-east-1-/aws/lambda/BlockEBSSnapshotAccess</t>
-  </si>
-  <si>
     <t>Potential secrets found in log group /aws/lambda/BlockEBSSnapshotAccess in log stream 2023/12/13/[$LATEST]db4b18220f1a47d980892e9432dadcac at 2023-12-13T02:12:20.141+00:00 - AWS Access Key on line 1.</t>
   </si>
   <si>
-    <t>prowler-aws-cloudwatch_log_group_no_secrets_in_logs-242404996810-us-east-1-/aws/lambda/BlockEC2ImageAccess</t>
-  </si>
-  <si>
     <t>Potential secrets found in log group /aws/lambda/BlockEC2ImageAccess in log stream 2023/09/14/[$LATEST]f59c2a7d611e4dadae2221cd3ca624f1 at 2023-09-14T01:23:09.537+00:00 - AWS Access Key on line 1.</t>
   </si>
   <si>
-    <t>prowler-aws-cloudwatch_log_group_no_secrets_in_logs-242404996810-us-east-1-/aws/lambda/IamPasswordPolicy</t>
-  </si>
-  <si>
     <t>Potential secrets found in log group /aws/lambda/IamPasswordPolicy in log stream 2024/04/24/[$LATEST]82785451ddbd422388435b34c8a49223 at 2024-04-24T01:31:40.764+00:00 - AWS Access Key on line 1.</t>
   </si>
   <si>
-    <t>prowler-aws-cloudwatch_log_group_no_secrets_in_logs-242404996810-us-east-2-/aws/lambda/BlockEBSSnapshotAccess</t>
-  </si>
-  <si>
     <t>Potential secrets found in log group /aws/lambda/BlockEBSSnapshotAccess in log stream 2023/12/13/[$LATEST]2d1f7865fd6542689eae924f410ac4fa at 2023-12-13T02:12:18.478+00:00 - AWS Access Key on line 1.</t>
   </si>
   <si>
-    <t>prowler-aws-cloudwatch_log_group_no_secrets_in_logs-242404996810-us-east-2-/aws/lambda/BlockEC2ImageAccess</t>
-  </si>
-  <si>
     <t>Potential secrets found in log group /aws/lambda/BlockEC2ImageAccess in log stream 2023/09/14/[$LATEST]e69dbc18f1e0467c9cc9087f4512f07c at 2023-09-14T01:23:12.859+00:00 - AWS Access Key on line 1; in log stream 2023/09/14/[$LATEST]bf003ba05b9442bfae37dab6ec215e05 at 2023-09-14T15:43:30.400+00:00 - AWS Access Key on line 1.</t>
   </si>
   <si>
-    <t>prowler-aws-cloudwatch_log_group_no_secrets_in_logs-242404996810-us-east-2-/aws/lambda/StackSet-EC2-DefaultEBSEn-EbsEncryptionByDefaultLa-4HQzvh5v9zZu</t>
-  </si>
-  <si>
     <t>Potential secrets found in log group /aws/lambda/StackSet-EC2-DefaultEBSEn-EbsEncryptionByDefaultLa-4HQzvh5v9zZu in log stream 2021/10/06/[$LATEST]64dd82fb71ce45b1a1a4d1a19aa485af at 2021-10-06T12:55:52.351+00:00 - AWS Access Key on line 1; in log stream 2021/10/09/[$LATEST]6a22ca2f91d44bbda2b64938e84a2363 at 2021-10-09T16:09:20.367+00:00 - AWS Access Key on line 1.</t>
   </si>
   <si>
-    <t>prowler-aws-cloudwatch_log_group_no_secrets_in_logs-242404996810-us-west-2-/aws/lambda/StackSet-EC2-DefaultEBSEn-EbsEncryptionByDefaultLa-YKhR7FmEKBxv</t>
-  </si>
-  <si>
     <t>Potential secrets found in log group /aws/lambda/StackSet-EC2-DefaultEBSEn-EbsEncryptionByDefaultLa-YKhR7FmEKBxv in log stream 2021/10/06/[$LATEST]73490b5eb7bc448c9cf7983567aa8c7f at 2021-10-06T12:57:29.916+00:00 - AWS Access Key on line 1; in log stream 2021/10/09/[$LATEST]d778ed784db543fc9b19b05c0f507c97 at 2021-10-09T16:18:35.065+00:00 - AWS Access Key on line 1.</t>
   </si>
   <si>
-    <t>prowler-aws-cloudwatch_log_group_retention_policy_specific_days_enabled-242404996810-us-east-1-/aws/lambda/BlockPublicAccountAccess</t>
-  </si>
-  <si>
     <t>Log Group /aws/lambda/BlockPublicAccountAccess has less than 365 days retention period (30 days).</t>
   </si>
   <si>
     <t>AWS-Well-Architected-Framework-Security-Pillar: SEC03-BP06 | ENS-RD2022: op.exp.8.r3.aws.cw.1 | FedRAMP-Low-Revision-4: au-11 | FedRamp-Moderate-Revision-4: au-6-1-3, au-11, si-12 | FFIEC: d2-ma-ma-b-1 | GxP-21-CFR-Part-11: 11.10-c, 11.10-e | HIPAA: 164_312_b | NIST-800-171-Revision-2: 3_3_1, 3_6_1, 3_6_2 | NIST-800-53-Revision-4: au_11, si_12 | NIST-800-53-Revision-5: ac_16_b, au_6_3, au_6_4, au_6_6, au_6_9, au_10, au_11, au_11_1, au_12_1, au_12_2, au_12_3, au_14_a, au_14_b, ca_7_b, pm_14_a_1, pm_14_b, pm_21_b, pm_31, sc_28_2, si_4_17, si_12 | RBI-Cyber-Security-Framework: annex_i_7_4 | SOC2: cc_7_2, cc_7_3</t>
   </si>
   <si>
-    <t>prowler-aws-cloudwatch_log_group_retention_policy_specific_days_enabled-242404996810-us-east-1-/aws/lambda/EbsEncryptionByDefault</t>
-  </si>
-  <si>
     <t>Log Group /aws/lambda/EbsEncryptionByDefault has less than 365 days retention period (30 days).</t>
   </si>
   <si>
-    <t>prowler-aws-cloudwatch_log_group_retention_policy_specific_days_enabled-242404996810-us-east-1-/aws/lambda/IamPasswordPolicy</t>
-  </si>
-  <si>
     <t>Log Group /aws/lambda/IamPasswordPolicy has less than 365 days retention period (90 days).</t>
   </si>
   <si>
     <t>This template supports the output of Prowler 4.x.x.  Processing Prowler 3.x or 2.x output will have unexpected results.</t>
+  </si>
+  <si>
+    <t>123456789012-Development</t>
+  </si>
+  <si>
+    <t>prowler-aws-accessanalyzer_enabled-123456789012-ap-northeast-1-123456789012</t>
+  </si>
+  <si>
+    <t>IAM Access Analyzer in account 123456789012 is not enabled.</t>
+  </si>
+  <si>
+    <t>arn:aws:iam::123456789012:root</t>
+  </si>
+  <si>
+    <t>prowler-aws-accessanalyzer_enabled-123456789012-ap-northeast-2-123456789012</t>
+  </si>
+  <si>
+    <t>prowler-aws-accessanalyzer_enabled-123456789012-ap-northeast-3-123456789012</t>
+  </si>
+  <si>
+    <t>prowler-aws-accessanalyzer_enabled-123456789012-ap-south-1-123456789012</t>
+  </si>
+  <si>
+    <t>prowler-aws-accessanalyzer_enabled-123456789012-ap-southeast-1-123456789012</t>
+  </si>
+  <si>
+    <t>prowler-aws-accessanalyzer_enabled-123456789012-ap-southeast-2-123456789012</t>
+  </si>
+  <si>
+    <t>prowler-aws-accessanalyzer_enabled-123456789012-ca-central-1-123456789012</t>
+  </si>
+  <si>
+    <t>prowler-aws-accessanalyzer_enabled-123456789012-eu-central-1-123456789012</t>
+  </si>
+  <si>
+    <t>prowler-aws-accessanalyzer_enabled-123456789012-eu-north-1-123456789012</t>
+  </si>
+  <si>
+    <t>prowler-aws-accessanalyzer_enabled-123456789012-eu-west-1-123456789012</t>
+  </si>
+  <si>
+    <t>prowler-aws-accessanalyzer_enabled-123456789012-eu-west-2-123456789012</t>
+  </si>
+  <si>
+    <t>prowler-aws-accessanalyzer_enabled-123456789012-eu-west-3-123456789012</t>
+  </si>
+  <si>
+    <t>prowler-aws-accessanalyzer_enabled-123456789012-sa-east-1-123456789012</t>
+  </si>
+  <si>
+    <t>prowler-aws-accessanalyzer_enabled-123456789012-us-east-1-123456789012</t>
+  </si>
+  <si>
+    <t>prowler-aws-accessanalyzer_enabled-123456789012-us-east-2-123456789012</t>
+  </si>
+  <si>
+    <t>prowler-aws-accessanalyzer_enabled-123456789012-us-west-1-123456789012</t>
+  </si>
+  <si>
+    <t>prowler-aws-accessanalyzer_enabled-123456789012-us-west-2-123456789012</t>
+  </si>
+  <si>
+    <t>prowler-aws-account_maintain_different_contact_details_to_security_billing_and_operations-123456789012-us-east-1-123456789012</t>
+  </si>
+  <si>
+    <t>prowler-aws-awslambda_function_invoke_api_operations_cloudtrail_logging_enabled-123456789012-us-east-1-BlockEBSSnapshotAccess</t>
+  </si>
+  <si>
+    <t>arn:aws:lambda:us-east-1:123456789012:function:BlockEBSSnapshotAccess</t>
+  </si>
+  <si>
+    <t>aws:cloudformation:logical-id=BlockEBSSnapshotAccessFunction | aws:cloudformation:stack-id=arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-EBS-BlockEBSSnapshotAccess-ffd9f84d-391b-4236-8582-104246bc2965/f3a6cd20-995c-11ee-8b22-0a6a638f5991 | aws:cloudformation:stack-name=StackSet-EBS-BlockEBSSnapshotAccess-ffd9f84d-391b-4236-8582-104246bc2965</t>
+  </si>
+  <si>
+    <t>prowler-aws-awslambda_function_invoke_api_operations_cloudtrail_logging_enabled-123456789012-us-east-1-BlockPublicAccountAccess</t>
+  </si>
+  <si>
+    <t>arn:aws:lambda:us-east-1:123456789012:function:BlockPublicAccountAccess</t>
+  </si>
+  <si>
+    <t>aws:cloudformation:logical-id=BlockPublicAccountAccess | aws:cloudformation:stack-id=arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-S3-BlockPublicAcceess-b8d9d27a-41c8-4fdd-872a-9a34d908c242/2aa1a2c0-2919-11ec-b6c1-12796b1813d3 | aws:cloudformation:stack-name=StackSet-S3-BlockPublicAcceess-b8d9d27a-41c8-4fdd-872a-9a34d908c242</t>
+  </si>
+  <si>
+    <t>prowler-aws-awslambda_function_invoke_api_operations_cloudtrail_logging_enabled-123456789012-us-east-1-EbsEncryptionByDefault</t>
+  </si>
+  <si>
+    <t>arn:aws:lambda:us-east-1:123456789012:function:EbsEncryptionByDefault</t>
+  </si>
+  <si>
+    <t>aws:cloudformation:logical-id=EbsEncryptionByDefaultLambda | aws:cloudformation:stack-id=arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-EncryptByDefault-8836c534-91b4-4f1d-8df9-ebb5501cbf64/a1b0bec0-2c55-11ec-9e59-0e7e2b43c22b | aws:cloudformation:stack-name=StackSet-EncryptByDefault-8836c534-91b4-4f1d-8df9-ebb5501cbf64</t>
+  </si>
+  <si>
+    <t>prowler-aws-awslambda_function_invoke_api_operations_cloudtrail_logging_enabled-123456789012-us-east-1-IamPasswordPolicy</t>
+  </si>
+  <si>
+    <t>arn:aws:lambda:us-east-1:123456789012:function:IamPasswordPolicy</t>
+  </si>
+  <si>
+    <t>Application=CloudInfrastructure | Name=IamPasswordPolicy | Owner=daniel.dominic@globalfoundries.com | Program=Phoenix | Project=D2P | Workstream=CloudFoundation | aws:cloudformation:logical-id=IamPasswordPolicyLambda | aws:cloudformation:stack-id=arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-IAM-PasswordPolicy-275f38d1-6f5d-4d6a-97d6-b16b0f4307ac/a0647ed0-2917-11ec-90bd-126da84abf31 | aws:cloudformation:stack-name=StackSet-IAM-PasswordPolicy-275f38d1-6f5d-4d6a-97d6-b16b0f4307ac</t>
+  </si>
+  <si>
+    <t>prowler-aws-awslambda_function_invoke_api_operations_cloudtrail_logging_enabled-123456789012-us-east-1-R53VPCQueryLoggingAssociationCFN</t>
+  </si>
+  <si>
+    <t>arn:aws:lambda:us-east-1:123456789012:function:R53VPCQueryLoggingAssociationCFN</t>
+  </si>
+  <si>
+    <t>aws:cloudformation:logical-id=AssociateVPCsFunctionCFN | aws:cloudformation:stack-id=arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded/6c1f5a90-da5a-11ee-aea4-0a6b3b123cad | aws:cloudformation:stack-name=StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded</t>
+  </si>
+  <si>
+    <t>prowler-aws-awslambda_function_invoke_api_operations_cloudtrail_logging_enabled-123456789012-us-east-1-R53VPCQueryLoggingAssociationEB</t>
+  </si>
+  <si>
+    <t>arn:aws:lambda:us-east-1:123456789012:function:R53VPCQueryLoggingAssociationEB</t>
+  </si>
+  <si>
+    <t>aws:cloudformation:logical-id=AssociateVPCsFunctionEB | aws:cloudformation:stack-id=arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded/6c1f5a90-da5a-11ee-aea4-0a6b3b123cad | aws:cloudformation:stack-name=StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded</t>
+  </si>
+  <si>
+    <t>prowler-aws-awslambda_function_invoke_api_operations_cloudtrail_logging_enabled-123456789012-us-east-1-R53VPCQueryLoggingDisassociation</t>
+  </si>
+  <si>
+    <t>arn:aws:lambda:us-east-1:123456789012:function:R53VPCQueryLoggingDisassociation</t>
+  </si>
+  <si>
+    <t>aws:cloudformation:logical-id=DisassociateR53QueryLoggingFunctionCFN | aws:cloudformation:stack-id=arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded/6c1f5a90-da5a-11ee-aea4-0a6b3b123cad | aws:cloudformation:stack-name=StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded</t>
+  </si>
+  <si>
+    <t>prowler-aws-awslambda_function_invoke_api_operations_cloudtrail_logging_enabled-123456789012-us-east-1-aws-controltower-NotificationForwarder</t>
+  </si>
+  <si>
+    <t>arn:aws:lambda:us-east-1:123456789012:function:aws-controltower-NotificationForwarder</t>
+  </si>
+  <si>
+    <t>aws:cloudformation:logical-id=ForwardSnsNotification | aws:cloudformation:stack-id=arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-20773e15-de56-4494-8411-64b6cc683dbf/5def0590-1380-11ec-95db-0ecb9fa14949 | aws:cloudformation:stack-name=StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-20773e15-de56-4494-8411-64b6cc683dbf</t>
+  </si>
+  <si>
+    <t>prowler-aws-awslambda_function_invoke_api_operations_cloudtrail_logging_enabled-123456789012-us-east-2-BlockEBSSnapshotAccess</t>
+  </si>
+  <si>
+    <t>arn:aws:lambda:us-east-2:123456789012:function:BlockEBSSnapshotAccess</t>
+  </si>
+  <si>
+    <t>aws:cloudformation:logical-id=BlockEBSSnapshotAccessFunction | aws:cloudformation:stack-id=arn:aws:cloudformation:us-east-2:123456789012:stack/StackSet-EBS-BlockEBSSnapshotAccess-d0cd730c-39d9-4ad9-907f-893c5f90f05b/f3c355d0-995c-11ee-971b-06b6f9c515fb | aws:cloudformation:stack-name=StackSet-EBS-BlockEBSSnapshotAccess-d0cd730c-39d9-4ad9-907f-893c5f90f05b</t>
+  </si>
+  <si>
+    <t>prowler-aws-awslambda_function_invoke_api_operations_cloudtrail_logging_enabled-123456789012-us-east-2-aws-controltower-NotificationForwarder</t>
+  </si>
+  <si>
+    <t>arn:aws:lambda:us-east-2:123456789012:function:aws-controltower-NotificationForwarder</t>
+  </si>
+  <si>
+    <t>aws:cloudformation:logical-id=ForwardSnsNotification | aws:cloudformation:stack-id=arn:aws:cloudformation:us-east-2:123456789012:stack/StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-c89a51ba-6909-4fef-8200-b9f311eb9cd8/5e5679f0-1380-11ec-8951-02bc742e1cea | aws:cloudformation:stack-name=StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-c89a51ba-6909-4fef-8200-b9f311eb9cd8</t>
+  </si>
+  <si>
+    <t>prowler-aws-awslambda_function_invoke_api_operations_cloudtrail_logging_enabled-123456789012-us-west-2-aws-controltower-NotificationForwarder</t>
+  </si>
+  <si>
+    <t>arn:aws:lambda:us-west-2:123456789012:function:aws-controltower-NotificationForwarder</t>
+  </si>
+  <si>
+    <t>aws:cloudformation:logical-id=ForwardSnsNotification | aws:cloudformation:stack-id=arn:aws:cloudformation:us-west-2:123456789012:stack/StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-3001653e-0d85-4bc6-beaf-1e0fcadc0925/5e2fb810-1380-11ec-b0d0-02ee1a9675eb | aws:cloudformation:stack-name=StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-3001653e-0d85-4bc6-beaf-1e0fcadc0925</t>
+  </si>
+  <si>
+    <t>prowler-aws-awslambda_function_no_secrets_in_variables-123456789012-us-east-1-IamPasswordPolicy</t>
+  </si>
+  <si>
+    <t>prowler-aws-awslambda_function_no_secrets_in_variables-123456789012-us-east-1-aws-controltower-NotificationForwarder</t>
+  </si>
+  <si>
+    <t>prowler-aws-awslambda_function_no_secrets_in_variables-123456789012-us-east-2-aws-controltower-NotificationForwarder</t>
+  </si>
+  <si>
+    <t>prowler-aws-awslambda_function_no_secrets_in_variables-123456789012-us-west-2-aws-controltower-NotificationForwarder</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stack_outputs_find_secrets-123456789012-us-east-1-StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-20773e15-de56-4494-8411-64b6cc683dbf</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-20773e15-de56-4494-8411-64b6cc683dbf/5def0590-1380-11ec-95db-0ecb9fa14949</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stack_outputs_find_secrets-123456789012-us-east-2-StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-c89a51ba-6909-4fef-8200-b9f311eb9cd8</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-east-2:123456789012:stack/StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-c89a51ba-6909-4fef-8200-b9f311eb9cd8/5e5679f0-1380-11ec-8951-02bc742e1cea</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stack_outputs_find_secrets-123456789012-us-west-2-StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-3001653e-0d85-4bc6-beaf-1e0fcadc0925</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-west-2:123456789012:stack/StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-3001653e-0d85-4bc6-beaf-1e0fcadc0925/5e2fb810-1380-11ec-b0d0-02ee1a9675eb</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-east-1-StackSet-AWS-QuickSetup-DHMC-TA-gljzw-794342de-6e01-4602-be7a-0fc21d5e73ed</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-AWS-QuickSetup-DHMC-TA-gljzw-794342de-6e01-4602-be7a-0fc21d5e73ed/fe586f50-2f37-11ef-9b4b-0e6e6895e71b</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-east-1-StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-20773e15-de56-4494-8411-64b6cc683dbf</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-east-1-StackSet-AWSControlTowerBP-BASELINE-CONFIG-63fd5b42-616d-4cc1-9aac-0cf8904c695c</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-AWSControlTowerBP-BASELINE-CONFIG-63fd5b42-616d-4cc1-9aac-0cf8904c695c/5e4a6c00-1380-11ec-8e14-12ff6568a011</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-east-1-StackSet-AWSControlTowerBP-BASELINE-ROLES-b4e4893e-0db5-4f1a-b226-54cd62216352</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-AWSControlTowerBP-BASELINE-ROLES-b4e4893e-0db5-4f1a-b226-54cd62216352/2747eed0-1380-11ec-af37-127a86db29c5</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-east-1-StackSet-AWSControlTowerBP-BASELINE-SERVICE-LINKED-ROLE-fd851520-a1a2-456c-b458-f7a041a69e6a</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-AWSControlTowerBP-BASELINE-SERVICE-LINKED-ROLE-fd851520-a1a2-456c-b458-f7a041a69e6a/94a58700-0f8f-11ee-b1e0-1218603a0277</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-east-1-StackSet-AWSControlTowerBP-BASELINE-SERVICE-ROLES-eafa7833-ad03-4724-b473-9c92c3a459d1</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-AWSControlTowerBP-BASELINE-SERVICE-ROLES-eafa7833-ad03-4724-b473-9c92c3a459d1/2769f5c0-1380-11ec-b83b-0a42328e7139</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-east-1-StackSet-AWSNetworkManagerCrossAccountResourceAccessStackSet-7b039ee8-9f58-4553-b110-cea0f162eed7</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-AWSNetworkManagerCrossAccountResourceAccessStackSet-7b039ee8-9f58-4553-b110-cea0f162eed7/4346f210-dbd6-11ec-bddc-0a2681514cf1</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-east-1-StackSet-CloudWatchCrossAccountSharingStackSet-703ac5f2-785e-47eb-ac8f-dffe7bf8bc72</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-CloudWatchCrossAccountSharingStackSet-703ac5f2-785e-47eb-ac8f-dffe7bf8bc72/3d2bd5d0-dbd6-11ec-a519-0e9da151acdb</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-east-1-StackSet-EBS-BlockEBSSnapshotAccess-ffd9f84d-391b-4236-8582-104246bc2965</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-EBS-BlockEBSSnapshotAccess-ffd9f84d-391b-4236-8582-104246bc2965/f3a6cd20-995c-11ee-8b22-0a6a638f5991</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-east-1-StackSet-EncryptByDefault-8836c534-91b4-4f1d-8df9-ebb5501cbf64</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-EncryptByDefault-8836c534-91b4-4f1d-8df9-ebb5501cbf64/a1b0bec0-2c55-11ec-9e59-0e7e2b43c22b</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-east-1-StackSet-IAM-AWSCloudFormationStackSetExecutionRole-372fbbb6-15ad-484c-a8ae-78c070cee2ef</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-IAM-AWSCloudFormationStackSetExecutionRole-372fbbb6-15ad-484c-a8ae-78c070cee2ef/059695d0-209a-11ec-9920-0acb0d48ddc3</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-east-1-StackSet-IAM-GeneralInstanceRole-2a2e6f1c-3cb2-4775-819f-2b4ed4547847</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-IAM-GeneralInstanceRole-2a2e6f1c-3cb2-4775-819f-2b4ed4547847/da52da40-137f-11ec-b6e5-0a6164463715</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-east-1-StackSet-IAM-IAMUserAuditCrossAccountRole-02dd49a0-b93d-43d3-b852-0a297791bbe0</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-IAM-IAMUserAuditCrossAccountRole-02dd49a0-b93d-43d3-b852-0a297791bbe0/48eb6e00-07e4-11ed-9e86-0ee230544ff7</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-east-1-StackSet-IAM-NAAExecutionRole-51a889ae-f301-4f41-9408-529bee8dbc17</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-IAM-NAAExecutionRole-51a889ae-f301-4f41-9408-529bee8dbc17/852d34e0-2d1c-11ed-8f12-122d2069f0bd</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-east-1-StackSet-IAM-PasswordPolicy-275f38d1-6f5d-4d6a-97d6-b16b0f4307ac</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-IAM-PasswordPolicy-275f38d1-6f5d-4d6a-97d6-b16b0f4307ac/a0647ed0-2917-11ec-90bd-126da84abf31</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-east-1-StackSet-IAM-ProwlerExecRole-12b57af1-14e6-4efc-b640-608ca915d896</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-IAM-ProwlerExecRole-12b57af1-14e6-4efc-b640-608ca915d896/2b7439e0-326f-11ee-ab77-0a381ff6a4e1</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-east-1-StackSet-NAAExecRole-1a442535-a9bc-4077-8b7a-3888569bb582</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-NAAExecRole-1a442535-a9bc-4077-8b7a-3888569bb582/38215ed0-7dbf-11ed-8cc9-0e45eaf1a785</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-east-1-StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded/6c1f5a90-da5a-11ee-aea4-0a6b3b123cad</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-east-1-StackSet-RecreateOrganizationControlRole-Isengard-f7898d2c-c48b-4781-ad8a-f3f5f4cc7b08</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-RecreateOrganizationControlRole-Isengard-f7898d2c-c48b-4781-ad8a-f3f5f4cc7b08/5b9f8660-a3db-11ed-a849-0abdadd99453</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-east-1-StackSet-S3-BlockPublicAcceess-b8d9d27a-41c8-4fdd-872a-9a34d908c242</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-S3-BlockPublicAcceess-b8d9d27a-41c8-4fdd-872a-9a34d908c242/2aa1a2c0-2919-11ec-b6c1-12796b1813d3</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-east-1-StackSet-SSM-PVREReporting-5ddd823c-c3b1-4de0-b6fc-f4d905cbb598</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-SSM-PVREReporting-5ddd823c-c3b1-4de0-b6fc-f4d905cbb598/ddaadee0-137f-11ec-9dab-12d2028a0f59</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-east-1-StackSet-SSM-PatchBaselinesAndMaintenaceWindows-f072ca11-9594-497f-9e80-cad38d97d318</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-SSM-PatchBaselinesAndMaintenaceWindows-f072ca11-9594-497f-9e80-cad38d97d318/45e973f0-ffbe-11ed-bed9-0ab26350f4a1</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-east-2-StackSet-AWS-QuickSetup-DHMC-TA-gljzw-e10ba538-6d41-4c59-9a65-19e7babd308b</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-east-2:123456789012:stack/StackSet-AWS-QuickSetup-DHMC-TA-gljzw-e10ba538-6d41-4c59-9a65-19e7babd308b/fe3f1af0-2f37-11ef-8102-06a5feb55995</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-east-2-StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-c89a51ba-6909-4fef-8200-b9f311eb9cd8</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-east-2-StackSet-AWSControlTowerBP-BASELINE-CONFIG-67a60003-0d16-4214-904c-11393abc31f0</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-east-2:123456789012:stack/StackSet-AWSControlTowerBP-BASELINE-CONFIG-67a60003-0d16-4214-904c-11393abc31f0/5e8419a0-1380-11ec-a3e8-068fd4a78c78</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-east-2-StackSet-EBS-BlockEBSSnapshotAccess-d0cd730c-39d9-4ad9-907f-893c5f90f05b</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-east-2:123456789012:stack/StackSet-EBS-BlockEBSSnapshotAccess-d0cd730c-39d9-4ad9-907f-893c5f90f05b/f3c355d0-995c-11ee-971b-06b6f9c515fb</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-east-2-StackSet-SSM-PVREReporting-dd2cdb19-beb1-45aa-8751-940705d96709</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-east-2:123456789012:stack/StackSet-SSM-PVREReporting-dd2cdb19-beb1-45aa-8751-940705d96709/32593c60-c730-11ed-a6f5-020e6ffbd0b2</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-east-2-StackSet-SSM-PatchBaselinesAndMaintenaceWindows-4202cafa-1b51-4ee0-a939-6a4a0b43fa5f</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-east-2:123456789012:stack/StackSet-SSM-PatchBaselinesAndMaintenaceWindows-4202cafa-1b51-4ee0-a939-6a4a0b43fa5f/45f7f2e0-ffbe-11ed-8d7d-0a6128490c69</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-west-2-StackSet-AWS-QuickSetup-DHMC-TA-gljzw-41c13200-9b8d-40ee-9cfb-a2abc0443183</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-west-2:123456789012:stack/StackSet-AWS-QuickSetup-DHMC-TA-gljzw-41c13200-9b8d-40ee-9cfb-a2abc0443183/fe8831e0-2f37-11ef-b670-02e8a8afc64b</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-west-2-StackSet-AWSControlTowerBP-BASELINE-CLOUDWATCH-3001653e-0d85-4bc6-beaf-1e0fcadc0925</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-west-2-StackSet-AWSControlTowerBP-BASELINE-CONFIG-5eeadb5d-b84e-4711-aa5d-50c61ae9e799</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-west-2:123456789012:stack/StackSet-AWSControlTowerBP-BASELINE-CONFIG-5eeadb5d-b84e-4711-aa5d-50c61ae9e799/5e659520-1380-11ec-9195-0a9127743e0d</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-west-2-StackSet-SSM-PVREReporting-67e6ef71-8f93-47f8-8417-f5f4ce427ba7</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-west-2:123456789012:stack/StackSet-SSM-PVREReporting-67e6ef71-8f93-47f8-8417-f5f4ce427ba7/32ad76e0-c730-11ed-8da2-062b9a061845</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudformation_stacks_termination_protection_enabled-123456789012-us-west-2-StackSet-SSM-PatchBaselinesAndMaintenaceWindows-0258a5f3-761d-42bf-9b4b-d6ab24a75b0a</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudformation:us-west-2:123456789012:stack/StackSet-SSM-PatchBaselinesAndMaintenaceWindows-0258a5f3-761d-42bf-9b4b-d6ab24a75b0a/4621c200-ffbe-11ed-9dad-06fc592c1d07</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudtrail_insights_exist-123456789012-us-east-1-aws-controltower-BaselineCloudTrail</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudtrail_kms_encryption_enabled-123456789012-us-east-1-aws-controltower-BaselineCloudTrail</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudtrail_s3_dataevents_read_enabled-123456789012-us-east-1-123456789012</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudtrail:us-east-1:123456789012:trail</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudtrail_s3_dataevents_write_enabled-123456789012-us-east-1-123456789012</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudwatch_cross_account_sharing_disabled-123456789012-us-east-1-CloudWatch-CrossAccountSharingRole</t>
+  </si>
+  <si>
+    <t>arn:aws:iam::123456789012:role/CloudWatch-CrossAccountSharingRole</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-123456789012-us-east-1-/aws/lambda/BlockEBSSnapshotAccess</t>
+  </si>
+  <si>
+    <t>arn:aws:logs:us-east-1:123456789012:log-group:/aws/lambda/BlockEBSSnapshotAccess:*</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-123456789012-us-east-1-/aws/lambda/BlockEC2ImageAccess</t>
+  </si>
+  <si>
+    <t>arn:aws:logs:us-east-1:123456789012:log-group:/aws/lambda/BlockEC2ImageAccess:*</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-123456789012-us-east-1-/aws/lambda/BlockPublicAccountAccess</t>
+  </si>
+  <si>
+    <t>arn:aws:logs:us-east-1:123456789012:log-group:/aws/lambda/BlockPublicAccountAccess:*</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-123456789012-us-east-1-/aws/lambda/EbsEncryptionByDefault</t>
+  </si>
+  <si>
+    <t>arn:aws:logs:us-east-1:123456789012:log-group:/aws/lambda/EbsEncryptionByDefault:*</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-123456789012-us-east-1-/aws/lambda/IamPasswordPolicy</t>
+  </si>
+  <si>
+    <t>arn:aws:logs:us-east-1:123456789012:log-group:/aws/lambda/IamPasswordPolicy:*</t>
+  </si>
+  <si>
+    <t>aws:cloudformation:logical-id=IamPasswordPolicyLambdaLogGroup | aws:cloudformation:stack-id=arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-IAM-PasswordPolicy-275f38d1-6f5d-4d6a-97d6-b16b0f4307ac/a0647ed0-2917-11ec-90bd-126da84abf31 | aws:cloudformation:stack-name=StackSet-IAM-PasswordPolicy-275f38d1-6f5d-4d6a-97d6-b16b0f4307ac</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-123456789012-us-east-1-/aws/lambda/R53VPCQueryLoggingAssociationCFN</t>
+  </si>
+  <si>
+    <t>arn:aws:logs:us-east-1:123456789012:log-group:/aws/lambda/R53VPCQueryLoggingAssociationCFN:*</t>
+  </si>
+  <si>
+    <t>aws:cloudformation:logical-id=R53QueryLoggingAssociationLambdaCFNLogGroup | aws:cloudformation:stack-id=arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded/6c1f5a90-da5a-11ee-aea4-0a6b3b123cad | aws:cloudformation:stack-name=StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-123456789012-us-east-1-/aws/lambda/R53VPCQueryLoggingAssociationEB</t>
+  </si>
+  <si>
+    <t>arn:aws:logs:us-east-1:123456789012:log-group:/aws/lambda/R53VPCQueryLoggingAssociationEB:*</t>
+  </si>
+  <si>
+    <t>aws:cloudformation:logical-id=R53QueryLoggingAssociationLambdaEBLogGroup | aws:cloudformation:stack-id=arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded/6c1f5a90-da5a-11ee-aea4-0a6b3b123cad | aws:cloudformation:stack-name=StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-123456789012-us-east-1-/aws/lambda/R53VPCQueryLoggingDisassociation</t>
+  </si>
+  <si>
+    <t>arn:aws:logs:us-east-1:123456789012:log-group:/aws/lambda/R53VPCQueryLoggingDisassociation:*</t>
+  </si>
+  <si>
+    <t>aws:cloudformation:logical-id=R53QueryLoggingDisassociationLambdaLogGroup | aws:cloudformation:stack-id=arn:aws:cloudformation:us-east-1:123456789012:stack/StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded/6c1f5a90-da5a-11ee-aea4-0a6b3b123cad | aws:cloudformation:stack-name=StackSet-R53-Querylogging-3c854d8d-d660-419c-98d5-484a8c17aded</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-123456789012-us-east-1-/aws/lambda/aws-controltower-NotificationForwarder</t>
+  </si>
+  <si>
+    <t>arn:aws:logs:us-east-1:123456789012:log-group:/aws/lambda/aws-controltower-NotificationForwarder:*</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-123456789012-us-east-2-/aws/lambda/BlockEBSSnapshotAccess</t>
+  </si>
+  <si>
+    <t>arn:aws:logs:us-east-2:123456789012:log-group:/aws/lambda/BlockEBSSnapshotAccess:*</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-123456789012-us-east-2-/aws/lambda/BlockEC2ImageAccess</t>
+  </si>
+  <si>
+    <t>arn:aws:logs:us-east-2:123456789012:log-group:/aws/lambda/BlockEC2ImageAccess:*</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-123456789012-us-east-2-/aws/lambda/StackSet-EC2-DefaultEBSEn-EbsEncryptionByDefaultLa-4HQzvh5v9zZu</t>
+  </si>
+  <si>
+    <t>arn:aws:logs:us-east-2:123456789012:log-group:/aws/lambda/StackSet-EC2-DefaultEBSEn-EbsEncryptionByDefaultLa-4HQzvh5v9zZu:*</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-123456789012-us-east-2-/aws/lambda/aws-controltower-NotificationForwarder</t>
+  </si>
+  <si>
+    <t>arn:aws:logs:us-east-2:123456789012:log-group:/aws/lambda/aws-controltower-NotificationForwarder:*</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-123456789012-us-west-2-/aws/lambda/StackSet-EC2-DefaultEBSEn-EbsEncryptionByDefaultLa-YKhR7FmEKBxv</t>
+  </si>
+  <si>
+    <t>arn:aws:logs:us-west-2:123456789012:log-group:/aws/lambda/StackSet-EC2-DefaultEBSEn-EbsEncryptionByDefaultLa-YKhR7FmEKBxv:*</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudwatch_log_group_kms_encryption_enabled-123456789012-us-west-2-/aws/lambda/aws-controltower-NotificationForwarder</t>
+  </si>
+  <si>
+    <t>arn:aws:logs:us-west-2:123456789012:log-group:/aws/lambda/aws-controltower-NotificationForwarder:*</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudwatch_log_group_no_secrets_in_logs-123456789012-us-east-1-/aws/lambda/BlockEBSSnapshotAccess</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudwatch_log_group_no_secrets_in_logs-123456789012-us-east-1-/aws/lambda/BlockEC2ImageAccess</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudwatch_log_group_no_secrets_in_logs-123456789012-us-east-1-/aws/lambda/IamPasswordPolicy</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudwatch_log_group_no_secrets_in_logs-123456789012-us-east-2-/aws/lambda/BlockEBSSnapshotAccess</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudwatch_log_group_no_secrets_in_logs-123456789012-us-east-2-/aws/lambda/BlockEC2ImageAccess</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudwatch_log_group_no_secrets_in_logs-123456789012-us-east-2-/aws/lambda/StackSet-EC2-DefaultEBSEn-EbsEncryptionByDefaultLa-4HQzvh5v9zZu</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudwatch_log_group_no_secrets_in_logs-123456789012-us-west-2-/aws/lambda/StackSet-EC2-DefaultEBSEn-EbsEncryptionByDefaultLa-YKhR7FmEKBxv</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudwatch_log_group_retention_policy_specific_days_enabled-123456789012-us-east-1-/aws/lambda/BlockPublicAccountAccess</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudwatch_log_group_retention_policy_specific_days_enabled-123456789012-us-east-1-/aws/lambda/EbsEncryptionByDefault</t>
+  </si>
+  <si>
+    <t>prowler-aws-cloudwatch_log_group_retention_policy_specific_days_enabled-123456789012-us-east-1-/aws/lambda/IamPasswordPolicy</t>
+  </si>
+  <si>
+    <t>myaccount@somedomain.com</t>
+  </si>
+  <si>
+    <t>arn:aws:cloudtrail:us-east-1:123456789012:trail/aws-controltower-BaselineCloudTrail</t>
+  </si>
+  <si>
+    <t>arn:aws:organizations::123456789012:organization/o-bf9fdbona4</t>
+  </si>
+  <si>
+    <t>o-bf9fdbona4</t>
   </si>
 </sst>
 </file>
@@ -2332,7 +2332,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[prowler4.2-report-template-mod.xlsx]Severity!PivotTable2</c:name>
+    <c:name>[prowler-report-template (1).xlsx]Severity!PivotTable2</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -2828,7 +2828,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[prowler4.2-report-template-mod.xlsx]Pass Fail!PivotTable2</c:name>
+    <c:name>[prowler-report-template (1).xlsx]Pass Fail!PivotTable2</c:name>
     <c:fmtId val="6"/>
   </c:pivotSource>
   <c:chart>
@@ -3416,7 +3416,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[prowler4.2-report-template-mod.xlsx]Service!PivotTable2</c:name>
+    <c:name>[prowler-report-template (1).xlsx]Service!PivotTable2</c:name>
     <c:fmtId val="8"/>
   </c:pivotSource>
   <c:chart>
@@ -4045,7 +4045,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[prowler4.2-report-template-mod.xlsx]Accounts!PivotTable2</c:name>
+    <c:name>[prowler-report-template (1).xlsx]Accounts!PivotTable2</c:name>
     <c:fmtId val="12"/>
   </c:pivotSource>
   <c:chart>
@@ -4509,7 +4509,7 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>242404996810</c:v>
+                    <c:v>123456789012</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -7300,7 +7300,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>6985</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -7372,11 +7372,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>6985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:colOff>531495</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -7448,13 +7448,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>606425</xdr:colOff>
+      <xdr:colOff>524510</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>377825</xdr:colOff>
+      <xdr:colOff>265430</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -7526,13 +7526,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>377825</xdr:colOff>
+      <xdr:colOff>265430</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>530225</xdr:colOff>
+      <xdr:colOff>417830</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -7604,13 +7604,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>517525</xdr:colOff>
+      <xdr:colOff>412750</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>563880</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -7682,13 +7682,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>654050</xdr:colOff>
+      <xdr:colOff>537845</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>822325</xdr:colOff>
+      <xdr:colOff>717550</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -7760,13 +7760,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
+      <xdr:colOff>691515</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>6985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>149225</xdr:colOff>
+      <xdr:colOff>36830</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -7838,13 +7838,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>149225</xdr:colOff>
+      <xdr:colOff>36830</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>6985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>327025</xdr:colOff>
+      <xdr:colOff>222250</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -7929,7 +7929,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>6985</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -8001,11 +8001,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>6985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>499110</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -8083,7 +8083,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>263525</xdr:colOff>
+      <xdr:colOff>233045</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -8155,13 +8155,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>263525</xdr:colOff>
+      <xdr:colOff>233045</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>415925</xdr:colOff>
+      <xdr:colOff>385445</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -8233,13 +8233,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>403225</xdr:colOff>
+      <xdr:colOff>380365</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
+      <xdr:colOff>534035</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -8311,13 +8311,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
+      <xdr:colOff>534035</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>727075</xdr:colOff>
+      <xdr:colOff>696595</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -8389,13 +8389,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>727075</xdr:colOff>
+      <xdr:colOff>696595</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>41910</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -8467,13 +8467,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>53975</xdr:colOff>
+      <xdr:colOff>34925</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>231775</xdr:colOff>
+      <xdr:colOff>201295</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -8556,9 +8556,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
+      <xdr:colOff>895350</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>6985</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -8628,13 +8628,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>901700</xdr:colOff>
+      <xdr:colOff>880745</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>511175</xdr:colOff>
+      <xdr:colOff>473075</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -8706,13 +8706,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>511175</xdr:colOff>
+      <xdr:colOff>473075</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>688975</xdr:colOff>
+      <xdr:colOff>647065</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -8784,13 +8784,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>632460</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>815975</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -8861,14 +8861,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>799465</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>193675</xdr:colOff>
+      <xdr:colOff>151765</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -8940,13 +8940,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>358775</xdr:colOff>
+      <xdr:colOff>320675</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -9018,13 +9018,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>346075</xdr:colOff>
+      <xdr:colOff>304165</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:colOff>480060</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -9096,13 +9096,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>511175</xdr:colOff>
+      <xdr:colOff>473075</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>688975</xdr:colOff>
+      <xdr:colOff>647065</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -9221,9 +9221,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
+      <xdr:colOff>895350</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>6985</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -9293,13 +9293,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>901700</xdr:colOff>
+      <xdr:colOff>880745</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>511175</xdr:colOff>
+      <xdr:colOff>473075</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -9371,13 +9371,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>511175</xdr:colOff>
+      <xdr:colOff>473075</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>688975</xdr:colOff>
+      <xdr:colOff>647065</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -9449,13 +9449,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>632460</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>815975</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -9526,14 +9526,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>799465</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>193675</xdr:colOff>
+      <xdr:colOff>151765</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -9605,13 +9605,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>358775</xdr:colOff>
+      <xdr:colOff>320675</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -9683,13 +9683,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>346075</xdr:colOff>
+      <xdr:colOff>304165</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:colOff>480060</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -9761,13 +9761,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>511175</xdr:colOff>
+      <xdr:colOff>473075</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>688975</xdr:colOff>
+      <xdr:colOff>647065</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -9884,13 +9884,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>6985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
+      <xdr:colOff>668655</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>31115</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -9960,13 +9960,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
+      <xdr:colOff>668655</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
+      <xdr:colOff>144145</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -10038,13 +10038,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
+      <xdr:colOff>144145</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>321945</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -10116,13 +10116,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>321945</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
+      <xdr:colOff>494030</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -10194,13 +10194,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
+      <xdr:colOff>487045</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
+      <xdr:colOff>664845</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -10272,13 +10272,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>730250</xdr:colOff>
+      <xdr:colOff>646430</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>836930</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -10349,14 +10349,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>829945</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>169545</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -10428,13 +10428,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
+      <xdr:colOff>151130</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
+      <xdr:colOff>334645</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -10551,13 +10551,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>6985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>841375</xdr:colOff>
+      <xdr:colOff>822325</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>31115</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -10627,13 +10627,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
+      <xdr:colOff>803910</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>327025</xdr:colOff>
+      <xdr:colOff>277495</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -10705,13 +10705,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>327025</xdr:colOff>
+      <xdr:colOff>277495</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>451485</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -10783,13 +10783,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>451485</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>682625</xdr:colOff>
+      <xdr:colOff>627380</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -10861,13 +10861,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>669925</xdr:colOff>
+      <xdr:colOff>620395</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>794385</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -10939,13 +10939,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>835025</xdr:colOff>
+      <xdr:colOff>779780</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>187325</xdr:colOff>
+      <xdr:colOff>132080</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -11017,13 +11017,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>174625</xdr:colOff>
+      <xdr:colOff>125095</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>299085</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -11095,13 +11095,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>339725</xdr:colOff>
+      <xdr:colOff>284480</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>517525</xdr:colOff>
+      <xdr:colOff>467995</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -11212,7 +11212,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Mike Virgilio" refreshedDate="45467.597765625003" missingItemsLimit="0" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="3935" xr:uid="{08017F1A-10E7-7344-AAA2-8AB2F07A6AF7}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Mike Virgilio" refreshedDate="45490.631639467596" missingItemsLimit="0" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="3935" xr:uid="{08017F1A-10E7-7344-AAA2-8AB2F07A6AF7}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AO1048576" sheet="Prowler CSV"/>
   </cacheSource>
@@ -11224,14 +11224,14 @@
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-06-21T21:01:26" maxDate="2024-06-21T21:01:26"/>
     </cacheField>
     <cacheField name="ACCOUNT_UID" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="242404996810" maxValue="242404996810" count="2">
-        <n v="242404996810"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="123456789012" maxValue="123456789012" count="2">
+        <n v="123456789012"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="ACCOUNT_NAME" numFmtId="0">
       <sharedItems containsBlank="1" count="2">
-        <s v="242404996810-Development"/>
+        <s v="123456789012-Development"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -11286,7 +11286,7 @@
     </cacheField>
     <cacheField name="STATUS_EXTENDED" numFmtId="0">
       <sharedItems containsBlank="1" count="74" longText="1">
-        <s v="IAM Access Analyzer in account 242404996810 is not enabled."/>
+        <s v="IAM Access Analyzer in account 123456789012 is not enabled."/>
         <s v="SECURITY, BILLING and OPERATIONS contacts not found or they are not different between each other and between ROOT contact."/>
         <s v="Lambda function BlockEBSSnapshotAccess is not recorded by CloudTrail."/>
         <s v="Lambda function BlockPublicAccountAccess is not recorded by CloudTrail."/>
@@ -11397,7 +11397,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="RESOURCE_NAME" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="242404996810" maxValue="242404996810"/>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="123456789012" maxValue="123456789012"/>
     </cacheField>
     <cacheField name="RESOURCE_DETAILS" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -11552,7 +11552,6 @@
       <items count="75">
         <item sd="0" x="1"/>
         <item x="73"/>
-        <item x="0"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -11624,6 +11623,7 @@
         <item x="70"/>
         <item x="71"/>
         <item x="72"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -11807,7 +11807,6 @@
       <items count="75">
         <item sd="0" x="1"/>
         <item x="73"/>
-        <item x="0"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -11879,6 +11878,7 @@
         <item x="70"/>
         <item x="71"/>
         <item x="72"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -14161,7 +14161,7 @@
     </row>
     <row r="5" spans="1:1" s="8" customFormat="1" ht="18.75">
       <c r="A5" s="10" t="s">
-        <v>537</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="8" customFormat="1">
@@ -14335,16 +14335,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF2DAAA-F217-744D-84DB-5CB63FDACBA6}">
   <dimension ref="A1:AO3935"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
@@ -14514,22 +14516,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C2">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D2" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F2" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G2" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I2" t="s">
-        <v>210</v>
+        <v>357</v>
       </c>
       <c r="J2" t="s">
         <v>42</v>
@@ -14547,7 +14549,7 @@
         <v>54</v>
       </c>
       <c r="O2" t="s">
-        <v>211</v>
+        <v>358</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -14562,16 +14564,16 @@
         <v>48</v>
       </c>
       <c r="U2" t="s">
-        <v>212</v>
+        <v>359</v>
       </c>
       <c r="V2">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="Y2" t="s">
         <v>42</v>
       </c>
       <c r="Z2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AA2" t="s">
         <v>44</v>
@@ -14592,10 +14594,10 @@
         <v>53</v>
       </c>
       <c r="AJ2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AO2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -14606,22 +14608,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C3">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E3" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F3" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G3" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I3" t="s">
-        <v>216</v>
+        <v>360</v>
       </c>
       <c r="J3" t="s">
         <v>42</v>
@@ -14639,7 +14641,7 @@
         <v>54</v>
       </c>
       <c r="O3" t="s">
-        <v>211</v>
+        <v>358</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
@@ -14654,16 +14656,16 @@
         <v>48</v>
       </c>
       <c r="U3" t="s">
-        <v>212</v>
+        <v>359</v>
       </c>
       <c r="V3">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="Y3" t="s">
         <v>42</v>
       </c>
       <c r="Z3" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AA3" t="s">
         <v>44</v>
@@ -14684,10 +14686,10 @@
         <v>53</v>
       </c>
       <c r="AJ3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AO3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -14698,22 +14700,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C4">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E4" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F4" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G4" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I4" t="s">
-        <v>218</v>
+        <v>361</v>
       </c>
       <c r="J4" t="s">
         <v>42</v>
@@ -14731,7 +14733,7 @@
         <v>54</v>
       </c>
       <c r="O4" t="s">
-        <v>211</v>
+        <v>358</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -14746,16 +14748,16 @@
         <v>48</v>
       </c>
       <c r="U4" t="s">
-        <v>212</v>
+        <v>359</v>
       </c>
       <c r="V4">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="Y4" t="s">
         <v>42</v>
       </c>
       <c r="Z4" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="AA4" t="s">
         <v>44</v>
@@ -14776,10 +14778,10 @@
         <v>53</v>
       </c>
       <c r="AJ4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AO4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -14790,22 +14792,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C5">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D5" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E5" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F5" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G5" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I5" t="s">
-        <v>220</v>
+        <v>362</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
@@ -14823,7 +14825,7 @@
         <v>54</v>
       </c>
       <c r="O5" t="s">
-        <v>211</v>
+        <v>358</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -14838,16 +14840,16 @@
         <v>48</v>
       </c>
       <c r="U5" t="s">
-        <v>212</v>
+        <v>359</v>
       </c>
       <c r="V5">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="Y5" t="s">
         <v>42</v>
       </c>
       <c r="Z5" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="AA5" t="s">
         <v>44</v>
@@ -14868,10 +14870,10 @@
         <v>53</v>
       </c>
       <c r="AJ5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AO5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -14882,22 +14884,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C6">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D6" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E6" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F6" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G6" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I6" t="s">
-        <v>222</v>
+        <v>363</v>
       </c>
       <c r="J6" t="s">
         <v>42</v>
@@ -14915,7 +14917,7 @@
         <v>54</v>
       </c>
       <c r="O6" t="s">
-        <v>211</v>
+        <v>358</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
@@ -14930,16 +14932,16 @@
         <v>48</v>
       </c>
       <c r="U6" t="s">
-        <v>212</v>
+        <v>359</v>
       </c>
       <c r="V6">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="Y6" t="s">
         <v>42</v>
       </c>
       <c r="Z6" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="AA6" t="s">
         <v>44</v>
@@ -14960,10 +14962,10 @@
         <v>53</v>
       </c>
       <c r="AJ6" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AO6" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -14974,22 +14976,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C7">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D7" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E7" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F7" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G7" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I7" t="s">
-        <v>224</v>
+        <v>364</v>
       </c>
       <c r="J7" t="s">
         <v>42</v>
@@ -15007,7 +15009,7 @@
         <v>54</v>
       </c>
       <c r="O7" t="s">
-        <v>211</v>
+        <v>358</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
@@ -15022,16 +15024,16 @@
         <v>48</v>
       </c>
       <c r="U7" t="s">
-        <v>212</v>
+        <v>359</v>
       </c>
       <c r="V7">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="Y7" t="s">
         <v>42</v>
       </c>
       <c r="Z7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="AA7" t="s">
         <v>44</v>
@@ -15052,10 +15054,10 @@
         <v>53</v>
       </c>
       <c r="AJ7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AO7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -15066,22 +15068,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C8">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D8" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F8" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G8" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I8" t="s">
-        <v>226</v>
+        <v>365</v>
       </c>
       <c r="J8" t="s">
         <v>42</v>
@@ -15099,7 +15101,7 @@
         <v>54</v>
       </c>
       <c r="O8" t="s">
-        <v>211</v>
+        <v>358</v>
       </c>
       <c r="P8" t="b">
         <v>0</v>
@@ -15114,16 +15116,16 @@
         <v>48</v>
       </c>
       <c r="U8" t="s">
-        <v>212</v>
+        <v>359</v>
       </c>
       <c r="V8">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="Y8" t="s">
         <v>42</v>
       </c>
       <c r="Z8" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="AA8" t="s">
         <v>44</v>
@@ -15144,10 +15146,10 @@
         <v>53</v>
       </c>
       <c r="AJ8" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AO8" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -15158,22 +15160,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C9">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D9" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E9" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F9" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G9" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I9" t="s">
-        <v>228</v>
+        <v>366</v>
       </c>
       <c r="J9" t="s">
         <v>42</v>
@@ -15191,7 +15193,7 @@
         <v>54</v>
       </c>
       <c r="O9" t="s">
-        <v>211</v>
+        <v>358</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
@@ -15206,16 +15208,16 @@
         <v>48</v>
       </c>
       <c r="U9" t="s">
-        <v>212</v>
+        <v>359</v>
       </c>
       <c r="V9">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="Y9" t="s">
         <v>42</v>
       </c>
       <c r="Z9" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="AA9" t="s">
         <v>44</v>
@@ -15236,10 +15238,10 @@
         <v>53</v>
       </c>
       <c r="AJ9" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AO9" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -15250,22 +15252,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C10">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D10" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E10" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F10" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G10" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I10" t="s">
-        <v>230</v>
+        <v>367</v>
       </c>
       <c r="J10" t="s">
         <v>42</v>
@@ -15283,7 +15285,7 @@
         <v>54</v>
       </c>
       <c r="O10" t="s">
-        <v>211</v>
+        <v>358</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
@@ -15298,16 +15300,16 @@
         <v>48</v>
       </c>
       <c r="U10" t="s">
-        <v>212</v>
+        <v>359</v>
       </c>
       <c r="V10">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="Y10" t="s">
         <v>42</v>
       </c>
       <c r="Z10" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="AA10" t="s">
         <v>44</v>
@@ -15328,10 +15330,10 @@
         <v>53</v>
       </c>
       <c r="AJ10" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AO10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -15342,22 +15344,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C11">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D11" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E11" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F11" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G11" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I11" t="s">
-        <v>232</v>
+        <v>368</v>
       </c>
       <c r="J11" t="s">
         <v>42</v>
@@ -15375,7 +15377,7 @@
         <v>54</v>
       </c>
       <c r="O11" t="s">
-        <v>211</v>
+        <v>358</v>
       </c>
       <c r="P11" t="b">
         <v>0</v>
@@ -15390,16 +15392,16 @@
         <v>48</v>
       </c>
       <c r="U11" t="s">
-        <v>212</v>
+        <v>359</v>
       </c>
       <c r="V11">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="Y11" t="s">
         <v>42</v>
       </c>
       <c r="Z11" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="AA11" t="s">
         <v>44</v>
@@ -15420,10 +15422,10 @@
         <v>53</v>
       </c>
       <c r="AJ11" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AO11" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -15434,22 +15436,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C12">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D12" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E12" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F12" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G12" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I12" t="s">
-        <v>234</v>
+        <v>369</v>
       </c>
       <c r="J12" t="s">
         <v>42</v>
@@ -15467,7 +15469,7 @@
         <v>54</v>
       </c>
       <c r="O12" t="s">
-        <v>211</v>
+        <v>358</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
@@ -15482,16 +15484,16 @@
         <v>48</v>
       </c>
       <c r="U12" t="s">
-        <v>212</v>
+        <v>359</v>
       </c>
       <c r="V12">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="Y12" t="s">
         <v>42</v>
       </c>
       <c r="Z12" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="AA12" t="s">
         <v>44</v>
@@ -15512,10 +15514,10 @@
         <v>53</v>
       </c>
       <c r="AJ12" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AO12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -15526,22 +15528,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C13">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D13" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E13" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F13" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G13" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I13" t="s">
-        <v>236</v>
+        <v>370</v>
       </c>
       <c r="J13" t="s">
         <v>42</v>
@@ -15559,7 +15561,7 @@
         <v>54</v>
       </c>
       <c r="O13" t="s">
-        <v>211</v>
+        <v>358</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
@@ -15574,16 +15576,16 @@
         <v>48</v>
       </c>
       <c r="U13" t="s">
-        <v>212</v>
+        <v>359</v>
       </c>
       <c r="V13">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="Y13" t="s">
         <v>42</v>
       </c>
       <c r="Z13" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="AA13" t="s">
         <v>44</v>
@@ -15604,10 +15606,10 @@
         <v>53</v>
       </c>
       <c r="AJ13" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AO13" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -15618,22 +15620,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C14">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D14" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E14" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F14" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G14" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I14" t="s">
-        <v>238</v>
+        <v>371</v>
       </c>
       <c r="J14" t="s">
         <v>42</v>
@@ -15651,7 +15653,7 @@
         <v>54</v>
       </c>
       <c r="O14" t="s">
-        <v>211</v>
+        <v>358</v>
       </c>
       <c r="P14" t="b">
         <v>0</v>
@@ -15666,16 +15668,16 @@
         <v>48</v>
       </c>
       <c r="U14" t="s">
-        <v>212</v>
+        <v>359</v>
       </c>
       <c r="V14">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="Y14" t="s">
         <v>42</v>
       </c>
       <c r="Z14" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="AA14" t="s">
         <v>44</v>
@@ -15696,10 +15698,10 @@
         <v>53</v>
       </c>
       <c r="AJ14" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AO14" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -15710,22 +15712,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C15">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D15" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E15" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F15" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G15" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I15" t="s">
-        <v>240</v>
+        <v>372</v>
       </c>
       <c r="J15" t="s">
         <v>42</v>
@@ -15743,7 +15745,7 @@
         <v>54</v>
       </c>
       <c r="O15" t="s">
-        <v>211</v>
+        <v>358</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
@@ -15758,10 +15760,10 @@
         <v>48</v>
       </c>
       <c r="U15" t="s">
-        <v>212</v>
+        <v>359</v>
       </c>
       <c r="V15">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="Y15" t="s">
         <v>42</v>
@@ -15788,10 +15790,10 @@
         <v>53</v>
       </c>
       <c r="AJ15" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AO15" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -15802,22 +15804,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C16">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D16" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E16" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F16" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G16" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I16" t="s">
-        <v>241</v>
+        <v>373</v>
       </c>
       <c r="J16" t="s">
         <v>42</v>
@@ -15835,7 +15837,7 @@
         <v>54</v>
       </c>
       <c r="O16" t="s">
-        <v>211</v>
+        <v>358</v>
       </c>
       <c r="P16" t="b">
         <v>0</v>
@@ -15850,10 +15852,10 @@
         <v>48</v>
       </c>
       <c r="U16" t="s">
-        <v>212</v>
+        <v>359</v>
       </c>
       <c r="V16">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="Y16" t="s">
         <v>42</v>
@@ -15880,10 +15882,10 @@
         <v>53</v>
       </c>
       <c r="AJ16" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AO16" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -15894,22 +15896,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C17">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D17" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E17" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F17" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G17" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I17" t="s">
-        <v>242</v>
+        <v>374</v>
       </c>
       <c r="J17" t="s">
         <v>42</v>
@@ -15927,7 +15929,7 @@
         <v>54</v>
       </c>
       <c r="O17" t="s">
-        <v>211</v>
+        <v>358</v>
       </c>
       <c r="P17" t="b">
         <v>0</v>
@@ -15942,10 +15944,10 @@
         <v>48</v>
       </c>
       <c r="U17" t="s">
-        <v>212</v>
+        <v>359</v>
       </c>
       <c r="V17">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="Y17" t="s">
         <v>42</v>
@@ -15972,10 +15974,10 @@
         <v>53</v>
       </c>
       <c r="AJ17" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AO17" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -15986,22 +15988,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C18">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D18" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E18" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F18" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G18" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I18" t="s">
-        <v>243</v>
+        <v>375</v>
       </c>
       <c r="J18" t="s">
         <v>42</v>
@@ -16019,7 +16021,7 @@
         <v>54</v>
       </c>
       <c r="O18" t="s">
-        <v>211</v>
+        <v>358</v>
       </c>
       <c r="P18" t="b">
         <v>0</v>
@@ -16034,10 +16036,10 @@
         <v>48</v>
       </c>
       <c r="U18" t="s">
-        <v>212</v>
+        <v>359</v>
       </c>
       <c r="V18">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="Y18" t="s">
         <v>42</v>
@@ -16064,10 +16066,10 @@
         <v>53</v>
       </c>
       <c r="AJ18" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AO18" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -16078,22 +16080,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C19">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D19" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E19" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F19" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G19" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I19" t="s">
-        <v>244</v>
+        <v>376</v>
       </c>
       <c r="J19" t="s">
         <v>42</v>
@@ -16126,10 +16128,10 @@
         <v>48</v>
       </c>
       <c r="U19" t="s">
-        <v>212</v>
+        <v>359</v>
       </c>
       <c r="V19">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="Y19" t="s">
         <v>42</v>
@@ -16156,7 +16158,7 @@
         <v>63</v>
       </c>
       <c r="AO19" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -16167,22 +16169,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C20">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D20" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E20" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F20" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G20" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I20" t="s">
-        <v>245</v>
+        <v>377</v>
       </c>
       <c r="J20" t="s">
         <v>42</v>
@@ -16197,7 +16199,7 @@
         <v>54</v>
       </c>
       <c r="O20" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="P20" t="b">
         <v>0</v>
@@ -16212,13 +16214,13 @@
         <v>70</v>
       </c>
       <c r="U20" t="s">
-        <v>247</v>
+        <v>378</v>
       </c>
       <c r="V20" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="X20" t="s">
-        <v>249</v>
+        <v>379</v>
       </c>
       <c r="Y20" t="s">
         <v>42</v>
@@ -16242,13 +16244,13 @@
         <v>72</v>
       </c>
       <c r="AJ20" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="AK20" t="s">
         <v>74</v>
       </c>
       <c r="AO20" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:41">
@@ -16259,22 +16261,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C21">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D21" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E21" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F21" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G21" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I21" t="s">
-        <v>251</v>
+        <v>380</v>
       </c>
       <c r="J21" t="s">
         <v>42</v>
@@ -16289,7 +16291,7 @@
         <v>54</v>
       </c>
       <c r="O21" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="P21" t="b">
         <v>0</v>
@@ -16304,13 +16306,13 @@
         <v>70</v>
       </c>
       <c r="U21" t="s">
-        <v>253</v>
+        <v>381</v>
       </c>
       <c r="V21" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="X21" t="s">
-        <v>255</v>
+        <v>382</v>
       </c>
       <c r="Y21" t="s">
         <v>42</v>
@@ -16334,13 +16336,13 @@
         <v>72</v>
       </c>
       <c r="AJ21" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="AK21" t="s">
         <v>74</v>
       </c>
       <c r="AO21" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:41">
@@ -16351,22 +16353,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C22">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D22" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E22" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G22" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I22" t="s">
-        <v>256</v>
+        <v>383</v>
       </c>
       <c r="J22" t="s">
         <v>42</v>
@@ -16381,7 +16383,7 @@
         <v>54</v>
       </c>
       <c r="O22" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="P22" t="b">
         <v>0</v>
@@ -16396,13 +16398,13 @@
         <v>70</v>
       </c>
       <c r="U22" t="s">
-        <v>258</v>
+        <v>384</v>
       </c>
       <c r="V22" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="X22" t="s">
-        <v>260</v>
+        <v>385</v>
       </c>
       <c r="Y22" t="s">
         <v>42</v>
@@ -16426,13 +16428,13 @@
         <v>72</v>
       </c>
       <c r="AJ22" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="AK22" t="s">
         <v>74</v>
       </c>
       <c r="AO22" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:41">
@@ -16443,22 +16445,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C23">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D23" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E23" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F23" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G23" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I23" t="s">
-        <v>261</v>
+        <v>386</v>
       </c>
       <c r="J23" t="s">
         <v>42</v>
@@ -16473,7 +16475,7 @@
         <v>54</v>
       </c>
       <c r="O23" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="P23" t="b">
         <v>0</v>
@@ -16488,13 +16490,13 @@
         <v>70</v>
       </c>
       <c r="U23" t="s">
-        <v>263</v>
+        <v>387</v>
       </c>
       <c r="V23" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="X23" t="s">
-        <v>265</v>
+        <v>388</v>
       </c>
       <c r="Y23" t="s">
         <v>42</v>
@@ -16518,13 +16520,13 @@
         <v>72</v>
       </c>
       <c r="AJ23" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="AK23" t="s">
         <v>74</v>
       </c>
       <c r="AO23" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:41">
@@ -16535,22 +16537,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C24">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D24" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E24" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F24" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G24" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I24" t="s">
-        <v>266</v>
+        <v>389</v>
       </c>
       <c r="J24" t="s">
         <v>42</v>
@@ -16565,7 +16567,7 @@
         <v>54</v>
       </c>
       <c r="O24" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="P24" t="b">
         <v>0</v>
@@ -16580,13 +16582,13 @@
         <v>70</v>
       </c>
       <c r="U24" t="s">
-        <v>268</v>
+        <v>390</v>
       </c>
       <c r="V24" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="X24" t="s">
-        <v>270</v>
+        <v>391</v>
       </c>
       <c r="Y24" t="s">
         <v>42</v>
@@ -16610,13 +16612,13 @@
         <v>72</v>
       </c>
       <c r="AJ24" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="AK24" t="s">
         <v>74</v>
       </c>
       <c r="AO24" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:41">
@@ -16627,22 +16629,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C25">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D25" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E25" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F25" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G25" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I25" t="s">
-        <v>271</v>
+        <v>392</v>
       </c>
       <c r="J25" t="s">
         <v>42</v>
@@ -16657,7 +16659,7 @@
         <v>54</v>
       </c>
       <c r="O25" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="P25" t="b">
         <v>0</v>
@@ -16672,13 +16674,13 @@
         <v>70</v>
       </c>
       <c r="U25" t="s">
-        <v>273</v>
+        <v>393</v>
       </c>
       <c r="V25" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="X25" t="s">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="Y25" t="s">
         <v>42</v>
@@ -16702,13 +16704,13 @@
         <v>72</v>
       </c>
       <c r="AJ25" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="AK25" t="s">
         <v>74</v>
       </c>
       <c r="AO25" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:41">
@@ -16719,22 +16721,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C26">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D26" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E26" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F26" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G26" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I26" t="s">
-        <v>276</v>
+        <v>395</v>
       </c>
       <c r="J26" t="s">
         <v>42</v>
@@ -16749,7 +16751,7 @@
         <v>54</v>
       </c>
       <c r="O26" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="P26" t="b">
         <v>0</v>
@@ -16764,13 +16766,13 @@
         <v>70</v>
       </c>
       <c r="U26" t="s">
-        <v>278</v>
+        <v>396</v>
       </c>
       <c r="V26" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
       <c r="X26" t="s">
-        <v>280</v>
+        <v>397</v>
       </c>
       <c r="Y26" t="s">
         <v>42</v>
@@ -16794,13 +16796,13 @@
         <v>72</v>
       </c>
       <c r="AJ26" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="AK26" t="s">
         <v>74</v>
       </c>
       <c r="AO26" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:41">
@@ -16811,22 +16813,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C27">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D27" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E27" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F27" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G27" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I27" t="s">
-        <v>281</v>
+        <v>398</v>
       </c>
       <c r="J27" t="s">
         <v>42</v>
@@ -16841,7 +16843,7 @@
         <v>54</v>
       </c>
       <c r="O27" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
@@ -16856,13 +16858,13 @@
         <v>70</v>
       </c>
       <c r="U27" t="s">
-        <v>283</v>
+        <v>399</v>
       </c>
       <c r="V27" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="X27" t="s">
-        <v>285</v>
+        <v>400</v>
       </c>
       <c r="Y27" t="s">
         <v>42</v>
@@ -16886,13 +16888,13 @@
         <v>72</v>
       </c>
       <c r="AJ27" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="AK27" t="s">
         <v>74</v>
       </c>
       <c r="AO27" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:41">
@@ -16903,22 +16905,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C28">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D28" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E28" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F28" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G28" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I28" t="s">
-        <v>286</v>
+        <v>401</v>
       </c>
       <c r="J28" t="s">
         <v>42</v>
@@ -16933,7 +16935,7 @@
         <v>54</v>
       </c>
       <c r="O28" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="P28" t="b">
         <v>0</v>
@@ -16948,13 +16950,13 @@
         <v>70</v>
       </c>
       <c r="U28" t="s">
-        <v>287</v>
+        <v>402</v>
       </c>
       <c r="V28" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="X28" t="s">
-        <v>288</v>
+        <v>403</v>
       </c>
       <c r="Y28" t="s">
         <v>42</v>
@@ -16978,13 +16980,13 @@
         <v>72</v>
       </c>
       <c r="AJ28" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="AK28" t="s">
         <v>74</v>
       </c>
       <c r="AO28" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:41">
@@ -16995,22 +16997,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C29">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D29" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E29" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F29" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G29" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I29" t="s">
-        <v>289</v>
+        <v>404</v>
       </c>
       <c r="J29" t="s">
         <v>42</v>
@@ -17025,7 +17027,7 @@
         <v>54</v>
       </c>
       <c r="O29" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
@@ -17040,13 +17042,13 @@
         <v>70</v>
       </c>
       <c r="U29" t="s">
-        <v>290</v>
+        <v>405</v>
       </c>
       <c r="V29" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="X29" t="s">
-        <v>291</v>
+        <v>406</v>
       </c>
       <c r="Y29" t="s">
         <v>42</v>
@@ -17070,13 +17072,13 @@
         <v>72</v>
       </c>
       <c r="AJ29" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="AK29" t="s">
         <v>74</v>
       </c>
       <c r="AO29" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:41">
@@ -17087,22 +17089,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C30">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D30" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E30" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F30" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G30" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I30" t="s">
-        <v>292</v>
+        <v>407</v>
       </c>
       <c r="J30" t="s">
         <v>42</v>
@@ -17117,7 +17119,7 @@
         <v>54</v>
       </c>
       <c r="O30" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
@@ -17132,13 +17134,13 @@
         <v>70</v>
       </c>
       <c r="U30" t="s">
-        <v>293</v>
+        <v>408</v>
       </c>
       <c r="V30" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="X30" t="s">
-        <v>294</v>
+        <v>409</v>
       </c>
       <c r="Y30" t="s">
         <v>42</v>
@@ -17162,13 +17164,13 @@
         <v>72</v>
       </c>
       <c r="AJ30" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="AK30" t="s">
         <v>74</v>
       </c>
       <c r="AO30" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:41">
@@ -17179,22 +17181,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C31">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D31" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E31" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F31" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G31" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I31" t="s">
-        <v>295</v>
+        <v>410</v>
       </c>
       <c r="J31" t="s">
         <v>42</v>
@@ -17209,7 +17211,7 @@
         <v>54</v>
       </c>
       <c r="O31" t="s">
-        <v>296</v>
+        <v>238</v>
       </c>
       <c r="P31" t="b">
         <v>0</v>
@@ -17224,13 +17226,13 @@
         <v>70</v>
       </c>
       <c r="U31" t="s">
-        <v>263</v>
+        <v>387</v>
       </c>
       <c r="V31" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="X31" t="s">
-        <v>265</v>
+        <v>388</v>
       </c>
       <c r="Y31" t="s">
         <v>42</v>
@@ -17263,13 +17265,13 @@
         <v>84</v>
       </c>
       <c r="AJ31" t="s">
-        <v>297</v>
+        <v>239</v>
       </c>
       <c r="AK31" t="s">
         <v>78</v>
       </c>
       <c r="AO31" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:41">
@@ -17280,22 +17282,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C32">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D32" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E32" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F32" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G32" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I32" t="s">
-        <v>298</v>
+        <v>411</v>
       </c>
       <c r="J32" t="s">
         <v>42</v>
@@ -17310,7 +17312,7 @@
         <v>54</v>
       </c>
       <c r="O32" t="s">
-        <v>299</v>
+        <v>240</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
@@ -17325,13 +17327,13 @@
         <v>70</v>
       </c>
       <c r="U32" t="s">
-        <v>283</v>
+        <v>399</v>
       </c>
       <c r="V32" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="X32" t="s">
-        <v>285</v>
+        <v>400</v>
       </c>
       <c r="Y32" t="s">
         <v>42</v>
@@ -17364,13 +17366,13 @@
         <v>84</v>
       </c>
       <c r="AJ32" t="s">
-        <v>297</v>
+        <v>239</v>
       </c>
       <c r="AK32" t="s">
         <v>78</v>
       </c>
       <c r="AO32" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:41">
@@ -17381,22 +17383,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C33">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D33" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E33" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F33" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G33" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I33" t="s">
-        <v>300</v>
+        <v>412</v>
       </c>
       <c r="J33" t="s">
         <v>42</v>
@@ -17411,7 +17413,7 @@
         <v>54</v>
       </c>
       <c r="O33" t="s">
-        <v>299</v>
+        <v>240</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
@@ -17426,13 +17428,13 @@
         <v>70</v>
       </c>
       <c r="U33" t="s">
-        <v>290</v>
+        <v>405</v>
       </c>
       <c r="V33" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="X33" t="s">
-        <v>291</v>
+        <v>406</v>
       </c>
       <c r="Y33" t="s">
         <v>42</v>
@@ -17465,13 +17467,13 @@
         <v>84</v>
       </c>
       <c r="AJ33" t="s">
-        <v>297</v>
+        <v>239</v>
       </c>
       <c r="AK33" t="s">
         <v>78</v>
       </c>
       <c r="AO33" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:41">
@@ -17482,22 +17484,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C34">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D34" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E34" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F34" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G34" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I34" t="s">
-        <v>301</v>
+        <v>413</v>
       </c>
       <c r="J34" t="s">
         <v>42</v>
@@ -17512,7 +17514,7 @@
         <v>54</v>
       </c>
       <c r="O34" t="s">
-        <v>299</v>
+        <v>240</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
@@ -17527,13 +17529,13 @@
         <v>70</v>
       </c>
       <c r="U34" t="s">
-        <v>293</v>
+        <v>408</v>
       </c>
       <c r="V34" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="X34" t="s">
-        <v>294</v>
+        <v>409</v>
       </c>
       <c r="Y34" t="s">
         <v>42</v>
@@ -17566,13 +17568,13 @@
         <v>84</v>
       </c>
       <c r="AJ34" t="s">
-        <v>297</v>
+        <v>239</v>
       </c>
       <c r="AK34" t="s">
         <v>78</v>
       </c>
       <c r="AO34" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:41">
@@ -17583,22 +17585,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C35">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D35" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E35" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F35" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G35" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I35" t="s">
-        <v>302</v>
+        <v>414</v>
       </c>
       <c r="J35" t="s">
         <v>42</v>
@@ -17613,7 +17615,7 @@
         <v>54</v>
       </c>
       <c r="O35" t="s">
-        <v>303</v>
+        <v>241</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
@@ -17628,10 +17630,10 @@
         <v>88</v>
       </c>
       <c r="U35" t="s">
-        <v>304</v>
+        <v>415</v>
       </c>
       <c r="V35" t="s">
-        <v>305</v>
+        <v>242</v>
       </c>
       <c r="Y35" t="s">
         <v>42</v>
@@ -17658,7 +17660,7 @@
         <v>93</v>
       </c>
       <c r="AJ35" t="s">
-        <v>297</v>
+        <v>239</v>
       </c>
       <c r="AK35" t="s">
         <v>78</v>
@@ -17667,7 +17669,7 @@
         <v>94</v>
       </c>
       <c r="AO35" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:41">
@@ -17678,22 +17680,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C36">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D36" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E36" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F36" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G36" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I36" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="J36" t="s">
         <v>42</v>
@@ -17708,7 +17710,7 @@
         <v>54</v>
       </c>
       <c r="O36" t="s">
-        <v>307</v>
+        <v>243</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
@@ -17723,10 +17725,10 @@
         <v>88</v>
       </c>
       <c r="U36" t="s">
-        <v>308</v>
+        <v>417</v>
       </c>
       <c r="V36" t="s">
-        <v>309</v>
+        <v>244</v>
       </c>
       <c r="Y36" t="s">
         <v>42</v>
@@ -17753,7 +17755,7 @@
         <v>93</v>
       </c>
       <c r="AJ36" t="s">
-        <v>297</v>
+        <v>239</v>
       </c>
       <c r="AK36" t="s">
         <v>78</v>
@@ -17762,7 +17764,7 @@
         <v>94</v>
       </c>
       <c r="AO36" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:41">
@@ -17773,22 +17775,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C37">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D37" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E37" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F37" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G37" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I37" t="s">
-        <v>310</v>
+        <v>418</v>
       </c>
       <c r="J37" t="s">
         <v>42</v>
@@ -17803,7 +17805,7 @@
         <v>54</v>
       </c>
       <c r="O37" t="s">
-        <v>311</v>
+        <v>245</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
@@ -17818,10 +17820,10 @@
         <v>88</v>
       </c>
       <c r="U37" t="s">
-        <v>312</v>
+        <v>419</v>
       </c>
       <c r="V37" t="s">
-        <v>313</v>
+        <v>246</v>
       </c>
       <c r="Y37" t="s">
         <v>42</v>
@@ -17848,7 +17850,7 @@
         <v>93</v>
       </c>
       <c r="AJ37" t="s">
-        <v>297</v>
+        <v>239</v>
       </c>
       <c r="AK37" t="s">
         <v>78</v>
@@ -17857,7 +17859,7 @@
         <v>94</v>
       </c>
       <c r="AO37" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:41">
@@ -17868,22 +17870,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C38">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D38" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E38" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F38" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G38" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I38" t="s">
-        <v>314</v>
+        <v>420</v>
       </c>
       <c r="J38" t="s">
         <v>42</v>
@@ -17898,7 +17900,7 @@
         <v>54</v>
       </c>
       <c r="O38" t="s">
-        <v>315</v>
+        <v>247</v>
       </c>
       <c r="P38" t="b">
         <v>0</v>
@@ -17913,13 +17915,13 @@
         <v>88</v>
       </c>
       <c r="U38" t="s">
-        <v>316</v>
+        <v>421</v>
       </c>
       <c r="V38" t="s">
-        <v>317</v>
+        <v>248</v>
       </c>
       <c r="X38" t="s">
-        <v>318</v>
+        <v>249</v>
       </c>
       <c r="Y38" t="s">
         <v>42</v>
@@ -17952,7 +17954,7 @@
         <v>94</v>
       </c>
       <c r="AO38" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:41">
@@ -17963,22 +17965,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C39">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D39" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E39" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F39" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G39" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I39" t="s">
-        <v>319</v>
+        <v>422</v>
       </c>
       <c r="J39" t="s">
         <v>42</v>
@@ -17993,7 +17995,7 @@
         <v>54</v>
       </c>
       <c r="O39" t="s">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
@@ -18008,10 +18010,10 @@
         <v>88</v>
       </c>
       <c r="U39" t="s">
-        <v>304</v>
+        <v>415</v>
       </c>
       <c r="V39" t="s">
-        <v>305</v>
+        <v>242</v>
       </c>
       <c r="Y39" t="s">
         <v>42</v>
@@ -18044,7 +18046,7 @@
         <v>94</v>
       </c>
       <c r="AO39" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:41">
@@ -18055,22 +18057,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C40">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D40" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E40" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F40" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G40" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I40" t="s">
-        <v>321</v>
+        <v>423</v>
       </c>
       <c r="J40" t="s">
         <v>42</v>
@@ -18085,7 +18087,7 @@
         <v>54</v>
       </c>
       <c r="O40" t="s">
-        <v>322</v>
+        <v>251</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
@@ -18100,10 +18102,10 @@
         <v>88</v>
       </c>
       <c r="U40" t="s">
-        <v>323</v>
+        <v>424</v>
       </c>
       <c r="V40" t="s">
-        <v>324</v>
+        <v>252</v>
       </c>
       <c r="Y40" t="s">
         <v>42</v>
@@ -18136,7 +18138,7 @@
         <v>94</v>
       </c>
       <c r="AO40" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:41">
@@ -18147,22 +18149,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C41">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D41" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E41" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F41" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G41" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I41" t="s">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="J41" t="s">
         <v>42</v>
@@ -18177,7 +18179,7 @@
         <v>54</v>
       </c>
       <c r="O41" t="s">
-        <v>326</v>
+        <v>253</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
@@ -18192,10 +18194,10 @@
         <v>88</v>
       </c>
       <c r="U41" t="s">
-        <v>327</v>
+        <v>426</v>
       </c>
       <c r="V41" t="s">
-        <v>328</v>
+        <v>254</v>
       </c>
       <c r="Y41" t="s">
         <v>42</v>
@@ -18228,7 +18230,7 @@
         <v>94</v>
       </c>
       <c r="AO41" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:41">
@@ -18239,22 +18241,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C42">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D42" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E42" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F42" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G42" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I42" t="s">
-        <v>329</v>
+        <v>427</v>
       </c>
       <c r="J42" t="s">
         <v>42</v>
@@ -18269,7 +18271,7 @@
         <v>54</v>
       </c>
       <c r="O42" t="s">
-        <v>330</v>
+        <v>255</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
@@ -18284,10 +18286,10 @@
         <v>88</v>
       </c>
       <c r="U42" t="s">
-        <v>331</v>
+        <v>428</v>
       </c>
       <c r="V42" t="s">
-        <v>332</v>
+        <v>256</v>
       </c>
       <c r="Y42" t="s">
         <v>42</v>
@@ -18320,7 +18322,7 @@
         <v>94</v>
       </c>
       <c r="AO42" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:41">
@@ -18331,22 +18333,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C43">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D43" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E43" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F43" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G43" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I43" t="s">
-        <v>333</v>
+        <v>429</v>
       </c>
       <c r="J43" t="s">
         <v>42</v>
@@ -18361,7 +18363,7 @@
         <v>54</v>
       </c>
       <c r="O43" t="s">
-        <v>334</v>
+        <v>257</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
@@ -18376,10 +18378,10 @@
         <v>88</v>
       </c>
       <c r="U43" t="s">
-        <v>335</v>
+        <v>430</v>
       </c>
       <c r="V43" t="s">
-        <v>336</v>
+        <v>258</v>
       </c>
       <c r="Y43" t="s">
         <v>42</v>
@@ -18412,7 +18414,7 @@
         <v>94</v>
       </c>
       <c r="AO43" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:41">
@@ -18423,22 +18425,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C44">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D44" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E44" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F44" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G44" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I44" t="s">
-        <v>337</v>
+        <v>431</v>
       </c>
       <c r="J44" t="s">
         <v>42</v>
@@ -18453,7 +18455,7 @@
         <v>54</v>
       </c>
       <c r="O44" t="s">
-        <v>338</v>
+        <v>259</v>
       </c>
       <c r="P44" t="b">
         <v>0</v>
@@ -18468,10 +18470,10 @@
         <v>88</v>
       </c>
       <c r="U44" t="s">
-        <v>339</v>
+        <v>432</v>
       </c>
       <c r="V44" t="s">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="Y44" t="s">
         <v>42</v>
@@ -18504,7 +18506,7 @@
         <v>94</v>
       </c>
       <c r="AO44" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="1:41">
@@ -18515,22 +18517,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C45">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D45" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E45" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F45" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G45" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I45" t="s">
-        <v>341</v>
+        <v>433</v>
       </c>
       <c r="J45" t="s">
         <v>42</v>
@@ -18545,7 +18547,7 @@
         <v>54</v>
       </c>
       <c r="O45" t="s">
-        <v>342</v>
+        <v>261</v>
       </c>
       <c r="P45" t="b">
         <v>0</v>
@@ -18560,10 +18562,10 @@
         <v>88</v>
       </c>
       <c r="U45" t="s">
-        <v>343</v>
+        <v>434</v>
       </c>
       <c r="V45" t="s">
-        <v>344</v>
+        <v>262</v>
       </c>
       <c r="Y45" t="s">
         <v>42</v>
@@ -18596,7 +18598,7 @@
         <v>94</v>
       </c>
       <c r="AO45" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:41">
@@ -18607,22 +18609,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C46">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D46" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E46" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F46" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G46" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I46" t="s">
-        <v>345</v>
+        <v>435</v>
       </c>
       <c r="J46" t="s">
         <v>42</v>
@@ -18637,7 +18639,7 @@
         <v>54</v>
       </c>
       <c r="O46" t="s">
-        <v>346</v>
+        <v>263</v>
       </c>
       <c r="P46" t="b">
         <v>0</v>
@@ -18652,10 +18654,10 @@
         <v>88</v>
       </c>
       <c r="U46" t="s">
-        <v>347</v>
+        <v>436</v>
       </c>
       <c r="V46" t="s">
-        <v>348</v>
+        <v>264</v>
       </c>
       <c r="Y46" t="s">
         <v>42</v>
@@ -18688,7 +18690,7 @@
         <v>94</v>
       </c>
       <c r="AO46" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:41">
@@ -18699,22 +18701,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C47">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D47" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E47" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F47" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G47" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I47" t="s">
-        <v>349</v>
+        <v>437</v>
       </c>
       <c r="J47" t="s">
         <v>42</v>
@@ -18729,7 +18731,7 @@
         <v>54</v>
       </c>
       <c r="O47" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
       <c r="P47" t="b">
         <v>0</v>
@@ -18744,10 +18746,10 @@
         <v>88</v>
       </c>
       <c r="U47" t="s">
-        <v>351</v>
+        <v>438</v>
       </c>
       <c r="V47" t="s">
-        <v>352</v>
+        <v>266</v>
       </c>
       <c r="Y47" t="s">
         <v>42</v>
@@ -18780,7 +18782,7 @@
         <v>94</v>
       </c>
       <c r="AO47" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:41">
@@ -18791,22 +18793,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C48">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D48" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E48" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F48" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G48" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I48" t="s">
-        <v>353</v>
+        <v>439</v>
       </c>
       <c r="J48" t="s">
         <v>42</v>
@@ -18821,7 +18823,7 @@
         <v>54</v>
       </c>
       <c r="O48" t="s">
-        <v>354</v>
+        <v>267</v>
       </c>
       <c r="P48" t="b">
         <v>0</v>
@@ -18836,10 +18838,10 @@
         <v>88</v>
       </c>
       <c r="U48" t="s">
-        <v>355</v>
+        <v>440</v>
       </c>
       <c r="V48" t="s">
-        <v>356</v>
+        <v>268</v>
       </c>
       <c r="Y48" t="s">
         <v>42</v>
@@ -18872,7 +18874,7 @@
         <v>94</v>
       </c>
       <c r="AO48" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:41">
@@ -18883,22 +18885,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C49">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D49" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E49" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F49" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G49" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I49" t="s">
-        <v>357</v>
+        <v>441</v>
       </c>
       <c r="J49" t="s">
         <v>42</v>
@@ -18913,7 +18915,7 @@
         <v>54</v>
       </c>
       <c r="O49" t="s">
-        <v>358</v>
+        <v>269</v>
       </c>
       <c r="P49" t="b">
         <v>0</v>
@@ -18928,10 +18930,10 @@
         <v>88</v>
       </c>
       <c r="U49" t="s">
-        <v>359</v>
+        <v>442</v>
       </c>
       <c r="V49" t="s">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="Y49" t="s">
         <v>42</v>
@@ -18964,7 +18966,7 @@
         <v>94</v>
       </c>
       <c r="AO49" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:41">
@@ -18975,22 +18977,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C50">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D50" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E50" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F50" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G50" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I50" t="s">
-        <v>361</v>
+        <v>443</v>
       </c>
       <c r="J50" t="s">
         <v>42</v>
@@ -19005,7 +19007,7 @@
         <v>54</v>
       </c>
       <c r="O50" t="s">
-        <v>362</v>
+        <v>271</v>
       </c>
       <c r="P50" t="b">
         <v>0</v>
@@ -19020,10 +19022,10 @@
         <v>88</v>
       </c>
       <c r="U50" t="s">
-        <v>363</v>
+        <v>444</v>
       </c>
       <c r="V50" t="s">
-        <v>364</v>
+        <v>272</v>
       </c>
       <c r="Y50" t="s">
         <v>42</v>
@@ -19056,7 +19058,7 @@
         <v>94</v>
       </c>
       <c r="AO50" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:41">
@@ -19067,22 +19069,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C51">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D51" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E51" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F51" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G51" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I51" t="s">
-        <v>365</v>
+        <v>445</v>
       </c>
       <c r="J51" t="s">
         <v>42</v>
@@ -19097,7 +19099,7 @@
         <v>54</v>
       </c>
       <c r="O51" t="s">
-        <v>366</v>
+        <v>273</v>
       </c>
       <c r="P51" t="b">
         <v>0</v>
@@ -19112,10 +19114,10 @@
         <v>88</v>
       </c>
       <c r="U51" t="s">
-        <v>367</v>
+        <v>446</v>
       </c>
       <c r="V51" t="s">
-        <v>368</v>
+        <v>274</v>
       </c>
       <c r="Y51" t="s">
         <v>42</v>
@@ -19148,7 +19150,7 @@
         <v>94</v>
       </c>
       <c r="AO51" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:41">
@@ -19159,22 +19161,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C52">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D52" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E52" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F52" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G52" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I52" t="s">
-        <v>369</v>
+        <v>447</v>
       </c>
       <c r="J52" t="s">
         <v>42</v>
@@ -19189,7 +19191,7 @@
         <v>54</v>
       </c>
       <c r="O52" t="s">
-        <v>370</v>
+        <v>275</v>
       </c>
       <c r="P52" t="b">
         <v>0</v>
@@ -19204,10 +19206,10 @@
         <v>88</v>
       </c>
       <c r="U52" t="s">
-        <v>371</v>
+        <v>448</v>
       </c>
       <c r="V52" t="s">
-        <v>372</v>
+        <v>276</v>
       </c>
       <c r="Y52" t="s">
         <v>42</v>
@@ -19240,7 +19242,7 @@
         <v>94</v>
       </c>
       <c r="AO52" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:41">
@@ -19251,22 +19253,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C53">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D53" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E53" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F53" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G53" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I53" t="s">
-        <v>373</v>
+        <v>449</v>
       </c>
       <c r="J53" t="s">
         <v>42</v>
@@ -19281,7 +19283,7 @@
         <v>54</v>
       </c>
       <c r="O53" t="s">
-        <v>374</v>
+        <v>277</v>
       </c>
       <c r="P53" t="b">
         <v>0</v>
@@ -19296,10 +19298,10 @@
         <v>88</v>
       </c>
       <c r="U53" t="s">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="V53" t="s">
-        <v>376</v>
+        <v>278</v>
       </c>
       <c r="Y53" t="s">
         <v>42</v>
@@ -19332,7 +19334,7 @@
         <v>94</v>
       </c>
       <c r="AO53" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:41">
@@ -19343,22 +19345,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C54">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D54" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E54" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F54" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G54" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I54" t="s">
-        <v>377</v>
+        <v>451</v>
       </c>
       <c r="J54" t="s">
         <v>42</v>
@@ -19373,7 +19375,7 @@
         <v>54</v>
       </c>
       <c r="O54" t="s">
-        <v>378</v>
+        <v>279</v>
       </c>
       <c r="P54" t="b">
         <v>0</v>
@@ -19388,10 +19390,10 @@
         <v>88</v>
       </c>
       <c r="U54" t="s">
-        <v>379</v>
+        <v>452</v>
       </c>
       <c r="V54" t="s">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="Y54" t="s">
         <v>42</v>
@@ -19424,7 +19426,7 @@
         <v>94</v>
       </c>
       <c r="AO54" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:41">
@@ -19435,22 +19437,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C55">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D55" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E55" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F55" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G55" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I55" t="s">
-        <v>381</v>
+        <v>453</v>
       </c>
       <c r="J55" t="s">
         <v>42</v>
@@ -19465,7 +19467,7 @@
         <v>54</v>
       </c>
       <c r="O55" t="s">
-        <v>382</v>
+        <v>281</v>
       </c>
       <c r="P55" t="b">
         <v>0</v>
@@ -19480,10 +19482,10 @@
         <v>88</v>
       </c>
       <c r="U55" t="s">
-        <v>383</v>
+        <v>454</v>
       </c>
       <c r="V55" t="s">
-        <v>384</v>
+        <v>282</v>
       </c>
       <c r="Y55" t="s">
         <v>42</v>
@@ -19516,7 +19518,7 @@
         <v>94</v>
       </c>
       <c r="AO55" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:41">
@@ -19527,22 +19529,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C56">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D56" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E56" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F56" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G56" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I56" t="s">
-        <v>385</v>
+        <v>455</v>
       </c>
       <c r="J56" t="s">
         <v>42</v>
@@ -19557,7 +19559,7 @@
         <v>54</v>
       </c>
       <c r="O56" t="s">
-        <v>386</v>
+        <v>283</v>
       </c>
       <c r="P56" t="b">
         <v>0</v>
@@ -19572,10 +19574,10 @@
         <v>88</v>
       </c>
       <c r="U56" t="s">
-        <v>387</v>
+        <v>456</v>
       </c>
       <c r="V56" t="s">
-        <v>388</v>
+        <v>284</v>
       </c>
       <c r="Y56" t="s">
         <v>42</v>
@@ -19608,7 +19610,7 @@
         <v>94</v>
       </c>
       <c r="AO56" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:41">
@@ -19619,22 +19621,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C57">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D57" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E57" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F57" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G57" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I57" t="s">
-        <v>389</v>
+        <v>457</v>
       </c>
       <c r="J57" t="s">
         <v>42</v>
@@ -19649,7 +19651,7 @@
         <v>54</v>
       </c>
       <c r="O57" t="s">
-        <v>390</v>
+        <v>285</v>
       </c>
       <c r="P57" t="b">
         <v>0</v>
@@ -19664,10 +19666,10 @@
         <v>88</v>
       </c>
       <c r="U57" t="s">
-        <v>391</v>
+        <v>458</v>
       </c>
       <c r="V57" t="s">
-        <v>392</v>
+        <v>286</v>
       </c>
       <c r="Y57" t="s">
         <v>42</v>
@@ -19700,7 +19702,7 @@
         <v>94</v>
       </c>
       <c r="AO57" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:41">
@@ -19711,22 +19713,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C58">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D58" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E58" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F58" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G58" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I58" t="s">
-        <v>393</v>
+        <v>459</v>
       </c>
       <c r="J58" t="s">
         <v>42</v>
@@ -19741,7 +19743,7 @@
         <v>54</v>
       </c>
       <c r="O58" t="s">
-        <v>394</v>
+        <v>287</v>
       </c>
       <c r="P58" t="b">
         <v>0</v>
@@ -19756,10 +19758,10 @@
         <v>88</v>
       </c>
       <c r="U58" t="s">
-        <v>395</v>
+        <v>460</v>
       </c>
       <c r="V58" t="s">
-        <v>396</v>
+        <v>288</v>
       </c>
       <c r="Y58" t="s">
         <v>42</v>
@@ -19792,7 +19794,7 @@
         <v>94</v>
       </c>
       <c r="AO58" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:41">
@@ -19803,22 +19805,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C59">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D59" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E59" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F59" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G59" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I59" t="s">
-        <v>397</v>
+        <v>461</v>
       </c>
       <c r="J59" t="s">
         <v>42</v>
@@ -19833,7 +19835,7 @@
         <v>54</v>
       </c>
       <c r="O59" t="s">
-        <v>398</v>
+        <v>289</v>
       </c>
       <c r="P59" t="b">
         <v>0</v>
@@ -19848,10 +19850,10 @@
         <v>88</v>
       </c>
       <c r="U59" t="s">
-        <v>399</v>
+        <v>462</v>
       </c>
       <c r="V59" t="s">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="Y59" t="s">
         <v>42</v>
@@ -19884,7 +19886,7 @@
         <v>94</v>
       </c>
       <c r="AO59" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:41">
@@ -19895,22 +19897,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C60">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D60" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E60" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F60" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G60" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I60" t="s">
-        <v>401</v>
+        <v>463</v>
       </c>
       <c r="J60" t="s">
         <v>42</v>
@@ -19925,7 +19927,7 @@
         <v>54</v>
       </c>
       <c r="O60" t="s">
-        <v>402</v>
+        <v>291</v>
       </c>
       <c r="P60" t="b">
         <v>0</v>
@@ -19940,13 +19942,13 @@
         <v>88</v>
       </c>
       <c r="U60" t="s">
-        <v>403</v>
+        <v>464</v>
       </c>
       <c r="V60" t="s">
-        <v>404</v>
+        <v>292</v>
       </c>
       <c r="X60" t="s">
-        <v>318</v>
+        <v>249</v>
       </c>
       <c r="Y60" t="s">
         <v>42</v>
@@ -19979,7 +19981,7 @@
         <v>94</v>
       </c>
       <c r="AO60" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:41">
@@ -19990,22 +19992,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C61">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D61" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E61" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F61" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G61" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I61" t="s">
-        <v>405</v>
+        <v>465</v>
       </c>
       <c r="J61" t="s">
         <v>42</v>
@@ -20020,7 +20022,7 @@
         <v>54</v>
       </c>
       <c r="O61" t="s">
-        <v>406</v>
+        <v>293</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
@@ -20035,10 +20037,10 @@
         <v>88</v>
       </c>
       <c r="U61" t="s">
-        <v>308</v>
+        <v>417</v>
       </c>
       <c r="V61" t="s">
-        <v>309</v>
+        <v>244</v>
       </c>
       <c r="Y61" t="s">
         <v>42</v>
@@ -20071,7 +20073,7 @@
         <v>94</v>
       </c>
       <c r="AO61" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62" spans="1:41">
@@ -20082,22 +20084,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C62">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D62" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E62" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F62" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G62" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I62" t="s">
-        <v>407</v>
+        <v>466</v>
       </c>
       <c r="J62" t="s">
         <v>42</v>
@@ -20112,7 +20114,7 @@
         <v>54</v>
       </c>
       <c r="O62" t="s">
-        <v>408</v>
+        <v>294</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
@@ -20127,10 +20129,10 @@
         <v>88</v>
       </c>
       <c r="U62" t="s">
-        <v>409</v>
+        <v>467</v>
       </c>
       <c r="V62" t="s">
-        <v>410</v>
+        <v>295</v>
       </c>
       <c r="Y62" t="s">
         <v>42</v>
@@ -20163,7 +20165,7 @@
         <v>94</v>
       </c>
       <c r="AO62" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:41">
@@ -20174,22 +20176,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C63">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D63" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E63" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F63" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G63" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I63" t="s">
-        <v>411</v>
+        <v>468</v>
       </c>
       <c r="J63" t="s">
         <v>42</v>
@@ -20204,7 +20206,7 @@
         <v>54</v>
       </c>
       <c r="O63" t="s">
-        <v>412</v>
+        <v>296</v>
       </c>
       <c r="P63" t="b">
         <v>0</v>
@@ -20219,10 +20221,10 @@
         <v>88</v>
       </c>
       <c r="U63" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
       <c r="V63" t="s">
-        <v>414</v>
+        <v>297</v>
       </c>
       <c r="Y63" t="s">
         <v>42</v>
@@ -20255,7 +20257,7 @@
         <v>94</v>
       </c>
       <c r="AO63" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:41">
@@ -20266,22 +20268,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C64">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D64" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E64" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F64" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G64" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I64" t="s">
-        <v>415</v>
+        <v>470</v>
       </c>
       <c r="J64" t="s">
         <v>42</v>
@@ -20296,7 +20298,7 @@
         <v>54</v>
       </c>
       <c r="O64" t="s">
-        <v>416</v>
+        <v>298</v>
       </c>
       <c r="P64" t="b">
         <v>0</v>
@@ -20311,10 +20313,10 @@
         <v>88</v>
       </c>
       <c r="U64" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="V64" t="s">
-        <v>418</v>
+        <v>299</v>
       </c>
       <c r="Y64" t="s">
         <v>42</v>
@@ -20347,7 +20349,7 @@
         <v>94</v>
       </c>
       <c r="AO64" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:41">
@@ -20358,22 +20360,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C65">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D65" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E65" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F65" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G65" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I65" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="J65" t="s">
         <v>42</v>
@@ -20388,7 +20390,7 @@
         <v>54</v>
       </c>
       <c r="O65" t="s">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="P65" t="b">
         <v>0</v>
@@ -20403,10 +20405,10 @@
         <v>88</v>
       </c>
       <c r="U65" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="V65" t="s">
-        <v>422</v>
+        <v>301</v>
       </c>
       <c r="Y65" t="s">
         <v>42</v>
@@ -20439,7 +20441,7 @@
         <v>94</v>
       </c>
       <c r="AO65" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:41">
@@ -20450,22 +20452,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C66">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D66" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E66" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F66" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G66" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I66" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="J66" t="s">
         <v>42</v>
@@ -20480,7 +20482,7 @@
         <v>54</v>
       </c>
       <c r="O66" t="s">
-        <v>424</v>
+        <v>302</v>
       </c>
       <c r="P66" t="b">
         <v>0</v>
@@ -20495,13 +20497,13 @@
         <v>88</v>
       </c>
       <c r="U66" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="V66" t="s">
-        <v>426</v>
+        <v>303</v>
       </c>
       <c r="X66" t="s">
-        <v>318</v>
+        <v>249</v>
       </c>
       <c r="Y66" t="s">
         <v>42</v>
@@ -20534,7 +20536,7 @@
         <v>94</v>
       </c>
       <c r="AO66" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="1:41">
@@ -20545,22 +20547,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C67">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D67" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E67" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F67" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G67" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I67" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="J67" t="s">
         <v>42</v>
@@ -20575,7 +20577,7 @@
         <v>54</v>
       </c>
       <c r="O67" t="s">
-        <v>428</v>
+        <v>304</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
@@ -20590,10 +20592,10 @@
         <v>88</v>
       </c>
       <c r="U67" t="s">
-        <v>312</v>
+        <v>419</v>
       </c>
       <c r="V67" t="s">
-        <v>313</v>
+        <v>246</v>
       </c>
       <c r="Y67" t="s">
         <v>42</v>
@@ -20626,7 +20628,7 @@
         <v>94</v>
       </c>
       <c r="AO67" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="1:41">
@@ -20637,22 +20639,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C68">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D68" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E68" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F68" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G68" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I68" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="J68" t="s">
         <v>42</v>
@@ -20667,7 +20669,7 @@
         <v>54</v>
       </c>
       <c r="O68" t="s">
-        <v>430</v>
+        <v>305</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
@@ -20682,10 +20684,10 @@
         <v>88</v>
       </c>
       <c r="U68" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="V68" t="s">
-        <v>432</v>
+        <v>306</v>
       </c>
       <c r="Y68" t="s">
         <v>42</v>
@@ -20718,7 +20720,7 @@
         <v>94</v>
       </c>
       <c r="AO68" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:41">
@@ -20729,22 +20731,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C69">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D69" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E69" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F69" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G69" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I69" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="J69" t="s">
         <v>42</v>
@@ -20759,7 +20761,7 @@
         <v>54</v>
       </c>
       <c r="O69" t="s">
-        <v>434</v>
+        <v>307</v>
       </c>
       <c r="P69" t="b">
         <v>0</v>
@@ -20774,10 +20776,10 @@
         <v>88</v>
       </c>
       <c r="U69" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
       <c r="V69" t="s">
-        <v>436</v>
+        <v>308</v>
       </c>
       <c r="Y69" t="s">
         <v>42</v>
@@ -20810,7 +20812,7 @@
         <v>94</v>
       </c>
       <c r="AO69" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" spans="1:41">
@@ -20821,22 +20823,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C70">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D70" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E70" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F70" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G70" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I70" t="s">
-        <v>437</v>
+        <v>481</v>
       </c>
       <c r="J70" t="s">
         <v>42</v>
@@ -20851,7 +20853,7 @@
         <v>54</v>
       </c>
       <c r="O70" t="s">
-        <v>438</v>
+        <v>309</v>
       </c>
       <c r="P70" t="b">
         <v>0</v>
@@ -20866,10 +20868,10 @@
         <v>88</v>
       </c>
       <c r="U70" t="s">
-        <v>439</v>
+        <v>482</v>
       </c>
       <c r="V70" t="s">
-        <v>440</v>
+        <v>310</v>
       </c>
       <c r="Y70" t="s">
         <v>42</v>
@@ -20902,7 +20904,7 @@
         <v>94</v>
       </c>
       <c r="AO70" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:41">
@@ -20913,22 +20915,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C71">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D71" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E71" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F71" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G71" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I71" t="s">
-        <v>441</v>
+        <v>483</v>
       </c>
       <c r="J71" t="s">
         <v>42</v>
@@ -20946,7 +20948,7 @@
         <v>54</v>
       </c>
       <c r="O71" t="s">
-        <v>442</v>
+        <v>311</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
@@ -20961,10 +20963,10 @@
         <v>104</v>
       </c>
       <c r="U71" t="s">
-        <v>443</v>
+        <v>535</v>
       </c>
       <c r="V71" t="s">
-        <v>444</v>
+        <v>312</v>
       </c>
       <c r="Y71" t="s">
         <v>42</v>
@@ -20991,7 +20993,7 @@
         <v>74</v>
       </c>
       <c r="AO71" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:41">
@@ -21002,22 +21004,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C72">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D72" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E72" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F72" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G72" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I72" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
       <c r="J72" t="s">
         <v>42</v>
@@ -21035,7 +21037,7 @@
         <v>54</v>
       </c>
       <c r="O72" t="s">
-        <v>446</v>
+        <v>313</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
@@ -21050,10 +21052,10 @@
         <v>104</v>
       </c>
       <c r="U72" t="s">
-        <v>443</v>
+        <v>535</v>
       </c>
       <c r="V72" t="s">
-        <v>444</v>
+        <v>312</v>
       </c>
       <c r="Y72" t="s">
         <v>42</v>
@@ -21065,7 +21067,7 @@
         <v>112</v>
       </c>
       <c r="AB72" t="s">
-        <v>447</v>
+        <v>314</v>
       </c>
       <c r="AD72" t="s">
         <v>113</v>
@@ -21080,13 +21082,13 @@
         <v>116</v>
       </c>
       <c r="AJ72" t="s">
-        <v>448</v>
+        <v>315</v>
       </c>
       <c r="AK72" t="s">
         <v>117</v>
       </c>
       <c r="AO72" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:41">
@@ -21097,22 +21099,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C73">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D73" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E73" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F73" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G73" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I73" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="J73" t="s">
         <v>42</v>
@@ -21130,7 +21132,7 @@
         <v>54</v>
       </c>
       <c r="O73" t="s">
-        <v>450</v>
+        <v>316</v>
       </c>
       <c r="P73" t="b">
         <v>0</v>
@@ -21145,10 +21147,10 @@
         <v>121</v>
       </c>
       <c r="U73" t="s">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="V73">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="Y73" t="s">
         <v>42</v>
@@ -21172,10 +21174,10 @@
         <v>125</v>
       </c>
       <c r="AJ73" t="s">
-        <v>452</v>
+        <v>317</v>
       </c>
       <c r="AO73" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:41">
@@ -21186,22 +21188,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C74">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D74" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E74" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F74" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G74" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I74" t="s">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="J74" t="s">
         <v>42</v>
@@ -21219,7 +21221,7 @@
         <v>54</v>
       </c>
       <c r="O74" t="s">
-        <v>450</v>
+        <v>316</v>
       </c>
       <c r="P74" t="b">
         <v>0</v>
@@ -21234,10 +21236,10 @@
         <v>121</v>
       </c>
       <c r="U74" t="s">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="V74">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="Y74" t="s">
         <v>42</v>
@@ -21261,13 +21263,13 @@
         <v>128</v>
       </c>
       <c r="AJ74" t="s">
-        <v>454</v>
+        <v>318</v>
       </c>
       <c r="AK74" t="s">
         <v>74</v>
       </c>
       <c r="AO74" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:41">
@@ -21278,22 +21280,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C75">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D75" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E75" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F75" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G75" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I75" t="s">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="J75" t="s">
         <v>42</v>
@@ -21311,7 +21313,7 @@
         <v>54</v>
       </c>
       <c r="O75" t="s">
-        <v>456</v>
+        <v>319</v>
       </c>
       <c r="P75" t="b">
         <v>0</v>
@@ -21326,10 +21328,10 @@
         <v>133</v>
       </c>
       <c r="U75" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="V75" t="s">
-        <v>458</v>
+        <v>320</v>
       </c>
       <c r="Y75" t="s">
         <v>42</v>
@@ -21356,7 +21358,7 @@
         <v>137</v>
       </c>
       <c r="AO75" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:41">
@@ -21367,22 +21369,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C76">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D76" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E76" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F76" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G76" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I76" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="J76" t="s">
         <v>42</v>
@@ -21400,7 +21402,7 @@
         <v>54</v>
       </c>
       <c r="O76" t="s">
-        <v>460</v>
+        <v>321</v>
       </c>
       <c r="P76" t="b">
         <v>0</v>
@@ -21418,10 +21420,10 @@
         <v>142</v>
       </c>
       <c r="U76" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="V76" t="s">
-        <v>462</v>
+        <v>322</v>
       </c>
       <c r="Y76" t="s">
         <v>42</v>
@@ -21451,13 +21453,13 @@
         <v>147</v>
       </c>
       <c r="AJ76" t="s">
-        <v>463</v>
+        <v>323</v>
       </c>
       <c r="AK76" t="s">
         <v>148</v>
       </c>
       <c r="AO76" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" spans="1:41">
@@ -21468,22 +21470,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C77">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D77" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E77" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F77" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G77" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I77" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="J77" t="s">
         <v>42</v>
@@ -21501,7 +21503,7 @@
         <v>54</v>
       </c>
       <c r="O77" t="s">
-        <v>465</v>
+        <v>324</v>
       </c>
       <c r="P77" t="b">
         <v>0</v>
@@ -21519,10 +21521,10 @@
         <v>142</v>
       </c>
       <c r="U77" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="V77" t="s">
-        <v>467</v>
+        <v>325</v>
       </c>
       <c r="Y77" t="s">
         <v>42</v>
@@ -21552,13 +21554,13 @@
         <v>147</v>
       </c>
       <c r="AJ77" t="s">
-        <v>463</v>
+        <v>323</v>
       </c>
       <c r="AK77" t="s">
         <v>148</v>
       </c>
       <c r="AO77" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78" spans="1:41">
@@ -21569,22 +21571,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C78">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D78" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E78" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F78" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G78" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I78" t="s">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="J78" t="s">
         <v>42</v>
@@ -21602,7 +21604,7 @@
         <v>54</v>
       </c>
       <c r="O78" t="s">
-        <v>469</v>
+        <v>326</v>
       </c>
       <c r="P78" t="b">
         <v>0</v>
@@ -21620,10 +21622,10 @@
         <v>142</v>
       </c>
       <c r="U78" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="V78" t="s">
-        <v>471</v>
+        <v>327</v>
       </c>
       <c r="Y78" t="s">
         <v>42</v>
@@ -21653,13 +21655,13 @@
         <v>147</v>
       </c>
       <c r="AJ78" t="s">
-        <v>463</v>
+        <v>323</v>
       </c>
       <c r="AK78" t="s">
         <v>148</v>
       </c>
       <c r="AO78" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="1:41">
@@ -21670,22 +21672,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C79">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D79" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E79" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F79" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G79" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I79" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="J79" t="s">
         <v>42</v>
@@ -21703,7 +21705,7 @@
         <v>54</v>
       </c>
       <c r="O79" t="s">
-        <v>473</v>
+        <v>328</v>
       </c>
       <c r="P79" t="b">
         <v>0</v>
@@ -21721,10 +21723,10 @@
         <v>142</v>
       </c>
       <c r="U79" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
       <c r="V79" t="s">
-        <v>475</v>
+        <v>329</v>
       </c>
       <c r="Y79" t="s">
         <v>42</v>
@@ -21754,13 +21756,13 @@
         <v>147</v>
       </c>
       <c r="AJ79" t="s">
-        <v>463</v>
+        <v>323</v>
       </c>
       <c r="AK79" t="s">
         <v>148</v>
       </c>
       <c r="AO79" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="1:41">
@@ -21771,22 +21773,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C80">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D80" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E80" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F80" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G80" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I80" t="s">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="J80" t="s">
         <v>42</v>
@@ -21804,7 +21806,7 @@
         <v>54</v>
       </c>
       <c r="O80" t="s">
-        <v>477</v>
+        <v>330</v>
       </c>
       <c r="P80" t="b">
         <v>0</v>
@@ -21822,13 +21824,13 @@
         <v>142</v>
       </c>
       <c r="U80" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="V80" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="X80" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="Y80" t="s">
         <v>42</v>
@@ -21858,13 +21860,13 @@
         <v>147</v>
       </c>
       <c r="AJ80" t="s">
-        <v>463</v>
+        <v>323</v>
       </c>
       <c r="AK80" t="s">
         <v>148</v>
       </c>
       <c r="AO80" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:41">
@@ -21875,22 +21877,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C81">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D81" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E81" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F81" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G81" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I81" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="J81" t="s">
         <v>42</v>
@@ -21908,7 +21910,7 @@
         <v>54</v>
       </c>
       <c r="O81" t="s">
-        <v>482</v>
+        <v>332</v>
       </c>
       <c r="P81" t="b">
         <v>0</v>
@@ -21926,13 +21928,13 @@
         <v>142</v>
       </c>
       <c r="U81" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="V81" t="s">
-        <v>484</v>
+        <v>333</v>
       </c>
       <c r="X81" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="Y81" t="s">
         <v>42</v>
@@ -21962,13 +21964,13 @@
         <v>147</v>
       </c>
       <c r="AJ81" t="s">
-        <v>463</v>
+        <v>323</v>
       </c>
       <c r="AK81" t="s">
         <v>148</v>
       </c>
       <c r="AO81" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:41">
@@ -21979,22 +21981,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C82">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D82" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E82" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F82" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G82" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I82" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="J82" t="s">
         <v>42</v>
@@ -22012,7 +22014,7 @@
         <v>54</v>
       </c>
       <c r="O82" t="s">
-        <v>487</v>
+        <v>334</v>
       </c>
       <c r="P82" t="b">
         <v>0</v>
@@ -22030,13 +22032,13 @@
         <v>142</v>
       </c>
       <c r="U82" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="V82" t="s">
-        <v>489</v>
+        <v>335</v>
       </c>
       <c r="X82" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="Y82" t="s">
         <v>42</v>
@@ -22066,13 +22068,13 @@
         <v>147</v>
       </c>
       <c r="AJ82" t="s">
-        <v>463</v>
+        <v>323</v>
       </c>
       <c r="AK82" t="s">
         <v>148</v>
       </c>
       <c r="AO82" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83" spans="1:41">
@@ -22083,22 +22085,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C83">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D83" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E83" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F83" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G83" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I83" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="J83" t="s">
         <v>42</v>
@@ -22116,7 +22118,7 @@
         <v>54</v>
       </c>
       <c r="O83" t="s">
-        <v>492</v>
+        <v>336</v>
       </c>
       <c r="P83" t="b">
         <v>0</v>
@@ -22134,13 +22136,13 @@
         <v>142</v>
       </c>
       <c r="U83" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="V83" t="s">
-        <v>494</v>
+        <v>337</v>
       </c>
       <c r="X83" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="Y83" t="s">
         <v>42</v>
@@ -22170,13 +22172,13 @@
         <v>147</v>
       </c>
       <c r="AJ83" t="s">
-        <v>463</v>
+        <v>323</v>
       </c>
       <c r="AK83" t="s">
         <v>148</v>
       </c>
       <c r="AO83" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="84" spans="1:41">
@@ -22187,22 +22189,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C84">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D84" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E84" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F84" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G84" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I84" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="J84" t="s">
         <v>42</v>
@@ -22220,7 +22222,7 @@
         <v>54</v>
       </c>
       <c r="O84" t="s">
-        <v>497</v>
+        <v>338</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
@@ -22238,10 +22240,10 @@
         <v>142</v>
       </c>
       <c r="U84" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="V84" t="s">
-        <v>499</v>
+        <v>339</v>
       </c>
       <c r="Y84" t="s">
         <v>42</v>
@@ -22271,13 +22273,13 @@
         <v>147</v>
       </c>
       <c r="AJ84" t="s">
-        <v>463</v>
+        <v>323</v>
       </c>
       <c r="AK84" t="s">
         <v>148</v>
       </c>
       <c r="AO84" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="85" spans="1:41">
@@ -22288,22 +22290,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C85">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D85" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E85" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F85" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G85" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I85" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="J85" t="s">
         <v>42</v>
@@ -22321,7 +22323,7 @@
         <v>54</v>
       </c>
       <c r="O85" t="s">
-        <v>460</v>
+        <v>321</v>
       </c>
       <c r="P85" t="b">
         <v>0</v>
@@ -22339,10 +22341,10 @@
         <v>142</v>
       </c>
       <c r="U85" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="V85" t="s">
-        <v>462</v>
+        <v>322</v>
       </c>
       <c r="Y85" t="s">
         <v>42</v>
@@ -22372,13 +22374,13 @@
         <v>147</v>
       </c>
       <c r="AJ85" t="s">
-        <v>463</v>
+        <v>323</v>
       </c>
       <c r="AK85" t="s">
         <v>148</v>
       </c>
       <c r="AO85" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86" spans="1:41">
@@ -22389,22 +22391,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C86">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D86" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E86" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F86" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G86" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I86" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="J86" t="s">
         <v>42</v>
@@ -22422,7 +22424,7 @@
         <v>54</v>
       </c>
       <c r="O86" t="s">
-        <v>465</v>
+        <v>324</v>
       </c>
       <c r="P86" t="b">
         <v>0</v>
@@ -22440,10 +22442,10 @@
         <v>142</v>
       </c>
       <c r="U86" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="V86" t="s">
-        <v>467</v>
+        <v>325</v>
       </c>
       <c r="Y86" t="s">
         <v>42</v>
@@ -22473,13 +22475,13 @@
         <v>147</v>
       </c>
       <c r="AJ86" t="s">
-        <v>463</v>
+        <v>323</v>
       </c>
       <c r="AK86" t="s">
         <v>148</v>
       </c>
       <c r="AO86" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:41">
@@ -22490,22 +22492,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C87">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D87" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E87" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F87" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G87" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I87" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="J87" t="s">
         <v>42</v>
@@ -22523,7 +22525,7 @@
         <v>54</v>
       </c>
       <c r="O87" t="s">
-        <v>505</v>
+        <v>340</v>
       </c>
       <c r="P87" t="b">
         <v>0</v>
@@ -22541,10 +22543,10 @@
         <v>142</v>
       </c>
       <c r="U87" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="V87" t="s">
-        <v>507</v>
+        <v>341</v>
       </c>
       <c r="Y87" t="s">
         <v>42</v>
@@ -22574,13 +22576,13 @@
         <v>147</v>
       </c>
       <c r="AJ87" t="s">
-        <v>463</v>
+        <v>323</v>
       </c>
       <c r="AK87" t="s">
         <v>148</v>
       </c>
       <c r="AO87" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88" spans="1:41">
@@ -22591,22 +22593,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C88">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D88" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E88" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F88" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G88" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I88" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="J88" t="s">
         <v>42</v>
@@ -22624,7 +22626,7 @@
         <v>54</v>
       </c>
       <c r="O88" t="s">
-        <v>497</v>
+        <v>338</v>
       </c>
       <c r="P88" t="b">
         <v>1</v>
@@ -22642,10 +22644,10 @@
         <v>142</v>
       </c>
       <c r="U88" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="V88" t="s">
-        <v>499</v>
+        <v>339</v>
       </c>
       <c r="Y88" t="s">
         <v>42</v>
@@ -22675,13 +22677,13 @@
         <v>147</v>
       </c>
       <c r="AJ88" t="s">
-        <v>463</v>
+        <v>323</v>
       </c>
       <c r="AK88" t="s">
         <v>148</v>
       </c>
       <c r="AO88" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="1:41">
@@ -22692,22 +22694,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C89">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D89" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E89" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F89" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G89" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I89" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="J89" t="s">
         <v>42</v>
@@ -22725,7 +22727,7 @@
         <v>54</v>
       </c>
       <c r="O89" t="s">
-        <v>511</v>
+        <v>342</v>
       </c>
       <c r="P89" t="b">
         <v>0</v>
@@ -22743,10 +22745,10 @@
         <v>142</v>
       </c>
       <c r="U89" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="V89" t="s">
-        <v>513</v>
+        <v>343</v>
       </c>
       <c r="Y89" t="s">
         <v>42</v>
@@ -22776,13 +22778,13 @@
         <v>147</v>
       </c>
       <c r="AJ89" t="s">
-        <v>463</v>
+        <v>323</v>
       </c>
       <c r="AK89" t="s">
         <v>148</v>
       </c>
       <c r="AO89" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90" spans="1:41">
@@ -22793,22 +22795,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C90">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D90" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E90" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F90" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G90" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I90" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="J90" t="s">
         <v>42</v>
@@ -22826,7 +22828,7 @@
         <v>54</v>
       </c>
       <c r="O90" t="s">
-        <v>497</v>
+        <v>338</v>
       </c>
       <c r="P90" t="b">
         <v>1</v>
@@ -22844,10 +22846,10 @@
         <v>142</v>
       </c>
       <c r="U90" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="V90" t="s">
-        <v>499</v>
+        <v>339</v>
       </c>
       <c r="Y90" t="s">
         <v>42</v>
@@ -22877,13 +22879,13 @@
         <v>147</v>
       </c>
       <c r="AJ90" t="s">
-        <v>463</v>
+        <v>323</v>
       </c>
       <c r="AK90" t="s">
         <v>148</v>
       </c>
       <c r="AO90" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91" spans="1:41">
@@ -22894,22 +22896,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C91">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D91" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E91" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F91" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G91" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I91" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="J91" t="s">
         <v>42</v>
@@ -22927,7 +22929,7 @@
         <v>54</v>
       </c>
       <c r="O91" t="s">
-        <v>517</v>
+        <v>344</v>
       </c>
       <c r="P91" t="b">
         <v>0</v>
@@ -22942,10 +22944,10 @@
         <v>152</v>
       </c>
       <c r="U91" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="V91" t="s">
-        <v>462</v>
+        <v>322</v>
       </c>
       <c r="Y91" t="s">
         <v>42</v>
@@ -22975,7 +22977,7 @@
         <v>78</v>
       </c>
       <c r="AO91" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92" spans="1:41">
@@ -22986,22 +22988,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C92">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D92" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E92" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F92" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G92" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I92" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="J92" t="s">
         <v>42</v>
@@ -23019,7 +23021,7 @@
         <v>54</v>
       </c>
       <c r="O92" t="s">
-        <v>519</v>
+        <v>345</v>
       </c>
       <c r="P92" t="b">
         <v>0</v>
@@ -23034,10 +23036,10 @@
         <v>152</v>
       </c>
       <c r="U92" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="V92" t="s">
-        <v>467</v>
+        <v>325</v>
       </c>
       <c r="Y92" t="s">
         <v>42</v>
@@ -23067,7 +23069,7 @@
         <v>78</v>
       </c>
       <c r="AO92" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" spans="1:41">
@@ -23078,22 +23080,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C93">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D93" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E93" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F93" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G93" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I93" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="J93" t="s">
         <v>42</v>
@@ -23111,7 +23113,7 @@
         <v>54</v>
       </c>
       <c r="O93" t="s">
-        <v>521</v>
+        <v>346</v>
       </c>
       <c r="P93" t="b">
         <v>0</v>
@@ -23126,10 +23128,10 @@
         <v>152</v>
       </c>
       <c r="U93" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="V93" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="Y93" t="s">
         <v>42</v>
@@ -23159,7 +23161,7 @@
         <v>78</v>
       </c>
       <c r="AO93" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94" spans="1:41">
@@ -23170,22 +23172,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C94">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D94" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E94" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F94" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G94" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I94" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="J94" t="s">
         <v>42</v>
@@ -23203,7 +23205,7 @@
         <v>54</v>
       </c>
       <c r="O94" t="s">
-        <v>523</v>
+        <v>347</v>
       </c>
       <c r="P94" t="b">
         <v>0</v>
@@ -23218,10 +23220,10 @@
         <v>152</v>
       </c>
       <c r="U94" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="V94" t="s">
-        <v>462</v>
+        <v>322</v>
       </c>
       <c r="Y94" t="s">
         <v>42</v>
@@ -23251,7 +23253,7 @@
         <v>78</v>
       </c>
       <c r="AO94" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95" spans="1:41">
@@ -23262,22 +23264,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C95">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D95" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E95" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F95" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G95" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I95" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="J95" t="s">
         <v>42</v>
@@ -23295,7 +23297,7 @@
         <v>54</v>
       </c>
       <c r="O95" t="s">
-        <v>525</v>
+        <v>348</v>
       </c>
       <c r="P95" t="b">
         <v>0</v>
@@ -23310,10 +23312,10 @@
         <v>152</v>
       </c>
       <c r="U95" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="V95" t="s">
-        <v>467</v>
+        <v>325</v>
       </c>
       <c r="Y95" t="s">
         <v>42</v>
@@ -23343,7 +23345,7 @@
         <v>78</v>
       </c>
       <c r="AO95" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96" spans="1:41">
@@ -23354,22 +23356,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C96">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D96" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E96" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F96" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G96" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I96" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="J96" t="s">
         <v>42</v>
@@ -23387,7 +23389,7 @@
         <v>54</v>
       </c>
       <c r="O96" t="s">
-        <v>527</v>
+        <v>349</v>
       </c>
       <c r="P96" t="b">
         <v>0</v>
@@ -23402,10 +23404,10 @@
         <v>152</v>
       </c>
       <c r="U96" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="V96" t="s">
-        <v>507</v>
+        <v>341</v>
       </c>
       <c r="Y96" t="s">
         <v>42</v>
@@ -23435,7 +23437,7 @@
         <v>78</v>
       </c>
       <c r="AO96" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97" spans="1:41">
@@ -23446,22 +23448,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C97">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D97" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E97" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F97" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G97" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I97" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J97" t="s">
         <v>42</v>
@@ -23479,7 +23481,7 @@
         <v>54</v>
       </c>
       <c r="O97" t="s">
-        <v>529</v>
+        <v>350</v>
       </c>
       <c r="P97" t="b">
         <v>0</v>
@@ -23494,10 +23496,10 @@
         <v>152</v>
       </c>
       <c r="U97" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="V97" t="s">
-        <v>513</v>
+        <v>343</v>
       </c>
       <c r="Y97" t="s">
         <v>42</v>
@@ -23527,7 +23529,7 @@
         <v>78</v>
       </c>
       <c r="AO97" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" spans="1:41">
@@ -23538,22 +23540,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C98">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D98" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E98" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F98" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G98" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I98" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J98" t="s">
         <v>42</v>
@@ -23571,7 +23573,7 @@
         <v>54</v>
       </c>
       <c r="O98" t="s">
-        <v>531</v>
+        <v>351</v>
       </c>
       <c r="P98" t="b">
         <v>0</v>
@@ -23589,10 +23591,10 @@
         <v>142</v>
       </c>
       <c r="U98" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="V98" t="s">
-        <v>471</v>
+        <v>327</v>
       </c>
       <c r="Y98" t="s">
         <v>42</v>
@@ -23625,10 +23627,10 @@
         <v>166</v>
       </c>
       <c r="AJ98" t="s">
-        <v>532</v>
+        <v>352</v>
       </c>
       <c r="AO98" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" spans="1:41">
@@ -23639,22 +23641,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C99">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D99" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E99" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F99" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G99" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I99" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J99" t="s">
         <v>42</v>
@@ -23672,7 +23674,7 @@
         <v>54</v>
       </c>
       <c r="O99" t="s">
-        <v>534</v>
+        <v>353</v>
       </c>
       <c r="P99" t="b">
         <v>0</v>
@@ -23690,10 +23692,10 @@
         <v>142</v>
       </c>
       <c r="U99" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
       <c r="V99" t="s">
-        <v>475</v>
+        <v>329</v>
       </c>
       <c r="Y99" t="s">
         <v>42</v>
@@ -23726,10 +23728,10 @@
         <v>166</v>
       </c>
       <c r="AJ99" t="s">
-        <v>532</v>
+        <v>352</v>
       </c>
       <c r="AO99" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:41">
@@ -23740,22 +23742,22 @@
         <v>45464.875991458335</v>
       </c>
       <c r="C100">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="D100" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
       <c r="E100" t="s">
-        <v>207</v>
+        <v>534</v>
       </c>
       <c r="F100" t="s">
-        <v>208</v>
+        <v>536</v>
       </c>
       <c r="G100" t="s">
-        <v>209</v>
+        <v>537</v>
       </c>
       <c r="I100" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J100" t="s">
         <v>42</v>
@@ -23773,7 +23775,7 @@
         <v>54</v>
       </c>
       <c r="O100" t="s">
-        <v>536</v>
+        <v>354</v>
       </c>
       <c r="P100" t="b">
         <v>0</v>
@@ -23791,13 +23793,13 @@
         <v>142</v>
       </c>
       <c r="U100" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="V100" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="X100" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="Y100" t="s">
         <v>42</v>
@@ -23830,10 +23832,10 @@
         <v>166</v>
       </c>
       <c r="AJ100" t="s">
-        <v>532</v>
+        <v>352</v>
       </c>
       <c r="AO100" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101" spans="1:41">
@@ -35359,8 +35361,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="39.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="17" spans="1:2">
@@ -35427,7 +35429,7 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="41.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="17" spans="1:2">
@@ -35517,8 +35519,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -35577,8 +35579,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -35637,8 +35639,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -35713,8 +35715,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -35728,7 +35730,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4">
-        <v>242404996810</v>
+        <v>123456789012</v>
       </c>
       <c r="B18" s="21">
         <v>7</v>

--- a/prowler-report-template.xlsx
+++ b/prowler-report-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micvirgi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micvirgi\Documents\Code Repo\GitHub\multi-account-security-assessment-via-prowler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F660F8-C1BB-4F2C-8634-6424D60DC59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C2208E-6F39-41EB-9D2B-5C6BBEE5BE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27204" yWindow="-8424" windowWidth="33600" windowHeight="20496" activeTab="1" xr2:uid="{0487832F-E362-F645-8976-2EFD8C4D20FE}"/>
+    <workbookView xWindow="26928" yWindow="-8700" windowWidth="33600" windowHeight="20496" xr2:uid="{0487832F-E362-F645-8976-2EFD8C4D20FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="11" r:id="rId1"/>
@@ -75,7 +75,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="29" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2839" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="528">
   <si>
     <t>AUTH_METHOD</t>
   </si>
@@ -723,9 +723,6 @@
   </si>
   <si>
     <t>WARNING</t>
-  </si>
-  <si>
-    <t>Always start with a fesh template. Do not re-use a termplate with previous customer data. Pivot Tables keep a history of the deleted data source.</t>
   </si>
   <si>
     <t>Re-using a template with previous customer data may result in that data being available even if it appears to not be present.</t>
@@ -796,9 +793,6 @@
     <t>Copy and paste your prowler output over the sample data in the Prowler CSV excel tab</t>
   </si>
   <si>
-    <t>Refrsh Pivot Tables</t>
-  </si>
-  <si>
     <t>1 Click on the findings tab</t>
   </si>
   <si>
@@ -904,171 +898,6 @@
   </si>
   <si>
     <r>
-      <t>Customer Review</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - A table the consultant can use to help the customer review, prioritize, and reduce risk, with remediation information and associated documentation</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Customer Review Simple</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> - A table the consultant can use to help the customer review, prioritize, and reduce risk.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Communicating with the customer is one of the key to a successful engagement. The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Customer Review</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Customer Review Simple</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tabs allows the consultant to work with the customer and gain customer trust, by digging deeper into each finding. Once the prowler report template is populated with the results from the prowler scan/s and all tables are updated, consultants should:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Provide the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Customer Review </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>and/or</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Customer Review Simple </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>table to the customer and ask the customer to review each finding and document their status by answering the following:</t>
-    </r>
-  </si>
-  <si>
-    <t>RESOLVED: the customer should mark this as a YES if the finding was resolved. This is a good indicator that the engagement resulted in immediate benefits to the customer.</t>
-  </si>
-  <si>
-    <t>CONTROL: the customer should mark this as a YES if the finding was resolved during the engagement, i.e., a critical finding that communicated immediately by the consultant and resolved right-away, or a finding that was identified by the scanner and resolved when the report was delivered. </t>
-  </si>
-  <si>
-    <t>COMPENSATING CONTROL: the customer should mark this as a YES if they could not address the finding directly but instead have a compensating control that reduced the risk of the finding, i.e., 2FA is not enabled for AWS users in AWS but it is enabled using an external authenticator such as Okta.</t>
-  </si>
-  <si>
-    <t>RISK ACCEPTANCE: the customer should mark this as a YES if they accept the risk identified by the finding, i.e., the root account does not implement hardware MFA and the customer’s risk appetite is satisfied by software tokens.</t>
-  </si>
-  <si>
-    <t>NOTES: a description of the implemented controls or risk acceptance.</t>
-  </si>
-  <si>
-    <r>
-      <t>Review the completed </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Customer Review </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>table and work with the customer to identify additional controls that may help with risk reduction.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Service </t>
     </r>
     <r>
@@ -2092,6 +1921,12 @@
   </si>
   <si>
     <t>o-bf9fdbona4</t>
+  </si>
+  <si>
+    <t>Refresh Pivot Tables</t>
+  </si>
+  <si>
+    <t>Always start with a fesh template. Do not re-use a template with previous customer data. Pivot Tables keep a history of the deleted data source.</t>
   </si>
 </sst>
 </file>
@@ -2264,7 +2099,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2300,7 +2135,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2332,7 +2166,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[prowler-report-template (1).xlsx]Severity!PivotTable2</c:name>
+    <c:name>[prowler-report-template.xlsx]Severity!PivotTable2</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -2828,7 +2662,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[prowler-report-template (1).xlsx]Pass Fail!PivotTable2</c:name>
+    <c:name>[prowler-report-template.xlsx]Pass Fail!PivotTable2</c:name>
     <c:fmtId val="6"/>
   </c:pivotSource>
   <c:chart>
@@ -3416,7 +3250,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[prowler-report-template (1).xlsx]Service!PivotTable2</c:name>
+    <c:name>[prowler-report-template.xlsx]Service!PivotTable2</c:name>
     <c:fmtId val="8"/>
   </c:pivotSource>
   <c:chart>
@@ -4045,7 +3879,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[prowler-report-template (1).xlsx]Accounts!PivotTable2</c:name>
+    <c:name>[prowler-report-template.xlsx]Accounts!PivotTable2</c:name>
     <c:fmtId val="12"/>
   </c:pivotSource>
   <c:chart>
@@ -11494,7 +11328,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E9552B6-AE75-7841-A2C8-14F6E9BBBC29}" name="PivotTable2" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E9552B6-AE75-7841-A2C8-14F6E9BBBC29}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A17:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="41">
     <pivotField showAll="0"/>
@@ -11749,7 +11583,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1879514B-C618-9846-87F8-4F546C8F4C51}" name="PivotTable2" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1879514B-C618-9846-87F8-4F546C8F4C51}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A17:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="41">
     <pivotField showAll="0"/>
@@ -12020,7 +11854,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8C584CD-E632-C245-99B7-C2669CBF5D85}" name="PivotTable2" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8C584CD-E632-C245-99B7-C2669CBF5D85}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A17:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="41">
     <pivotField showAll="0"/>
@@ -12220,7 +12054,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8DFD1018-D870-AE47-A340-D60C42D7610A}" name="PivotTable2" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8DFD1018-D870-AE47-A340-D60C42D7610A}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A17:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="41">
     <pivotField showAll="0"/>
@@ -12444,7 +12278,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D77FA457-9D1E-A842-8B40-28554FC483B6}" name="PivotTable2" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D77FA457-9D1E-A842-8B40-28554FC483B6}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
   <location ref="A17:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="41">
     <pivotField showAll="0"/>
@@ -12623,7 +12457,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{738F87B7-3959-9B4B-9C62-488AC6494721}" name="PivotTable2" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{738F87B7-3959-9B4B-9C62-488AC6494721}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="A17:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="41">
     <pivotField showAll="0"/>
@@ -14129,9 +13963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C1D241-C7BB-DC4B-8705-583938B5A431}">
   <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
@@ -14146,22 +13978,22 @@
     </row>
     <row r="2" spans="1:1" s="8" customFormat="1" ht="18.75">
       <c r="A2" s="9" t="s">
-        <v>173</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:1" s="8" customFormat="1" ht="18.75">
       <c r="A3" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="8" customFormat="1" ht="18.75">
       <c r="A4" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:1" s="8" customFormat="1" ht="18.75">
       <c r="A5" s="10" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="8" customFormat="1">
@@ -14169,67 +14001,67 @@
     </row>
     <row r="7" spans="1:1" s="13" customFormat="1" ht="21">
       <c r="A7" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18.75">
       <c r="A9" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="18.75">
       <c r="A12" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="18.75">
       <c r="A16" s="14" t="s">
-        <v>182</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="18.75">
       <c r="A22" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="31.5">
       <c r="A23" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -14237,94 +14069,74 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="18" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="18" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="18" t="s">
-        <v>194</v>
-      </c>
+      <c r="A32" s="18"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="18" t="s">
-        <v>195</v>
-      </c>
+      <c r="A33" s="18"/>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="17"/>
     </row>
-    <row r="35" spans="1:1" ht="47.25">
-      <c r="A35" s="19" t="s">
-        <v>196</v>
-      </c>
+    <row r="35" spans="1:1">
+      <c r="A35" s="19"/>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="17"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="19" t="s">
-        <v>197</v>
-      </c>
+      <c r="A37" s="19"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="31.5">
-      <c r="A39" s="19" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="31.5">
-      <c r="A40" s="19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="31.5">
-      <c r="A41" s="19" t="s">
-        <v>201</v>
-      </c>
+      <c r="A38" s="19"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="19"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="19"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="19"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="19" t="s">
-        <v>202</v>
-      </c>
+      <c r="A42" s="19"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="19" t="s">
-        <v>203</v>
-      </c>
+      <c r="A43" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14335,8 +14147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF2DAAA-F217-744D-84DB-5CB63FDACBA6}">
   <dimension ref="A1:AO3935"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -14519,19 +14331,19 @@
         <v>123456789012</v>
       </c>
       <c r="D2" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E2" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F2" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G2" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I2" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="J2" t="s">
         <v>42</v>
@@ -14549,7 +14361,7 @@
         <v>54</v>
       </c>
       <c r="O2" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -14564,7 +14376,7 @@
         <v>48</v>
       </c>
       <c r="U2" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="V2">
         <v>123456789012</v>
@@ -14573,7 +14385,7 @@
         <v>42</v>
       </c>
       <c r="Z2" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="AA2" t="s">
         <v>44</v>
@@ -14594,10 +14406,10 @@
         <v>53</v>
       </c>
       <c r="AJ2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="AO2" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -14611,19 +14423,19 @@
         <v>123456789012</v>
       </c>
       <c r="D3" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E3" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F3" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G3" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I3" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="J3" t="s">
         <v>42</v>
@@ -14641,7 +14453,7 @@
         <v>54</v>
       </c>
       <c r="O3" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
@@ -14656,7 +14468,7 @@
         <v>48</v>
       </c>
       <c r="U3" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="V3">
         <v>123456789012</v>
@@ -14665,7 +14477,7 @@
         <v>42</v>
       </c>
       <c r="Z3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="AA3" t="s">
         <v>44</v>
@@ -14686,10 +14498,10 @@
         <v>53</v>
       </c>
       <c r="AJ3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="AO3" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -14703,19 +14515,19 @@
         <v>123456789012</v>
       </c>
       <c r="D4" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E4" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F4" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G4" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="J4" t="s">
         <v>42</v>
@@ -14733,7 +14545,7 @@
         <v>54</v>
       </c>
       <c r="O4" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -14748,7 +14560,7 @@
         <v>48</v>
       </c>
       <c r="U4" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="V4">
         <v>123456789012</v>
@@ -14757,7 +14569,7 @@
         <v>42</v>
       </c>
       <c r="Z4" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="AA4" t="s">
         <v>44</v>
@@ -14778,10 +14590,10 @@
         <v>53</v>
       </c>
       <c r="AJ4" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="AO4" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -14795,19 +14607,19 @@
         <v>123456789012</v>
       </c>
       <c r="D5" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E5" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F5" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G5" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I5" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
@@ -14825,7 +14637,7 @@
         <v>54</v>
       </c>
       <c r="O5" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -14840,7 +14652,7 @@
         <v>48</v>
       </c>
       <c r="U5" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="V5">
         <v>123456789012</v>
@@ -14849,7 +14661,7 @@
         <v>42</v>
       </c>
       <c r="Z5" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="AA5" t="s">
         <v>44</v>
@@ -14870,10 +14682,10 @@
         <v>53</v>
       </c>
       <c r="AJ5" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="AO5" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -14887,19 +14699,19 @@
         <v>123456789012</v>
       </c>
       <c r="D6" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E6" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F6" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G6" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I6" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="J6" t="s">
         <v>42</v>
@@ -14917,7 +14729,7 @@
         <v>54</v>
       </c>
       <c r="O6" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
@@ -14932,7 +14744,7 @@
         <v>48</v>
       </c>
       <c r="U6" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="V6">
         <v>123456789012</v>
@@ -14941,7 +14753,7 @@
         <v>42</v>
       </c>
       <c r="Z6" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="AA6" t="s">
         <v>44</v>
@@ -14962,10 +14774,10 @@
         <v>53</v>
       </c>
       <c r="AJ6" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="AO6" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -14979,19 +14791,19 @@
         <v>123456789012</v>
       </c>
       <c r="D7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E7" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F7" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G7" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I7" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="J7" t="s">
         <v>42</v>
@@ -15009,7 +14821,7 @@
         <v>54</v>
       </c>
       <c r="O7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
@@ -15024,7 +14836,7 @@
         <v>48</v>
       </c>
       <c r="U7" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="V7">
         <v>123456789012</v>
@@ -15033,7 +14845,7 @@
         <v>42</v>
       </c>
       <c r="Z7" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="AA7" t="s">
         <v>44</v>
@@ -15054,10 +14866,10 @@
         <v>53</v>
       </c>
       <c r="AJ7" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="AO7" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -15071,19 +14883,19 @@
         <v>123456789012</v>
       </c>
       <c r="D8" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E8" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F8" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G8" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I8" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="J8" t="s">
         <v>42</v>
@@ -15101,7 +14913,7 @@
         <v>54</v>
       </c>
       <c r="O8" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="P8" t="b">
         <v>0</v>
@@ -15116,7 +14928,7 @@
         <v>48</v>
       </c>
       <c r="U8" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="V8">
         <v>123456789012</v>
@@ -15125,7 +14937,7 @@
         <v>42</v>
       </c>
       <c r="Z8" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="AA8" t="s">
         <v>44</v>
@@ -15146,10 +14958,10 @@
         <v>53</v>
       </c>
       <c r="AJ8" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="AO8" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -15163,19 +14975,19 @@
         <v>123456789012</v>
       </c>
       <c r="D9" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E9" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F9" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G9" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I9" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="J9" t="s">
         <v>42</v>
@@ -15193,7 +15005,7 @@
         <v>54</v>
       </c>
       <c r="O9" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
@@ -15208,7 +15020,7 @@
         <v>48</v>
       </c>
       <c r="U9" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="V9">
         <v>123456789012</v>
@@ -15217,7 +15029,7 @@
         <v>42</v>
       </c>
       <c r="Z9" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="AA9" t="s">
         <v>44</v>
@@ -15238,10 +15050,10 @@
         <v>53</v>
       </c>
       <c r="AJ9" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="AO9" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -15255,19 +15067,19 @@
         <v>123456789012</v>
       </c>
       <c r="D10" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E10" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F10" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G10" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I10" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="J10" t="s">
         <v>42</v>
@@ -15285,7 +15097,7 @@
         <v>54</v>
       </c>
       <c r="O10" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
@@ -15300,7 +15112,7 @@
         <v>48</v>
       </c>
       <c r="U10" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="V10">
         <v>123456789012</v>
@@ -15309,7 +15121,7 @@
         <v>42</v>
       </c>
       <c r="Z10" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="AA10" t="s">
         <v>44</v>
@@ -15330,10 +15142,10 @@
         <v>53</v>
       </c>
       <c r="AJ10" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="AO10" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -15347,19 +15159,19 @@
         <v>123456789012</v>
       </c>
       <c r="D11" t="s">
+        <v>344</v>
+      </c>
+      <c r="E11" t="s">
+        <v>522</v>
+      </c>
+      <c r="F11" t="s">
+        <v>524</v>
+      </c>
+      <c r="G11" t="s">
+        <v>525</v>
+      </c>
+      <c r="I11" t="s">
         <v>356</v>
-      </c>
-      <c r="E11" t="s">
-        <v>534</v>
-      </c>
-      <c r="F11" t="s">
-        <v>536</v>
-      </c>
-      <c r="G11" t="s">
-        <v>537</v>
-      </c>
-      <c r="I11" t="s">
-        <v>368</v>
       </c>
       <c r="J11" t="s">
         <v>42</v>
@@ -15377,7 +15189,7 @@
         <v>54</v>
       </c>
       <c r="O11" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="P11" t="b">
         <v>0</v>
@@ -15392,7 +15204,7 @@
         <v>48</v>
       </c>
       <c r="U11" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="V11">
         <v>123456789012</v>
@@ -15401,7 +15213,7 @@
         <v>42</v>
       </c>
       <c r="Z11" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="AA11" t="s">
         <v>44</v>
@@ -15422,10 +15234,10 @@
         <v>53</v>
       </c>
       <c r="AJ11" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="AO11" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -15439,19 +15251,19 @@
         <v>123456789012</v>
       </c>
       <c r="D12" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E12" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F12" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G12" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I12" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="J12" t="s">
         <v>42</v>
@@ -15469,7 +15281,7 @@
         <v>54</v>
       </c>
       <c r="O12" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
@@ -15484,7 +15296,7 @@
         <v>48</v>
       </c>
       <c r="U12" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="V12">
         <v>123456789012</v>
@@ -15493,7 +15305,7 @@
         <v>42</v>
       </c>
       <c r="Z12" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="AA12" t="s">
         <v>44</v>
@@ -15514,10 +15326,10 @@
         <v>53</v>
       </c>
       <c r="AJ12" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="AO12" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -15531,19 +15343,19 @@
         <v>123456789012</v>
       </c>
       <c r="D13" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E13" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F13" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G13" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I13" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="J13" t="s">
         <v>42</v>
@@ -15561,7 +15373,7 @@
         <v>54</v>
       </c>
       <c r="O13" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
@@ -15576,7 +15388,7 @@
         <v>48</v>
       </c>
       <c r="U13" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="V13">
         <v>123456789012</v>
@@ -15585,7 +15397,7 @@
         <v>42</v>
       </c>
       <c r="Z13" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="AA13" t="s">
         <v>44</v>
@@ -15606,10 +15418,10 @@
         <v>53</v>
       </c>
       <c r="AJ13" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="AO13" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -15623,19 +15435,19 @@
         <v>123456789012</v>
       </c>
       <c r="D14" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E14" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F14" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G14" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I14" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="J14" t="s">
         <v>42</v>
@@ -15653,7 +15465,7 @@
         <v>54</v>
       </c>
       <c r="O14" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="P14" t="b">
         <v>0</v>
@@ -15668,7 +15480,7 @@
         <v>48</v>
       </c>
       <c r="U14" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="V14">
         <v>123456789012</v>
@@ -15677,7 +15489,7 @@
         <v>42</v>
       </c>
       <c r="Z14" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="AA14" t="s">
         <v>44</v>
@@ -15698,10 +15510,10 @@
         <v>53</v>
       </c>
       <c r="AJ14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="AO14" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -15715,19 +15527,19 @@
         <v>123456789012</v>
       </c>
       <c r="D15" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E15" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F15" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G15" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I15" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="J15" t="s">
         <v>42</v>
@@ -15745,7 +15557,7 @@
         <v>54</v>
       </c>
       <c r="O15" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
@@ -15760,7 +15572,7 @@
         <v>48</v>
       </c>
       <c r="U15" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="V15">
         <v>123456789012</v>
@@ -15790,10 +15602,10 @@
         <v>53</v>
       </c>
       <c r="AJ15" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="AO15" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -15807,19 +15619,19 @@
         <v>123456789012</v>
       </c>
       <c r="D16" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E16" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F16" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G16" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I16" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="J16" t="s">
         <v>42</v>
@@ -15837,7 +15649,7 @@
         <v>54</v>
       </c>
       <c r="O16" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="P16" t="b">
         <v>0</v>
@@ -15852,7 +15664,7 @@
         <v>48</v>
       </c>
       <c r="U16" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="V16">
         <v>123456789012</v>
@@ -15882,10 +15694,10 @@
         <v>53</v>
       </c>
       <c r="AJ16" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="AO16" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -15899,19 +15711,19 @@
         <v>123456789012</v>
       </c>
       <c r="D17" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E17" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F17" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G17" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I17" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="J17" t="s">
         <v>42</v>
@@ -15929,7 +15741,7 @@
         <v>54</v>
       </c>
       <c r="O17" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="P17" t="b">
         <v>0</v>
@@ -15944,7 +15756,7 @@
         <v>48</v>
       </c>
       <c r="U17" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="V17">
         <v>123456789012</v>
@@ -15974,10 +15786,10 @@
         <v>53</v>
       </c>
       <c r="AJ17" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="AO17" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -15991,19 +15803,19 @@
         <v>123456789012</v>
       </c>
       <c r="D18" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E18" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F18" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G18" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I18" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="J18" t="s">
         <v>42</v>
@@ -16021,7 +15833,7 @@
         <v>54</v>
       </c>
       <c r="O18" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="P18" t="b">
         <v>0</v>
@@ -16036,7 +15848,7 @@
         <v>48</v>
       </c>
       <c r="U18" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="V18">
         <v>123456789012</v>
@@ -16066,10 +15878,10 @@
         <v>53</v>
       </c>
       <c r="AJ18" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="AO18" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -16083,19 +15895,19 @@
         <v>123456789012</v>
       </c>
       <c r="D19" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E19" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F19" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G19" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I19" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="J19" t="s">
         <v>42</v>
@@ -16128,7 +15940,7 @@
         <v>48</v>
       </c>
       <c r="U19" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="V19">
         <v>123456789012</v>
@@ -16158,7 +15970,7 @@
         <v>63</v>
       </c>
       <c r="AO19" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -16172,19 +15984,19 @@
         <v>123456789012</v>
       </c>
       <c r="D20" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E20" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F20" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G20" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I20" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="J20" t="s">
         <v>42</v>
@@ -16199,7 +16011,7 @@
         <v>54</v>
       </c>
       <c r="O20" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="P20" t="b">
         <v>0</v>
@@ -16214,13 +16026,13 @@
         <v>70</v>
       </c>
       <c r="U20" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="V20" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="X20" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="Y20" t="s">
         <v>42</v>
@@ -16244,13 +16056,13 @@
         <v>72</v>
       </c>
       <c r="AJ20" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AK20" t="s">
         <v>74</v>
       </c>
       <c r="AO20" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:41">
@@ -16264,19 +16076,19 @@
         <v>123456789012</v>
       </c>
       <c r="D21" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E21" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F21" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G21" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I21" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="J21" t="s">
         <v>42</v>
@@ -16291,7 +16103,7 @@
         <v>54</v>
       </c>
       <c r="O21" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="P21" t="b">
         <v>0</v>
@@ -16306,13 +16118,13 @@
         <v>70</v>
       </c>
       <c r="U21" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="V21" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="X21" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="Y21" t="s">
         <v>42</v>
@@ -16336,13 +16148,13 @@
         <v>72</v>
       </c>
       <c r="AJ21" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AK21" t="s">
         <v>74</v>
       </c>
       <c r="AO21" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:41">
@@ -16356,19 +16168,19 @@
         <v>123456789012</v>
       </c>
       <c r="D22" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E22" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F22" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G22" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I22" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J22" t="s">
         <v>42</v>
@@ -16383,7 +16195,7 @@
         <v>54</v>
       </c>
       <c r="O22" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="P22" t="b">
         <v>0</v>
@@ -16398,13 +16210,13 @@
         <v>70</v>
       </c>
       <c r="U22" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="V22" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="X22" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="Y22" t="s">
         <v>42</v>
@@ -16428,13 +16240,13 @@
         <v>72</v>
       </c>
       <c r="AJ22" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AK22" t="s">
         <v>74</v>
       </c>
       <c r="AO22" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:41">
@@ -16448,19 +16260,19 @@
         <v>123456789012</v>
       </c>
       <c r="D23" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E23" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F23" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G23" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I23" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="J23" t="s">
         <v>42</v>
@@ -16475,7 +16287,7 @@
         <v>54</v>
       </c>
       <c r="O23" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="P23" t="b">
         <v>0</v>
@@ -16490,13 +16302,13 @@
         <v>70</v>
       </c>
       <c r="U23" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="V23" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="X23" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="Y23" t="s">
         <v>42</v>
@@ -16520,13 +16332,13 @@
         <v>72</v>
       </c>
       <c r="AJ23" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AK23" t="s">
         <v>74</v>
       </c>
       <c r="AO23" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:41">
@@ -16540,19 +16352,19 @@
         <v>123456789012</v>
       </c>
       <c r="D24" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E24" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F24" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G24" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I24" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="J24" t="s">
         <v>42</v>
@@ -16567,7 +16379,7 @@
         <v>54</v>
       </c>
       <c r="O24" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="P24" t="b">
         <v>0</v>
@@ -16582,13 +16394,13 @@
         <v>70</v>
       </c>
       <c r="U24" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="V24" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="X24" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="Y24" t="s">
         <v>42</v>
@@ -16612,13 +16424,13 @@
         <v>72</v>
       </c>
       <c r="AJ24" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AK24" t="s">
         <v>74</v>
       </c>
       <c r="AO24" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:41">
@@ -16632,19 +16444,19 @@
         <v>123456789012</v>
       </c>
       <c r="D25" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E25" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F25" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G25" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I25" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="J25" t="s">
         <v>42</v>
@@ -16659,7 +16471,7 @@
         <v>54</v>
       </c>
       <c r="O25" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="P25" t="b">
         <v>0</v>
@@ -16674,13 +16486,13 @@
         <v>70</v>
       </c>
       <c r="U25" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="V25" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="X25" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="Y25" t="s">
         <v>42</v>
@@ -16704,13 +16516,13 @@
         <v>72</v>
       </c>
       <c r="AJ25" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AK25" t="s">
         <v>74</v>
       </c>
       <c r="AO25" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:41">
@@ -16724,19 +16536,19 @@
         <v>123456789012</v>
       </c>
       <c r="D26" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E26" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F26" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G26" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I26" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="J26" t="s">
         <v>42</v>
@@ -16751,7 +16563,7 @@
         <v>54</v>
       </c>
       <c r="O26" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="P26" t="b">
         <v>0</v>
@@ -16766,13 +16578,13 @@
         <v>70</v>
       </c>
       <c r="U26" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="V26" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="X26" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="Y26" t="s">
         <v>42</v>
@@ -16796,13 +16608,13 @@
         <v>72</v>
       </c>
       <c r="AJ26" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AK26" t="s">
         <v>74</v>
       </c>
       <c r="AO26" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:41">
@@ -16816,19 +16628,19 @@
         <v>123456789012</v>
       </c>
       <c r="D27" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E27" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F27" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G27" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I27" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="J27" t="s">
         <v>42</v>
@@ -16843,7 +16655,7 @@
         <v>54</v>
       </c>
       <c r="O27" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
@@ -16858,13 +16670,13 @@
         <v>70</v>
       </c>
       <c r="U27" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="V27" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="X27" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="Y27" t="s">
         <v>42</v>
@@ -16888,13 +16700,13 @@
         <v>72</v>
       </c>
       <c r="AJ27" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AK27" t="s">
         <v>74</v>
       </c>
       <c r="AO27" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:41">
@@ -16908,19 +16720,19 @@
         <v>123456789012</v>
       </c>
       <c r="D28" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E28" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F28" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G28" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I28" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="J28" t="s">
         <v>42</v>
@@ -16935,7 +16747,7 @@
         <v>54</v>
       </c>
       <c r="O28" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="P28" t="b">
         <v>0</v>
@@ -16950,13 +16762,13 @@
         <v>70</v>
       </c>
       <c r="U28" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="V28" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="X28" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="Y28" t="s">
         <v>42</v>
@@ -16980,13 +16792,13 @@
         <v>72</v>
       </c>
       <c r="AJ28" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AK28" t="s">
         <v>74</v>
       </c>
       <c r="AO28" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:41">
@@ -17000,19 +16812,19 @@
         <v>123456789012</v>
       </c>
       <c r="D29" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E29" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F29" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G29" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I29" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="J29" t="s">
         <v>42</v>
@@ -17027,7 +16839,7 @@
         <v>54</v>
       </c>
       <c r="O29" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
@@ -17042,13 +16854,13 @@
         <v>70</v>
       </c>
       <c r="U29" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="V29" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="X29" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="Y29" t="s">
         <v>42</v>
@@ -17072,13 +16884,13 @@
         <v>72</v>
       </c>
       <c r="AJ29" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AK29" t="s">
         <v>74</v>
       </c>
       <c r="AO29" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:41">
@@ -17092,19 +16904,19 @@
         <v>123456789012</v>
       </c>
       <c r="D30" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E30" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F30" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G30" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I30" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="J30" t="s">
         <v>42</v>
@@ -17119,7 +16931,7 @@
         <v>54</v>
       </c>
       <c r="O30" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
@@ -17134,13 +16946,13 @@
         <v>70</v>
       </c>
       <c r="U30" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="V30" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="X30" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="Y30" t="s">
         <v>42</v>
@@ -17164,13 +16976,13 @@
         <v>72</v>
       </c>
       <c r="AJ30" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AK30" t="s">
         <v>74</v>
       </c>
       <c r="AO30" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:41">
@@ -17184,19 +16996,19 @@
         <v>123456789012</v>
       </c>
       <c r="D31" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E31" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F31" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G31" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I31" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="J31" t="s">
         <v>42</v>
@@ -17211,7 +17023,7 @@
         <v>54</v>
       </c>
       <c r="O31" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="P31" t="b">
         <v>0</v>
@@ -17226,13 +17038,13 @@
         <v>70</v>
       </c>
       <c r="U31" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="V31" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="X31" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="Y31" t="s">
         <v>42</v>
@@ -17265,13 +17077,13 @@
         <v>84</v>
       </c>
       <c r="AJ31" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="AK31" t="s">
         <v>78</v>
       </c>
       <c r="AO31" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:41">
@@ -17285,19 +17097,19 @@
         <v>123456789012</v>
       </c>
       <c r="D32" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E32" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F32" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G32" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I32" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="J32" t="s">
         <v>42</v>
@@ -17312,7 +17124,7 @@
         <v>54</v>
       </c>
       <c r="O32" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
@@ -17327,13 +17139,13 @@
         <v>70</v>
       </c>
       <c r="U32" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="V32" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="X32" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="Y32" t="s">
         <v>42</v>
@@ -17366,13 +17178,13 @@
         <v>84</v>
       </c>
       <c r="AJ32" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="AK32" t="s">
         <v>78</v>
       </c>
       <c r="AO32" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:41">
@@ -17386,19 +17198,19 @@
         <v>123456789012</v>
       </c>
       <c r="D33" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E33" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F33" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G33" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I33" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="J33" t="s">
         <v>42</v>
@@ -17413,7 +17225,7 @@
         <v>54</v>
       </c>
       <c r="O33" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
@@ -17428,13 +17240,13 @@
         <v>70</v>
       </c>
       <c r="U33" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="V33" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="X33" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="Y33" t="s">
         <v>42</v>
@@ -17467,13 +17279,13 @@
         <v>84</v>
       </c>
       <c r="AJ33" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="AK33" t="s">
         <v>78</v>
       </c>
       <c r="AO33" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:41">
@@ -17487,19 +17299,19 @@
         <v>123456789012</v>
       </c>
       <c r="D34" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E34" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F34" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G34" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I34" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="J34" t="s">
         <v>42</v>
@@ -17514,7 +17326,7 @@
         <v>54</v>
       </c>
       <c r="O34" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
@@ -17529,13 +17341,13 @@
         <v>70</v>
       </c>
       <c r="U34" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="V34" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="X34" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="Y34" t="s">
         <v>42</v>
@@ -17568,13 +17380,13 @@
         <v>84</v>
       </c>
       <c r="AJ34" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="AK34" t="s">
         <v>78</v>
       </c>
       <c r="AO34" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:41">
@@ -17588,19 +17400,19 @@
         <v>123456789012</v>
       </c>
       <c r="D35" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E35" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F35" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G35" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I35" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="J35" t="s">
         <v>42</v>
@@ -17615,7 +17427,7 @@
         <v>54</v>
       </c>
       <c r="O35" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
@@ -17630,10 +17442,10 @@
         <v>88</v>
       </c>
       <c r="U35" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="V35" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="Y35" t="s">
         <v>42</v>
@@ -17660,7 +17472,7 @@
         <v>93</v>
       </c>
       <c r="AJ35" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="AK35" t="s">
         <v>78</v>
@@ -17669,7 +17481,7 @@
         <v>94</v>
       </c>
       <c r="AO35" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:41">
@@ -17683,19 +17495,19 @@
         <v>123456789012</v>
       </c>
       <c r="D36" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E36" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F36" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G36" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I36" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="J36" t="s">
         <v>42</v>
@@ -17710,7 +17522,7 @@
         <v>54</v>
       </c>
       <c r="O36" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
@@ -17725,10 +17537,10 @@
         <v>88</v>
       </c>
       <c r="U36" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="V36" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="Y36" t="s">
         <v>42</v>
@@ -17755,7 +17567,7 @@
         <v>93</v>
       </c>
       <c r="AJ36" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="AK36" t="s">
         <v>78</v>
@@ -17764,7 +17576,7 @@
         <v>94</v>
       </c>
       <c r="AO36" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:41">
@@ -17778,19 +17590,19 @@
         <v>123456789012</v>
       </c>
       <c r="D37" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E37" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F37" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G37" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I37" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="J37" t="s">
         <v>42</v>
@@ -17805,7 +17617,7 @@
         <v>54</v>
       </c>
       <c r="O37" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
@@ -17820,10 +17632,10 @@
         <v>88</v>
       </c>
       <c r="U37" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="V37" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="Y37" t="s">
         <v>42</v>
@@ -17850,7 +17662,7 @@
         <v>93</v>
       </c>
       <c r="AJ37" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="AK37" t="s">
         <v>78</v>
@@ -17859,7 +17671,7 @@
         <v>94</v>
       </c>
       <c r="AO37" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:41">
@@ -17873,19 +17685,19 @@
         <v>123456789012</v>
       </c>
       <c r="D38" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E38" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F38" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G38" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I38" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="J38" t="s">
         <v>42</v>
@@ -17900,7 +17712,7 @@
         <v>54</v>
       </c>
       <c r="O38" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="P38" t="b">
         <v>0</v>
@@ -17915,13 +17727,13 @@
         <v>88</v>
       </c>
       <c r="U38" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="V38" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="X38" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="Y38" t="s">
         <v>42</v>
@@ -17954,7 +17766,7 @@
         <v>94</v>
       </c>
       <c r="AO38" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:41">
@@ -17968,19 +17780,19 @@
         <v>123456789012</v>
       </c>
       <c r="D39" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E39" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F39" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G39" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I39" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="J39" t="s">
         <v>42</v>
@@ -17995,7 +17807,7 @@
         <v>54</v>
       </c>
       <c r="O39" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
@@ -18010,10 +17822,10 @@
         <v>88</v>
       </c>
       <c r="U39" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="V39" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="Y39" t="s">
         <v>42</v>
@@ -18046,7 +17858,7 @@
         <v>94</v>
       </c>
       <c r="AO39" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:41">
@@ -18060,19 +17872,19 @@
         <v>123456789012</v>
       </c>
       <c r="D40" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E40" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F40" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G40" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I40" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="J40" t="s">
         <v>42</v>
@@ -18087,7 +17899,7 @@
         <v>54</v>
       </c>
       <c r="O40" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
@@ -18102,10 +17914,10 @@
         <v>88</v>
       </c>
       <c r="U40" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="V40" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="Y40" t="s">
         <v>42</v>
@@ -18138,7 +17950,7 @@
         <v>94</v>
       </c>
       <c r="AO40" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:41">
@@ -18152,19 +17964,19 @@
         <v>123456789012</v>
       </c>
       <c r="D41" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E41" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F41" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G41" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I41" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="J41" t="s">
         <v>42</v>
@@ -18179,7 +17991,7 @@
         <v>54</v>
       </c>
       <c r="O41" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
@@ -18194,10 +18006,10 @@
         <v>88</v>
       </c>
       <c r="U41" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="V41" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="Y41" t="s">
         <v>42</v>
@@ -18230,7 +18042,7 @@
         <v>94</v>
       </c>
       <c r="AO41" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:41">
@@ -18244,19 +18056,19 @@
         <v>123456789012</v>
       </c>
       <c r="D42" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E42" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F42" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G42" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I42" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="J42" t="s">
         <v>42</v>
@@ -18271,7 +18083,7 @@
         <v>54</v>
       </c>
       <c r="O42" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
@@ -18286,10 +18098,10 @@
         <v>88</v>
       </c>
       <c r="U42" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="V42" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Y42" t="s">
         <v>42</v>
@@ -18322,7 +18134,7 @@
         <v>94</v>
       </c>
       <c r="AO42" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:41">
@@ -18336,19 +18148,19 @@
         <v>123456789012</v>
       </c>
       <c r="D43" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E43" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F43" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G43" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I43" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="J43" t="s">
         <v>42</v>
@@ -18363,7 +18175,7 @@
         <v>54</v>
       </c>
       <c r="O43" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
@@ -18378,10 +18190,10 @@
         <v>88</v>
       </c>
       <c r="U43" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="V43" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="Y43" t="s">
         <v>42</v>
@@ -18414,7 +18226,7 @@
         <v>94</v>
       </c>
       <c r="AO43" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:41">
@@ -18428,19 +18240,19 @@
         <v>123456789012</v>
       </c>
       <c r="D44" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E44" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F44" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G44" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I44" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="J44" t="s">
         <v>42</v>
@@ -18455,7 +18267,7 @@
         <v>54</v>
       </c>
       <c r="O44" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="P44" t="b">
         <v>0</v>
@@ -18470,10 +18282,10 @@
         <v>88</v>
       </c>
       <c r="U44" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="V44" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="Y44" t="s">
         <v>42</v>
@@ -18506,7 +18318,7 @@
         <v>94</v>
       </c>
       <c r="AO44" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:41">
@@ -18520,19 +18332,19 @@
         <v>123456789012</v>
       </c>
       <c r="D45" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E45" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F45" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G45" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I45" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="J45" t="s">
         <v>42</v>
@@ -18547,7 +18359,7 @@
         <v>54</v>
       </c>
       <c r="O45" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="P45" t="b">
         <v>0</v>
@@ -18562,10 +18374,10 @@
         <v>88</v>
       </c>
       <c r="U45" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="V45" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="Y45" t="s">
         <v>42</v>
@@ -18598,7 +18410,7 @@
         <v>94</v>
       </c>
       <c r="AO45" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:41">
@@ -18612,19 +18424,19 @@
         <v>123456789012</v>
       </c>
       <c r="D46" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E46" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F46" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G46" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I46" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="J46" t="s">
         <v>42</v>
@@ -18639,7 +18451,7 @@
         <v>54</v>
       </c>
       <c r="O46" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="P46" t="b">
         <v>0</v>
@@ -18654,10 +18466,10 @@
         <v>88</v>
       </c>
       <c r="U46" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="V46" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="Y46" t="s">
         <v>42</v>
@@ -18690,7 +18502,7 @@
         <v>94</v>
       </c>
       <c r="AO46" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:41">
@@ -18704,19 +18516,19 @@
         <v>123456789012</v>
       </c>
       <c r="D47" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E47" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F47" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G47" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I47" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="J47" t="s">
         <v>42</v>
@@ -18731,7 +18543,7 @@
         <v>54</v>
       </c>
       <c r="O47" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="P47" t="b">
         <v>0</v>
@@ -18746,10 +18558,10 @@
         <v>88</v>
       </c>
       <c r="U47" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="V47" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="Y47" t="s">
         <v>42</v>
@@ -18782,7 +18594,7 @@
         <v>94</v>
       </c>
       <c r="AO47" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:41">
@@ -18796,19 +18608,19 @@
         <v>123456789012</v>
       </c>
       <c r="D48" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E48" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F48" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G48" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I48" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="J48" t="s">
         <v>42</v>
@@ -18823,7 +18635,7 @@
         <v>54</v>
       </c>
       <c r="O48" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="P48" t="b">
         <v>0</v>
@@ -18838,10 +18650,10 @@
         <v>88</v>
       </c>
       <c r="U48" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="V48" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="Y48" t="s">
         <v>42</v>
@@ -18874,7 +18686,7 @@
         <v>94</v>
       </c>
       <c r="AO48" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:41">
@@ -18888,19 +18700,19 @@
         <v>123456789012</v>
       </c>
       <c r="D49" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E49" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F49" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G49" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I49" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J49" t="s">
         <v>42</v>
@@ -18915,7 +18727,7 @@
         <v>54</v>
       </c>
       <c r="O49" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="P49" t="b">
         <v>0</v>
@@ -18930,10 +18742,10 @@
         <v>88</v>
       </c>
       <c r="U49" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="V49" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="Y49" t="s">
         <v>42</v>
@@ -18966,7 +18778,7 @@
         <v>94</v>
       </c>
       <c r="AO49" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:41">
@@ -18980,19 +18792,19 @@
         <v>123456789012</v>
       </c>
       <c r="D50" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E50" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F50" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G50" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I50" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="J50" t="s">
         <v>42</v>
@@ -19007,7 +18819,7 @@
         <v>54</v>
       </c>
       <c r="O50" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="P50" t="b">
         <v>0</v>
@@ -19022,10 +18834,10 @@
         <v>88</v>
       </c>
       <c r="U50" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="V50" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="Y50" t="s">
         <v>42</v>
@@ -19058,7 +18870,7 @@
         <v>94</v>
       </c>
       <c r="AO50" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:41">
@@ -19072,19 +18884,19 @@
         <v>123456789012</v>
       </c>
       <c r="D51" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E51" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F51" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G51" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I51" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="J51" t="s">
         <v>42</v>
@@ -19099,7 +18911,7 @@
         <v>54</v>
       </c>
       <c r="O51" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="P51" t="b">
         <v>0</v>
@@ -19114,10 +18926,10 @@
         <v>88</v>
       </c>
       <c r="U51" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="V51" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="Y51" t="s">
         <v>42</v>
@@ -19150,7 +18962,7 @@
         <v>94</v>
       </c>
       <c r="AO51" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:41">
@@ -19164,19 +18976,19 @@
         <v>123456789012</v>
       </c>
       <c r="D52" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E52" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F52" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G52" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I52" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="J52" t="s">
         <v>42</v>
@@ -19191,7 +19003,7 @@
         <v>54</v>
       </c>
       <c r="O52" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="P52" t="b">
         <v>0</v>
@@ -19206,10 +19018,10 @@
         <v>88</v>
       </c>
       <c r="U52" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="V52" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="Y52" t="s">
         <v>42</v>
@@ -19242,7 +19054,7 @@
         <v>94</v>
       </c>
       <c r="AO52" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:41">
@@ -19256,19 +19068,19 @@
         <v>123456789012</v>
       </c>
       <c r="D53" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E53" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F53" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G53" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I53" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="J53" t="s">
         <v>42</v>
@@ -19283,7 +19095,7 @@
         <v>54</v>
       </c>
       <c r="O53" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="P53" t="b">
         <v>0</v>
@@ -19298,10 +19110,10 @@
         <v>88</v>
       </c>
       <c r="U53" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="V53" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="Y53" t="s">
         <v>42</v>
@@ -19334,7 +19146,7 @@
         <v>94</v>
       </c>
       <c r="AO53" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:41">
@@ -19348,19 +19160,19 @@
         <v>123456789012</v>
       </c>
       <c r="D54" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E54" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F54" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G54" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I54" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="J54" t="s">
         <v>42</v>
@@ -19375,7 +19187,7 @@
         <v>54</v>
       </c>
       <c r="O54" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="P54" t="b">
         <v>0</v>
@@ -19390,10 +19202,10 @@
         <v>88</v>
       </c>
       <c r="U54" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="V54" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="Y54" t="s">
         <v>42</v>
@@ -19426,7 +19238,7 @@
         <v>94</v>
       </c>
       <c r="AO54" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:41">
@@ -19440,19 +19252,19 @@
         <v>123456789012</v>
       </c>
       <c r="D55" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E55" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F55" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G55" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I55" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="J55" t="s">
         <v>42</v>
@@ -19467,7 +19279,7 @@
         <v>54</v>
       </c>
       <c r="O55" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="P55" t="b">
         <v>0</v>
@@ -19482,10 +19294,10 @@
         <v>88</v>
       </c>
       <c r="U55" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="V55" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="Y55" t="s">
         <v>42</v>
@@ -19518,7 +19330,7 @@
         <v>94</v>
       </c>
       <c r="AO55" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:41">
@@ -19532,19 +19344,19 @@
         <v>123456789012</v>
       </c>
       <c r="D56" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E56" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F56" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G56" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I56" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="J56" t="s">
         <v>42</v>
@@ -19559,7 +19371,7 @@
         <v>54</v>
       </c>
       <c r="O56" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="P56" t="b">
         <v>0</v>
@@ -19574,10 +19386,10 @@
         <v>88</v>
       </c>
       <c r="U56" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="V56" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="Y56" t="s">
         <v>42</v>
@@ -19610,7 +19422,7 @@
         <v>94</v>
       </c>
       <c r="AO56" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:41">
@@ -19624,19 +19436,19 @@
         <v>123456789012</v>
       </c>
       <c r="D57" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E57" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F57" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G57" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I57" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="J57" t="s">
         <v>42</v>
@@ -19651,7 +19463,7 @@
         <v>54</v>
       </c>
       <c r="O57" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="P57" t="b">
         <v>0</v>
@@ -19666,10 +19478,10 @@
         <v>88</v>
       </c>
       <c r="U57" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="V57" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="Y57" t="s">
         <v>42</v>
@@ -19702,7 +19514,7 @@
         <v>94</v>
       </c>
       <c r="AO57" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:41">
@@ -19716,19 +19528,19 @@
         <v>123456789012</v>
       </c>
       <c r="D58" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E58" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F58" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G58" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I58" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="J58" t="s">
         <v>42</v>
@@ -19743,7 +19555,7 @@
         <v>54</v>
       </c>
       <c r="O58" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="P58" t="b">
         <v>0</v>
@@ -19758,10 +19570,10 @@
         <v>88</v>
       </c>
       <c r="U58" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="V58" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="Y58" t="s">
         <v>42</v>
@@ -19794,7 +19606,7 @@
         <v>94</v>
       </c>
       <c r="AO58" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:41">
@@ -19808,19 +19620,19 @@
         <v>123456789012</v>
       </c>
       <c r="D59" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E59" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F59" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G59" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I59" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="J59" t="s">
         <v>42</v>
@@ -19835,7 +19647,7 @@
         <v>54</v>
       </c>
       <c r="O59" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="P59" t="b">
         <v>0</v>
@@ -19850,10 +19662,10 @@
         <v>88</v>
       </c>
       <c r="U59" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="V59" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="Y59" t="s">
         <v>42</v>
@@ -19886,7 +19698,7 @@
         <v>94</v>
       </c>
       <c r="AO59" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:41">
@@ -19900,19 +19712,19 @@
         <v>123456789012</v>
       </c>
       <c r="D60" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E60" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F60" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G60" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I60" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="J60" t="s">
         <v>42</v>
@@ -19927,7 +19739,7 @@
         <v>54</v>
       </c>
       <c r="O60" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="P60" t="b">
         <v>0</v>
@@ -19942,13 +19754,13 @@
         <v>88</v>
       </c>
       <c r="U60" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="V60" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="X60" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="Y60" t="s">
         <v>42</v>
@@ -19981,7 +19793,7 @@
         <v>94</v>
       </c>
       <c r="AO60" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:41">
@@ -19995,19 +19807,19 @@
         <v>123456789012</v>
       </c>
       <c r="D61" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E61" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F61" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G61" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I61" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="J61" t="s">
         <v>42</v>
@@ -20022,7 +19834,7 @@
         <v>54</v>
       </c>
       <c r="O61" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
@@ -20037,10 +19849,10 @@
         <v>88</v>
       </c>
       <c r="U61" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="V61" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="Y61" t="s">
         <v>42</v>
@@ -20073,7 +19885,7 @@
         <v>94</v>
       </c>
       <c r="AO61" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" spans="1:41">
@@ -20087,19 +19899,19 @@
         <v>123456789012</v>
       </c>
       <c r="D62" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E62" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F62" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G62" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I62" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="J62" t="s">
         <v>42</v>
@@ -20114,7 +19926,7 @@
         <v>54</v>
       </c>
       <c r="O62" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
@@ -20129,10 +19941,10 @@
         <v>88</v>
       </c>
       <c r="U62" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="V62" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="Y62" t="s">
         <v>42</v>
@@ -20165,7 +19977,7 @@
         <v>94</v>
       </c>
       <c r="AO62" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:41">
@@ -20179,19 +19991,19 @@
         <v>123456789012</v>
       </c>
       <c r="D63" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E63" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F63" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G63" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I63" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="J63" t="s">
         <v>42</v>
@@ -20206,7 +20018,7 @@
         <v>54</v>
       </c>
       <c r="O63" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="P63" t="b">
         <v>0</v>
@@ -20221,10 +20033,10 @@
         <v>88</v>
       </c>
       <c r="U63" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="V63" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="Y63" t="s">
         <v>42</v>
@@ -20257,7 +20069,7 @@
         <v>94</v>
       </c>
       <c r="AO63" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:41">
@@ -20271,19 +20083,19 @@
         <v>123456789012</v>
       </c>
       <c r="D64" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E64" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F64" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G64" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I64" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="J64" t="s">
         <v>42</v>
@@ -20298,7 +20110,7 @@
         <v>54</v>
       </c>
       <c r="O64" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="P64" t="b">
         <v>0</v>
@@ -20313,10 +20125,10 @@
         <v>88</v>
       </c>
       <c r="U64" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="V64" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="Y64" t="s">
         <v>42</v>
@@ -20349,7 +20161,7 @@
         <v>94</v>
       </c>
       <c r="AO64" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:41">
@@ -20363,19 +20175,19 @@
         <v>123456789012</v>
       </c>
       <c r="D65" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E65" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F65" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G65" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I65" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="J65" t="s">
         <v>42</v>
@@ -20390,7 +20202,7 @@
         <v>54</v>
       </c>
       <c r="O65" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="P65" t="b">
         <v>0</v>
@@ -20405,10 +20217,10 @@
         <v>88</v>
       </c>
       <c r="U65" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="V65" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="Y65" t="s">
         <v>42</v>
@@ -20441,7 +20253,7 @@
         <v>94</v>
       </c>
       <c r="AO65" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="1:41">
@@ -20455,19 +20267,19 @@
         <v>123456789012</v>
       </c>
       <c r="D66" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E66" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F66" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G66" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I66" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="J66" t="s">
         <v>42</v>
@@ -20482,7 +20294,7 @@
         <v>54</v>
       </c>
       <c r="O66" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="P66" t="b">
         <v>0</v>
@@ -20497,13 +20309,13 @@
         <v>88</v>
       </c>
       <c r="U66" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="V66" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="X66" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="Y66" t="s">
         <v>42</v>
@@ -20536,7 +20348,7 @@
         <v>94</v>
       </c>
       <c r="AO66" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:41">
@@ -20550,19 +20362,19 @@
         <v>123456789012</v>
       </c>
       <c r="D67" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E67" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F67" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G67" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I67" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="J67" t="s">
         <v>42</v>
@@ -20577,7 +20389,7 @@
         <v>54</v>
       </c>
       <c r="O67" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
@@ -20592,10 +20404,10 @@
         <v>88</v>
       </c>
       <c r="U67" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="V67" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="Y67" t="s">
         <v>42</v>
@@ -20628,7 +20440,7 @@
         <v>94</v>
       </c>
       <c r="AO67" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:41">
@@ -20642,19 +20454,19 @@
         <v>123456789012</v>
       </c>
       <c r="D68" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E68" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F68" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G68" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I68" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="J68" t="s">
         <v>42</v>
@@ -20669,7 +20481,7 @@
         <v>54</v>
       </c>
       <c r="O68" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
@@ -20684,10 +20496,10 @@
         <v>88</v>
       </c>
       <c r="U68" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="V68" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="Y68" t="s">
         <v>42</v>
@@ -20720,7 +20532,7 @@
         <v>94</v>
       </c>
       <c r="AO68" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:41">
@@ -20734,19 +20546,19 @@
         <v>123456789012</v>
       </c>
       <c r="D69" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E69" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F69" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G69" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I69" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="J69" t="s">
         <v>42</v>
@@ -20761,7 +20573,7 @@
         <v>54</v>
       </c>
       <c r="O69" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="P69" t="b">
         <v>0</v>
@@ -20776,10 +20588,10 @@
         <v>88</v>
       </c>
       <c r="U69" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="V69" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="Y69" t="s">
         <v>42</v>
@@ -20812,7 +20624,7 @@
         <v>94</v>
       </c>
       <c r="AO69" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:41">
@@ -20826,19 +20638,19 @@
         <v>123456789012</v>
       </c>
       <c r="D70" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E70" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F70" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G70" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I70" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="J70" t="s">
         <v>42</v>
@@ -20853,7 +20665,7 @@
         <v>54</v>
       </c>
       <c r="O70" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="P70" t="b">
         <v>0</v>
@@ -20868,10 +20680,10 @@
         <v>88</v>
       </c>
       <c r="U70" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="V70" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="Y70" t="s">
         <v>42</v>
@@ -20904,7 +20716,7 @@
         <v>94</v>
       </c>
       <c r="AO70" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:41">
@@ -20918,19 +20730,19 @@
         <v>123456789012</v>
       </c>
       <c r="D71" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E71" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F71" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G71" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I71" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="J71" t="s">
         <v>42</v>
@@ -20948,7 +20760,7 @@
         <v>54</v>
       </c>
       <c r="O71" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
@@ -20963,10 +20775,10 @@
         <v>104</v>
       </c>
       <c r="U71" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="V71" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="Y71" t="s">
         <v>42</v>
@@ -20993,7 +20805,7 @@
         <v>74</v>
       </c>
       <c r="AO71" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:41">
@@ -21007,19 +20819,19 @@
         <v>123456789012</v>
       </c>
       <c r="D72" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E72" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F72" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G72" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I72" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="J72" t="s">
         <v>42</v>
@@ -21037,7 +20849,7 @@
         <v>54</v>
       </c>
       <c r="O72" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
@@ -21052,10 +20864,10 @@
         <v>104</v>
       </c>
       <c r="U72" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="V72" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="Y72" t="s">
         <v>42</v>
@@ -21067,7 +20879,7 @@
         <v>112</v>
       </c>
       <c r="AB72" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="AD72" t="s">
         <v>113</v>
@@ -21082,13 +20894,13 @@
         <v>116</v>
       </c>
       <c r="AJ72" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="AK72" t="s">
         <v>117</v>
       </c>
       <c r="AO72" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:41">
@@ -21102,19 +20914,19 @@
         <v>123456789012</v>
       </c>
       <c r="D73" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E73" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F73" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G73" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I73" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="J73" t="s">
         <v>42</v>
@@ -21132,7 +20944,7 @@
         <v>54</v>
       </c>
       <c r="O73" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="P73" t="b">
         <v>0</v>
@@ -21147,7 +20959,7 @@
         <v>121</v>
       </c>
       <c r="U73" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="V73">
         <v>123456789012</v>
@@ -21174,10 +20986,10 @@
         <v>125</v>
       </c>
       <c r="AJ73" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="AO73" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" spans="1:41">
@@ -21191,19 +21003,19 @@
         <v>123456789012</v>
       </c>
       <c r="D74" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E74" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F74" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G74" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I74" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="J74" t="s">
         <v>42</v>
@@ -21221,7 +21033,7 @@
         <v>54</v>
       </c>
       <c r="O74" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="P74" t="b">
         <v>0</v>
@@ -21236,7 +21048,7 @@
         <v>121</v>
       </c>
       <c r="U74" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="V74">
         <v>123456789012</v>
@@ -21263,13 +21075,13 @@
         <v>128</v>
       </c>
       <c r="AJ74" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="AK74" t="s">
         <v>74</v>
       </c>
       <c r="AO74" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:41">
@@ -21283,19 +21095,19 @@
         <v>123456789012</v>
       </c>
       <c r="D75" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E75" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F75" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G75" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I75" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="J75" t="s">
         <v>42</v>
@@ -21313,7 +21125,7 @@
         <v>54</v>
       </c>
       <c r="O75" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="P75" t="b">
         <v>0</v>
@@ -21328,10 +21140,10 @@
         <v>133</v>
       </c>
       <c r="U75" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="V75" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="Y75" t="s">
         <v>42</v>
@@ -21358,7 +21170,7 @@
         <v>137</v>
       </c>
       <c r="AO75" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76" spans="1:41">
@@ -21372,19 +21184,19 @@
         <v>123456789012</v>
       </c>
       <c r="D76" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E76" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F76" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G76" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I76" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="J76" t="s">
         <v>42</v>
@@ -21402,7 +21214,7 @@
         <v>54</v>
       </c>
       <c r="O76" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="P76" t="b">
         <v>0</v>
@@ -21420,10 +21232,10 @@
         <v>142</v>
       </c>
       <c r="U76" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="V76" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="Y76" t="s">
         <v>42</v>
@@ -21453,13 +21265,13 @@
         <v>147</v>
       </c>
       <c r="AJ76" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="AK76" t="s">
         <v>148</v>
       </c>
       <c r="AO76" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:41">
@@ -21473,19 +21285,19 @@
         <v>123456789012</v>
       </c>
       <c r="D77" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E77" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F77" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G77" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I77" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="J77" t="s">
         <v>42</v>
@@ -21503,7 +21315,7 @@
         <v>54</v>
       </c>
       <c r="O77" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="P77" t="b">
         <v>0</v>
@@ -21521,10 +21333,10 @@
         <v>142</v>
       </c>
       <c r="U77" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="V77" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="Y77" t="s">
         <v>42</v>
@@ -21554,13 +21366,13 @@
         <v>147</v>
       </c>
       <c r="AJ77" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="AK77" t="s">
         <v>148</v>
       </c>
       <c r="AO77" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:41">
@@ -21574,19 +21386,19 @@
         <v>123456789012</v>
       </c>
       <c r="D78" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E78" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F78" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G78" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I78" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="J78" t="s">
         <v>42</v>
@@ -21604,7 +21416,7 @@
         <v>54</v>
       </c>
       <c r="O78" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="P78" t="b">
         <v>0</v>
@@ -21622,10 +21434,10 @@
         <v>142</v>
       </c>
       <c r="U78" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="V78" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="Y78" t="s">
         <v>42</v>
@@ -21655,13 +21467,13 @@
         <v>147</v>
       </c>
       <c r="AJ78" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="AK78" t="s">
         <v>148</v>
       </c>
       <c r="AO78" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79" spans="1:41">
@@ -21675,19 +21487,19 @@
         <v>123456789012</v>
       </c>
       <c r="D79" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E79" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F79" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G79" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I79" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="J79" t="s">
         <v>42</v>
@@ -21705,7 +21517,7 @@
         <v>54</v>
       </c>
       <c r="O79" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="P79" t="b">
         <v>0</v>
@@ -21723,10 +21535,10 @@
         <v>142</v>
       </c>
       <c r="U79" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="V79" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="Y79" t="s">
         <v>42</v>
@@ -21756,13 +21568,13 @@
         <v>147</v>
       </c>
       <c r="AJ79" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="AK79" t="s">
         <v>148</v>
       </c>
       <c r="AO79" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80" spans="1:41">
@@ -21776,19 +21588,19 @@
         <v>123456789012</v>
       </c>
       <c r="D80" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E80" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F80" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G80" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I80" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="J80" t="s">
         <v>42</v>
@@ -21806,7 +21618,7 @@
         <v>54</v>
       </c>
       <c r="O80" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="P80" t="b">
         <v>0</v>
@@ -21824,13 +21636,13 @@
         <v>142</v>
       </c>
       <c r="U80" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="V80" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="X80" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="Y80" t="s">
         <v>42</v>
@@ -21860,13 +21672,13 @@
         <v>147</v>
       </c>
       <c r="AJ80" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="AK80" t="s">
         <v>148</v>
       </c>
       <c r="AO80" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" spans="1:41">
@@ -21880,19 +21692,19 @@
         <v>123456789012</v>
       </c>
       <c r="D81" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E81" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F81" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G81" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I81" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="J81" t="s">
         <v>42</v>
@@ -21910,7 +21722,7 @@
         <v>54</v>
       </c>
       <c r="O81" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="P81" t="b">
         <v>0</v>
@@ -21928,13 +21740,13 @@
         <v>142</v>
       </c>
       <c r="U81" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="V81" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="X81" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="Y81" t="s">
         <v>42</v>
@@ -21964,13 +21776,13 @@
         <v>147</v>
       </c>
       <c r="AJ81" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="AK81" t="s">
         <v>148</v>
       </c>
       <c r="AO81" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:41">
@@ -21984,19 +21796,19 @@
         <v>123456789012</v>
       </c>
       <c r="D82" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E82" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F82" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G82" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I82" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="J82" t="s">
         <v>42</v>
@@ -22014,7 +21826,7 @@
         <v>54</v>
       </c>
       <c r="O82" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="P82" t="b">
         <v>0</v>
@@ -22032,13 +21844,13 @@
         <v>142</v>
       </c>
       <c r="U82" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="V82" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="X82" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="Y82" t="s">
         <v>42</v>
@@ -22068,13 +21880,13 @@
         <v>147</v>
       </c>
       <c r="AJ82" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="AK82" t="s">
         <v>148</v>
       </c>
       <c r="AO82" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" spans="1:41">
@@ -22088,19 +21900,19 @@
         <v>123456789012</v>
       </c>
       <c r="D83" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E83" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F83" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G83" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I83" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="J83" t="s">
         <v>42</v>
@@ -22118,7 +21930,7 @@
         <v>54</v>
       </c>
       <c r="O83" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="P83" t="b">
         <v>0</v>
@@ -22136,13 +21948,13 @@
         <v>142</v>
       </c>
       <c r="U83" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="V83" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="X83" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="Y83" t="s">
         <v>42</v>
@@ -22172,13 +21984,13 @@
         <v>147</v>
       </c>
       <c r="AJ83" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="AK83" t="s">
         <v>148</v>
       </c>
       <c r="AO83" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84" spans="1:41">
@@ -22192,19 +22004,19 @@
         <v>123456789012</v>
       </c>
       <c r="D84" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E84" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F84" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G84" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I84" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="J84" t="s">
         <v>42</v>
@@ -22222,7 +22034,7 @@
         <v>54</v>
       </c>
       <c r="O84" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
@@ -22240,10 +22052,10 @@
         <v>142</v>
       </c>
       <c r="U84" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="V84" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="Y84" t="s">
         <v>42</v>
@@ -22273,13 +22085,13 @@
         <v>147</v>
       </c>
       <c r="AJ84" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="AK84" t="s">
         <v>148</v>
       </c>
       <c r="AO84" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85" spans="1:41">
@@ -22293,19 +22105,19 @@
         <v>123456789012</v>
       </c>
       <c r="D85" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E85" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F85" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G85" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I85" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="J85" t="s">
         <v>42</v>
@@ -22323,7 +22135,7 @@
         <v>54</v>
       </c>
       <c r="O85" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="P85" t="b">
         <v>0</v>
@@ -22341,10 +22153,10 @@
         <v>142</v>
       </c>
       <c r="U85" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="V85" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="Y85" t="s">
         <v>42</v>
@@ -22374,13 +22186,13 @@
         <v>147</v>
       </c>
       <c r="AJ85" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="AK85" t="s">
         <v>148</v>
       </c>
       <c r="AO85" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" spans="1:41">
@@ -22394,19 +22206,19 @@
         <v>123456789012</v>
       </c>
       <c r="D86" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E86" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F86" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G86" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I86" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="J86" t="s">
         <v>42</v>
@@ -22424,7 +22236,7 @@
         <v>54</v>
       </c>
       <c r="O86" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="P86" t="b">
         <v>0</v>
@@ -22442,10 +22254,10 @@
         <v>142</v>
       </c>
       <c r="U86" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="V86" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="Y86" t="s">
         <v>42</v>
@@ -22475,13 +22287,13 @@
         <v>147</v>
       </c>
       <c r="AJ86" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="AK86" t="s">
         <v>148</v>
       </c>
       <c r="AO86" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:41">
@@ -22495,19 +22307,19 @@
         <v>123456789012</v>
       </c>
       <c r="D87" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E87" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F87" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G87" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I87" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="J87" t="s">
         <v>42</v>
@@ -22525,7 +22337,7 @@
         <v>54</v>
       </c>
       <c r="O87" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="P87" t="b">
         <v>0</v>
@@ -22543,10 +22355,10 @@
         <v>142</v>
       </c>
       <c r="U87" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="V87" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="Y87" t="s">
         <v>42</v>
@@ -22576,13 +22388,13 @@
         <v>147</v>
       </c>
       <c r="AJ87" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="AK87" t="s">
         <v>148</v>
       </c>
       <c r="AO87" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88" spans="1:41">
@@ -22596,19 +22408,19 @@
         <v>123456789012</v>
       </c>
       <c r="D88" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E88" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F88" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G88" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I88" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="J88" t="s">
         <v>42</v>
@@ -22626,7 +22438,7 @@
         <v>54</v>
       </c>
       <c r="O88" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="P88" t="b">
         <v>1</v>
@@ -22644,10 +22456,10 @@
         <v>142</v>
       </c>
       <c r="U88" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="V88" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="Y88" t="s">
         <v>42</v>
@@ -22677,13 +22489,13 @@
         <v>147</v>
       </c>
       <c r="AJ88" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="AK88" t="s">
         <v>148</v>
       </c>
       <c r="AO88" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" spans="1:41">
@@ -22697,19 +22509,19 @@
         <v>123456789012</v>
       </c>
       <c r="D89" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E89" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F89" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G89" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I89" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="J89" t="s">
         <v>42</v>
@@ -22727,7 +22539,7 @@
         <v>54</v>
       </c>
       <c r="O89" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="P89" t="b">
         <v>0</v>
@@ -22745,10 +22557,10 @@
         <v>142</v>
       </c>
       <c r="U89" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="V89" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="Y89" t="s">
         <v>42</v>
@@ -22778,13 +22590,13 @@
         <v>147</v>
       </c>
       <c r="AJ89" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="AK89" t="s">
         <v>148</v>
       </c>
       <c r="AO89" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90" spans="1:41">
@@ -22798,19 +22610,19 @@
         <v>123456789012</v>
       </c>
       <c r="D90" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E90" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F90" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G90" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I90" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="J90" t="s">
         <v>42</v>
@@ -22828,7 +22640,7 @@
         <v>54</v>
       </c>
       <c r="O90" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="P90" t="b">
         <v>1</v>
@@ -22846,10 +22658,10 @@
         <v>142</v>
       </c>
       <c r="U90" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="V90" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="Y90" t="s">
         <v>42</v>
@@ -22879,13 +22691,13 @@
         <v>147</v>
       </c>
       <c r="AJ90" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="AK90" t="s">
         <v>148</v>
       </c>
       <c r="AO90" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91" spans="1:41">
@@ -22899,19 +22711,19 @@
         <v>123456789012</v>
       </c>
       <c r="D91" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E91" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F91" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G91" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I91" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="J91" t="s">
         <v>42</v>
@@ -22929,7 +22741,7 @@
         <v>54</v>
       </c>
       <c r="O91" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="P91" t="b">
         <v>0</v>
@@ -22944,10 +22756,10 @@
         <v>152</v>
       </c>
       <c r="U91" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="V91" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="Y91" t="s">
         <v>42</v>
@@ -22977,7 +22789,7 @@
         <v>78</v>
       </c>
       <c r="AO91" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" spans="1:41">
@@ -22991,19 +22803,19 @@
         <v>123456789012</v>
       </c>
       <c r="D92" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E92" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F92" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G92" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I92" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="J92" t="s">
         <v>42</v>
@@ -23021,7 +22833,7 @@
         <v>54</v>
       </c>
       <c r="O92" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="P92" t="b">
         <v>0</v>
@@ -23036,10 +22848,10 @@
         <v>152</v>
       </c>
       <c r="U92" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="V92" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="Y92" t="s">
         <v>42</v>
@@ -23069,7 +22881,7 @@
         <v>78</v>
       </c>
       <c r="AO92" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93" spans="1:41">
@@ -23083,19 +22895,19 @@
         <v>123456789012</v>
       </c>
       <c r="D93" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E93" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F93" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G93" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I93" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="J93" t="s">
         <v>42</v>
@@ -23113,7 +22925,7 @@
         <v>54</v>
       </c>
       <c r="O93" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="P93" t="b">
         <v>0</v>
@@ -23128,10 +22940,10 @@
         <v>152</v>
       </c>
       <c r="U93" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="V93" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="Y93" t="s">
         <v>42</v>
@@ -23161,7 +22973,7 @@
         <v>78</v>
       </c>
       <c r="AO93" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94" spans="1:41">
@@ -23175,19 +22987,19 @@
         <v>123456789012</v>
       </c>
       <c r="D94" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E94" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F94" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G94" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I94" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="J94" t="s">
         <v>42</v>
@@ -23205,7 +23017,7 @@
         <v>54</v>
       </c>
       <c r="O94" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="P94" t="b">
         <v>0</v>
@@ -23220,10 +23032,10 @@
         <v>152</v>
       </c>
       <c r="U94" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="V94" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="Y94" t="s">
         <v>42</v>
@@ -23253,7 +23065,7 @@
         <v>78</v>
       </c>
       <c r="AO94" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="95" spans="1:41">
@@ -23267,19 +23079,19 @@
         <v>123456789012</v>
       </c>
       <c r="D95" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E95" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F95" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G95" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I95" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="J95" t="s">
         <v>42</v>
@@ -23297,7 +23109,7 @@
         <v>54</v>
       </c>
       <c r="O95" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="P95" t="b">
         <v>0</v>
@@ -23312,10 +23124,10 @@
         <v>152</v>
       </c>
       <c r="U95" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="V95" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="Y95" t="s">
         <v>42</v>
@@ -23345,7 +23157,7 @@
         <v>78</v>
       </c>
       <c r="AO95" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" spans="1:41">
@@ -23359,19 +23171,19 @@
         <v>123456789012</v>
       </c>
       <c r="D96" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E96" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F96" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G96" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I96" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="J96" t="s">
         <v>42</v>
@@ -23389,7 +23201,7 @@
         <v>54</v>
       </c>
       <c r="O96" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="P96" t="b">
         <v>0</v>
@@ -23404,10 +23216,10 @@
         <v>152</v>
       </c>
       <c r="U96" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="V96" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="Y96" t="s">
         <v>42</v>
@@ -23437,7 +23249,7 @@
         <v>78</v>
       </c>
       <c r="AO96" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:41">
@@ -23451,19 +23263,19 @@
         <v>123456789012</v>
       </c>
       <c r="D97" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E97" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F97" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G97" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I97" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="J97" t="s">
         <v>42</v>
@@ -23481,7 +23293,7 @@
         <v>54</v>
       </c>
       <c r="O97" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="P97" t="b">
         <v>0</v>
@@ -23496,10 +23308,10 @@
         <v>152</v>
       </c>
       <c r="U97" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="V97" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="Y97" t="s">
         <v>42</v>
@@ -23529,7 +23341,7 @@
         <v>78</v>
       </c>
       <c r="AO97" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98" spans="1:41">
@@ -23543,19 +23355,19 @@
         <v>123456789012</v>
       </c>
       <c r="D98" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E98" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F98" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G98" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I98" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="J98" t="s">
         <v>42</v>
@@ -23573,7 +23385,7 @@
         <v>54</v>
       </c>
       <c r="O98" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="P98" t="b">
         <v>0</v>
@@ -23591,10 +23403,10 @@
         <v>142</v>
       </c>
       <c r="U98" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="V98" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="Y98" t="s">
         <v>42</v>
@@ -23627,10 +23439,10 @@
         <v>166</v>
       </c>
       <c r="AJ98" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="AO98" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="99" spans="1:41">
@@ -23644,19 +23456,19 @@
         <v>123456789012</v>
       </c>
       <c r="D99" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E99" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F99" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G99" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I99" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="J99" t="s">
         <v>42</v>
@@ -23674,7 +23486,7 @@
         <v>54</v>
       </c>
       <c r="O99" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="P99" t="b">
         <v>0</v>
@@ -23692,10 +23504,10 @@
         <v>142</v>
       </c>
       <c r="U99" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="V99" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="Y99" t="s">
         <v>42</v>
@@ -23728,10 +23540,10 @@
         <v>166</v>
       </c>
       <c r="AJ99" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="AO99" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:41">
@@ -23745,19 +23557,19 @@
         <v>123456789012</v>
       </c>
       <c r="D100" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E100" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F100" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G100" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="I100" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="J100" t="s">
         <v>42</v>
@@ -23775,7 +23587,7 @@
         <v>54</v>
       </c>
       <c r="O100" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="P100" t="b">
         <v>0</v>
@@ -23793,13 +23605,13 @@
         <v>142</v>
       </c>
       <c r="U100" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="V100" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="X100" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="Y100" t="s">
         <v>42</v>
@@ -23832,10 +23644,10 @@
         <v>166</v>
       </c>
       <c r="AJ100" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="AO100" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="101" spans="1:41">
@@ -35377,7 +35189,7 @@
       <c r="A18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18">
         <v>7</v>
       </c>
     </row>
@@ -35385,7 +35197,7 @@
       <c r="A19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19">
         <v>3</v>
       </c>
     </row>
@@ -35393,7 +35205,7 @@
       <c r="A20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20">
         <v>4</v>
       </c>
     </row>
@@ -35401,7 +35213,7 @@
       <c r="A21" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21">
         <v>7</v>
       </c>
     </row>
@@ -35444,7 +35256,7 @@
       <c r="A18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18">
         <v>3</v>
       </c>
     </row>
@@ -35452,7 +35264,7 @@
       <c r="A19" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19">
         <v>3</v>
       </c>
     </row>
@@ -35460,7 +35272,7 @@
       <c r="A20" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20">
         <v>3</v>
       </c>
     </row>
@@ -35468,7 +35280,7 @@
       <c r="A21" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21">
         <v>4</v>
       </c>
     </row>
@@ -35476,7 +35288,7 @@
       <c r="A22" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22">
         <v>4</v>
       </c>
     </row>
@@ -35484,7 +35296,7 @@
       <c r="A23" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23">
         <v>4</v>
       </c>
     </row>
@@ -35492,7 +35304,7 @@
       <c r="A24" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24">
         <v>7</v>
       </c>
     </row>
@@ -35536,7 +35348,7 @@
       <c r="A18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18">
         <v>7</v>
       </c>
     </row>
@@ -35544,7 +35356,7 @@
       <c r="A19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19">
         <v>7</v>
       </c>
     </row>
@@ -35552,7 +35364,7 @@
       <c r="A20" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20">
         <v>7</v>
       </c>
     </row>
@@ -35596,7 +35408,7 @@
       <c r="A18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18">
         <v>7</v>
       </c>
     </row>
@@ -35604,7 +35416,7 @@
       <c r="A19" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19">
         <v>7</v>
       </c>
     </row>
@@ -35612,7 +35424,7 @@
       <c r="A20" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20">
         <v>7</v>
       </c>
     </row>
@@ -35656,7 +35468,7 @@
       <c r="A18" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18">
         <v>3</v>
       </c>
     </row>
@@ -35664,7 +35476,7 @@
       <c r="A19" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19">
         <v>3</v>
       </c>
     </row>
@@ -35672,7 +35484,7 @@
       <c r="A20" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20">
         <v>4</v>
       </c>
     </row>
@@ -35680,7 +35492,7 @@
       <c r="A21" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21">
         <v>4</v>
       </c>
     </row>
@@ -35688,7 +35500,7 @@
       <c r="A22" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22">
         <v>7</v>
       </c>
     </row>
@@ -35732,7 +35544,7 @@
       <c r="A18" s="4">
         <v>123456789012</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18">
         <v>7</v>
       </c>
     </row>
@@ -35740,7 +35552,7 @@
       <c r="A19" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19">
         <v>7</v>
       </c>
     </row>
@@ -35748,7 +35560,7 @@
       <c r="A20" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20">
         <v>7</v>
       </c>
     </row>
